--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B532969-A6EE-42A6-9A5F-A2AD8661750B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6C0319-560E-47BE-967C-F9C9E5F57BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,14 @@
     <sheet name="Stats-all time" sheetId="2" r:id="rId2"/>
     <sheet name="Stats-this session" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Stats-this session'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Stats-this session'!$M$2:$M$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Stats-this session'!$N$2:$N$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Stats-this session'!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Stats-this session'!$K$2:$K$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Stats-this session'!$L$2:$L$6</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -93,10 +101,10 @@
     <t>Rebuys</t>
   </si>
   <si>
-    <t>Xavier</t>
+    <t>Hands played</t>
   </si>
   <si>
-    <t>Hands played</t>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
@@ -338,7 +346,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E086-48ED-9357-E376328A84EF}"/>
+              <c16:uniqueId val="{00000000-DF20-44FC-9F48-B8CB58C6B4B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -583,7 +591,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A45-42C6-8DBC-3A6EE4C83879}"/>
+              <c16:uniqueId val="{00000000-BDEB-4CF9-8679-5D3B8186BD80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -646,7 +654,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A45-42C6-8DBC-3A6EE4C83879}"/>
+              <c16:uniqueId val="{00000001-BDEB-4CF9-8679-5D3B8186BD80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -709,7 +717,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2A45-42C6-8DBC-3A6EE4C83879}"/>
+              <c16:uniqueId val="{00000002-BDEB-4CF9-8679-5D3B8186BD80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1033,7 +1041,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0297-423B-BAF1-CC1DAC2A54E9}"/>
+              <c16:uniqueId val="{00000000-4F26-4B23-A4DD-54C480F8C18B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1289,7 +1297,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15D7-4739-9231-1F4FADEDEC21}"/>
+              <c16:uniqueId val="{00000000-1452-4E03-9620-6CC5E9C7CCD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1355,7 +1363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-15D7-4739-9231-1F4FADEDEC21}"/>
+              <c16:uniqueId val="{00000001-1452-4E03-9620-6CC5E9C7CCD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1421,7 +1429,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-15D7-4739-9231-1F4FADEDEC21}"/>
+              <c16:uniqueId val="{00000002-1452-4E03-9620-6CC5E9C7CCD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1751,7 +1759,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6CCF-4725-9884-AC0ABDDC51D9}"/>
+              <c16:uniqueId val="{00000000-32AF-4ABC-B9DF-D027AA40EDD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1924,11 +1932,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Showdown Percentage</a:t>
+              <a:t>Went to showdown</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Stats</a:t>
+              <a:t> vs Won at showdown</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2012,7 +2020,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3585-4210-806B-EE4ED923B151}"/>
+              <c16:uniqueId val="{00000000-A27F-438C-B1F5-7EFD9FDAF3A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2078,7 +2086,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3585-4210-806B-EE4ED923B151}"/>
+              <c16:uniqueId val="{00000001-A27F-438C-B1F5-7EFD9FDAF3A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2203,37 +2211,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2281,11 +2258,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Showdown</a:t>
+              <a:t>$ won at showdown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="1"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>$</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Monetary Stats</a:t>
+              <a:t> won before showdown</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2414,7 +2407,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6F9-4A7C-B410-CCF91F811456}"/>
+              <c16:uniqueId val="{00000000-C643-4A59-A5BA-68DDC889A5D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2525,7 +2518,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E6F9-4A7C-B410-CCF91F811456}"/>
+              <c16:uniqueId val="{00000001-C643-4A59-A5BA-68DDC889A5D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2651,22 +2644,72 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hands Played</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
-          <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2681,17 +2724,846 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Xavier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stats-this session'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCF6-4BDA-A77D-053ED4C39A9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="211683936"/>
+        <c:axId val="211691008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="211683936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211691008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211691008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211683936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2953,6 +3825,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86BE258-A6F9-4C2B-B743-72B8AC84D021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3436,10 +4344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,7 +4413,7 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -3553,12 +4461,15 @@
       <c r="N2">
         <v>14.02</v>
       </c>
+      <c r="O2">
+        <v>175</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -3598,6 +4509,9 @@
       </c>
       <c r="N3">
         <v>75.040000000000006</v>
+      </c>
+      <c r="O3">
+        <v>171</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="4"/>
@@ -3645,6 +4559,9 @@
       <c r="N4">
         <v>31.05</v>
       </c>
+      <c r="O4">
+        <v>142</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="4"/>
     </row>
@@ -3691,6 +4608,9 @@
       <c r="N5">
         <v>32.14</v>
       </c>
+      <c r="O5">
+        <v>114</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
     </row>
@@ -3737,35 +4657,16 @@
       <c r="N6">
         <v>24.41</v>
       </c>
+      <c r="O6">
+        <v>58</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O6">
+    <sortCondition descending="1" ref="O6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,29 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6C0319-560E-47BE-967C-F9C9E5F57BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB82DA-B457-472A-A355-FEAA5BCD50C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
     <sheet name="Stats-all time" sheetId="2" r:id="rId2"/>
     <sheet name="Stats-this session" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Stats-this session'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Stats-this session'!$M$2:$M$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Stats-this session'!$N$2:$N$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Stats-this session'!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Stats-this session'!$K$2:$K$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Stats-this session'!$L$2:$L$6</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Net</t>
   </si>
@@ -104,7 +96,25 @@
     <t>Hands played</t>
   </si>
   <si>
-    <t>Xavier</t>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Kynan</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Regan</t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
   </si>
 </sst>
 </file>
@@ -346,7 +356,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF20-44FC-9F48-B8CB58C6B4B6}"/>
+              <c16:uniqueId val="{00000000-92D7-44C1-BF2A-1AD56BA2A7FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -591,7 +601,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDEB-4CF9-8679-5D3B8186BD80}"/>
+              <c16:uniqueId val="{00000000-8C70-461A-8BFC-7F9B898F93ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -654,7 +664,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BDEB-4CF9-8679-5D3B8186BD80}"/>
+              <c16:uniqueId val="{00000001-8C70-461A-8BFC-7F9B898F93ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -717,7 +727,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BDEB-4CF9-8679-5D3B8186BD80}"/>
+              <c16:uniqueId val="{00000002-8C70-461A-8BFC-7F9B898F93ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1041,7 +1051,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F26-4B23-A4DD-54C480F8C18B}"/>
+              <c16:uniqueId val="{00000000-14B6-41F0-B3C4-D0D32F21E275}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1250,54 +1260,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$F$2:$F$6</c:f>
+              <c:f>'Stats-this session'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.46500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51700000000000002</c:v>
+                <c:pt idx="5">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1452-4E03-9620-6CC5E9C7CCD7}"/>
+              <c16:uniqueId val="{00000000-8299-4611-80FB-C42588D3FAAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1316,54 +1356,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$G$2:$G$6</c:f>
+              <c:f>'Stats-this session'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.40600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.3E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.379</c:v>
+                <c:pt idx="5">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1452-4E03-9620-6CC5E9C7CCD7}"/>
+              <c16:uniqueId val="{00000001-8299-4611-80FB-C42588D3FAAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,54 +1452,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$H$2:$H$6</c:f>
+              <c:f>'Stats-this session'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.8000000000000005E-3</c:v>
+                  <c:v>3.9100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4300000000000005E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7999999999999996E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1100000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1207</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1452-4E03-9620-6CC5E9C7CCD7}"/>
+              <c16:uniqueId val="{00000002-8299-4611-80FB-C42588D3FAAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1712,54 +1812,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$I$2:$I$6</c:f>
+              <c:f>'Stats-this session'!$I$2:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>1.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32AF-4ABC-B9DF-D027AA40EDD4}"/>
+              <c16:uniqueId val="{00000000-7B4F-4F0C-81AE-45A0C330D427}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1971,56 +2053,121 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$K$2:$K$6</c:f>
+              <c:f>'Stats-this session'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.629</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.497</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24099999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A27F-438C-B1F5-7EFD9FDAF3A0}"/>
+              <c16:uniqueId val="{00000000-DAFB-42DF-955D-682A492E3923}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2037,56 +2184,121 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$L$2:$L$6</c:f>
+              <c:f>'Stats-this session'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.123</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13700000000000001</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A27F-438C-B1F5-7EFD9FDAF3A0}"/>
+              <c16:uniqueId val="{00000001-DAFB-42DF-955D-682A492E3923}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2360,54 +2572,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$M$2:$M$6</c:f>
+              <c:f>'Stats-this session'!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>154.75</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146.85</c:v>
+                  <c:v>48.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194.91</c:v>
+                  <c:v>322.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.57</c:v>
+                  <c:v>48.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.3</c:v>
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>393.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C643-4A59-A5BA-68DDC889A5D0}"/>
+              <c16:uniqueId val="{00000000-DEA2-4540-BB44-03985FDCE29C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2471,54 +2713,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$N$2:$N$6</c:f>
+              <c:f>'Stats-this session'!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.02</c:v>
+                  <c:v>37.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.040000000000006</c:v>
+                  <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.05</c:v>
+                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.14</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.41</c:v>
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C643-4A59-A5BA-68DDC889A5D0}"/>
+              <c16:uniqueId val="{00000001-DEA2-4540-BB44-03985FDCE29C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2677,7 +2949,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2701,29 +2973,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2741,8 +2993,8 @@
             </a:solidFill>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2750,8 +3002,8 @@
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2760,7 +3012,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2785,21 +3037,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2812,16 +3050,16 @@
                   <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Xavier</c:v>
+                  <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Fish</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
+                  <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Jonathan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2833,26 +3071,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCF6-4BDA-A77D-053ED4C39A9E}"/>
+              <c16:uniqueId val="{00000000-7F39-43AF-8EDF-F806702A0AD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2889,16 +3127,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2936,9 +3174,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2949,15 +3187,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2976,594 +3214,17 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3848,7 +3509,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86BE258-A6F9-4C2B-B743-72B8AC84D021}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4344,10 +4005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4423,250 +4084,476 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>74.599999999999994</v>
+        <v>46.46</v>
       </c>
       <c r="D2" s="2">
-        <v>64.599999999999994</v>
+        <v>6.46</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.46500000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G2">
-        <v>0.16700000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H2">
-        <v>8.8000000000000005E-3</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I2">
-        <v>1.08</v>
+        <v>1.73</v>
       </c>
       <c r="J2">
-        <v>0.308</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="K2">
-        <v>0.27200000000000002</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L2">
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="M2">
-        <v>154.75</v>
+        <v>147</v>
       </c>
       <c r="N2">
-        <v>14.02</v>
+        <v>37.68</v>
       </c>
       <c r="O2">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C3">
+        <v>22.25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-7.75</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>-55</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>0.81699999999999995</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
-        <v>7.4300000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.66</v>
+        <v>0.39</v>
       </c>
       <c r="J3">
-        <v>0.58899999999999997</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K3">
-        <v>0.629</v>
+        <v>0.106</v>
       </c>
       <c r="L3">
-        <v>0.13700000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M3">
-        <v>146.85</v>
+        <v>48.54</v>
       </c>
       <c r="N3">
-        <v>75.040000000000006</v>
+        <v>8.15</v>
       </c>
       <c r="O3">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>42.28</v>
-      </c>
-      <c r="D4" s="2">
-        <v>22.28</v>
+        <v>66.010000000000005</v>
+      </c>
+      <c r="D4">
+        <v>36.01</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.81299999999999994</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="G4">
-        <v>2.3E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>5.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="J4">
-        <v>0.13300000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K4">
-        <v>0.497</v>
+        <v>0.214</v>
       </c>
       <c r="L4">
-        <v>0.20499999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="M4">
-        <v>194.91</v>
+        <v>322.52999999999997</v>
       </c>
       <c r="N4">
-        <v>31.05</v>
+        <v>13.92</v>
       </c>
       <c r="O4">
-        <v>142</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>18.12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-11.88</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-30</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.50700000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="G5">
-        <v>9.1999999999999998E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H5">
-        <v>2.1100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="J5">
-        <v>0.215</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K5">
-        <v>0.31</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="L5">
-        <v>8.5000000000000006E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="M5">
-        <v>118.57</v>
+        <v>48.56</v>
       </c>
       <c r="N5">
-        <v>32.14</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O5">
-        <v>114</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="D6">
+        <v>-0.49</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="I6">
+        <v>0.24</v>
+      </c>
+      <c r="J6">
+        <v>0.11</v>
+      </c>
+      <c r="K6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6">
+        <v>10.52</v>
+      </c>
+      <c r="N6">
+        <v>6.95</v>
+      </c>
+      <c r="O6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>185.77</v>
+      </c>
+      <c r="D7">
+        <v>155.77000000000001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.07E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.18</v>
+      </c>
+      <c r="J7">
+        <v>0.108</v>
+      </c>
+      <c r="K7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M7">
+        <v>393.14</v>
+      </c>
+      <c r="N7">
+        <v>13.71</v>
+      </c>
+      <c r="O7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>-20</v>
       </c>
-      <c r="E6">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="G6">
-        <v>0.379</v>
-      </c>
-      <c r="H6">
-        <v>0.1207</v>
-      </c>
-      <c r="I6">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="J6">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="K6">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="L6">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="M6">
-        <v>17.3</v>
-      </c>
-      <c r="N6">
-        <v>24.41</v>
-      </c>
-      <c r="O6">
-        <v>58</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.22</v>
+      </c>
+      <c r="J8">
+        <v>0.109</v>
+      </c>
+      <c r="K8">
+        <v>0.152</v>
+      </c>
+      <c r="L8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M8">
+        <v>48.5</v>
+      </c>
+      <c r="N8">
+        <v>18.2</v>
+      </c>
+      <c r="O8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.23</v>
+      </c>
+      <c r="J9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.26</v>
+      </c>
+      <c r="L9">
+        <v>0.125</v>
+      </c>
+      <c r="M9">
+        <v>147.59</v>
+      </c>
+      <c r="N9">
+        <v>38.07</v>
+      </c>
+      <c r="O9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-120</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H10">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.37</v>
+      </c>
+      <c r="J10">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M10">
+        <v>121.03</v>
+      </c>
+      <c r="N10">
+        <v>49.87</v>
+      </c>
+      <c r="O10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.65</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0.12</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>10.94</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O6">
-    <sortCondition descending="1" ref="O6"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,38 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB82DA-B457-472A-A355-FEAA5BCD50C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2B59C-81EE-4DA9-8E78-7C6644EA33CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
     <sheet name="Stats-all time" sheetId="2" r:id="rId2"/>
     <sheet name="Stats-this session" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Bankrolls!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Bankrolls!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Stats-this session'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Stats-this session'!$F$2:$F$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Stats-this session'!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Stats-this session'!$H$2:$H$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Net</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>net all time</t>
-  </si>
-  <si>
-    <t>-4Mt9GCcpf</t>
   </si>
   <si>
     <t>Scott</t>
@@ -116,6 +109,18 @@
   <si>
     <t>Cheyenne</t>
   </si>
+  <si>
+    <t>Net all-time</t>
+  </si>
+  <si>
+    <t>Bankroll</t>
+  </si>
+  <si>
+    <t>Own Money Invested</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -166,6 +171,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,309 +190,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>All-time Net Bankrolls</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln cap="sq">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-4Mt9GCcpf</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Raymond</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Bankrolls!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>336.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92D7-44C1-BF2A-1AD56BA2A7FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1350194191"/>
-        <c:axId val="1350187535"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1350194191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350187535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1350187535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350194191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -601,7 +304,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C70-461A-8BFC-7F9B898F93ED}"/>
+              <c16:uniqueId val="{00000000-1D1B-4362-BD9E-E60533306D12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -664,7 +367,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C70-461A-8BFC-7F9B898F93ED}"/>
+              <c16:uniqueId val="{00000001-1D1B-4362-BD9E-E60533306D12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -727,7 +430,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8C70-461A-8BFC-7F9B898F93ED}"/>
+              <c16:uniqueId val="{00000002-1D1B-4362-BD9E-E60533306D12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -895,7 +598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1051,7 +754,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-14B6-41F0-B3C4-D0D32F21E275}"/>
+              <c16:uniqueId val="{00000000-1E42-4A16-BF6F-BFFFB16B4E45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1189,7 +892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1264,31 +967,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -1303,31 +1006,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.60899999999999999</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.32600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.46500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.65</c:v>
@@ -1337,7 +1040,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8299-4611-80FB-C42588D3FAAA}"/>
+              <c16:uniqueId val="{00000000-31B8-4C0C-9F27-EC0DBDA3B27A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,31 +1063,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -1399,31 +1102,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.05</c:v>
@@ -1433,7 +1136,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8299-4611-80FB-C42588D3FAAA}"/>
+              <c16:uniqueId val="{00000001-31B8-4C0C-9F27-EC0DBDA3B27A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1456,31 +1159,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -1495,10 +1198,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.9100000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.07E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1507,19 +1210,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.9100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.07E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.2900000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2900000000000006E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1529,7 +1232,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8299-4611-80FB-C42588D3FAAA}"/>
+              <c16:uniqueId val="{00000002-31B8-4C0C-9F27-EC0DBDA3B27A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1697,7 +1400,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1812,36 +1515,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$I$2:$I$3</c:f>
+              <c:f>'Stats-this session'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.73</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B4F-4F0C-81AE-45A0C330D427}"/>
+              <c16:uniqueId val="{00000000-5D41-497D-9CB4-F6CE46132BDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1979,7 +1730,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2094,31 +1845,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -2133,31 +1884,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.22700000000000001</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.2</c:v>
@@ -2167,7 +1918,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAFB-42DF-955D-682A492E3923}"/>
+              <c16:uniqueId val="{00000000-039C-4F58-93A3-AAB0650C7F03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2225,31 +1976,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -2264,31 +2015,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.1</c:v>
@@ -2298,7 +2049,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DAFB-42DF-955D-682A492E3923}"/>
+              <c16:uniqueId val="{00000001-039C-4F58-93A3-AAB0650C7F03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2435,7 +2186,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2576,31 +2327,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -2615,31 +2366,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>147</c:v>
+                  <c:v>322.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>393.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>48.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>322.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10.52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>393.14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147.59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>121.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10.94</c:v>
@@ -2649,7 +2400,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEA2-4540-BB44-03985FDCE29C}"/>
+              <c16:uniqueId val="{00000000-94D9-4EA4-B21B-349F14B35CDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2717,31 +2468,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Cheyenne</c:v>
@@ -2756,31 +2507,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37.68</c:v>
+                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>37.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2790,7 +2541,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DEA2-4540-BB44-03985FDCE29C}"/>
+              <c16:uniqueId val="{00000001-94D9-4EA4-B21B-349F14B35CDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2928,7 +2679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3043,54 +2794,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$O$2:$O$6</c:f>
+              <c:f>'Stats-this session'!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F39-43AF-8EDF-F806702A0AD2}"/>
+              <c16:uniqueId val="{00000000-E292-4719-9F02-DC8CEA6F9927}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3231,47 +3012,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3345,7 +3085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3422,15 +3162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3493,16 +3233,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3815,66 +3555,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>120</v>
-      </c>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>200</v>
-      </c>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>336.52</v>
-      </c>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3890,36 +3691,36 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -3939,7 +3740,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -3959,7 +3760,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.6</v>
@@ -3979,7 +3780,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0.46</v>
@@ -4007,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,201 +3833,201 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>46.46</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.46</v>
+        <v>66.010000000000005</v>
+      </c>
+      <c r="D2" s="5">
+        <v>36.01</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.60899999999999999</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="G2">
-        <v>0.40600000000000003</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H2">
-        <v>3.9100000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.73</v>
+        <v>0.51</v>
       </c>
       <c r="J2">
-        <v>0.42299999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="K2">
-        <v>0.22700000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="L2">
-        <v>0.125</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="M2">
-        <v>147</v>
+        <v>322.52999999999997</v>
       </c>
       <c r="N2">
-        <v>37.68</v>
+        <v>13.92</v>
       </c>
       <c r="O2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
-        <v>22.25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-7.75</v>
+        <v>185.77</v>
+      </c>
+      <c r="D3" s="5">
+        <v>155.77000000000001</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.32600000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.07E-2</v>
       </c>
       <c r="I3">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="J3">
-        <v>0.13200000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="K3">
-        <v>0.106</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="L3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="M3">
-        <v>48.54</v>
+        <v>393.14</v>
       </c>
       <c r="N3">
-        <v>8.15</v>
+        <v>13.71</v>
       </c>
       <c r="O3">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4">
-        <v>66.010000000000005</v>
-      </c>
-      <c r="D4">
-        <v>36.01</v>
+        <v>22.25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-7.75</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.61399999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="G4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>0.22</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K4">
-        <v>0.214</v>
+        <v>0.106</v>
       </c>
       <c r="L4">
-        <v>9.7000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M4">
-        <v>322.52999999999997</v>
+        <v>48.54</v>
       </c>
       <c r="N4">
-        <v>13.92</v>
+        <v>8.15</v>
       </c>
       <c r="O4">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -4234,7 +4035,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>-30</v>
       </c>
       <c r="E5">
@@ -4273,242 +4074,242 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="D6">
-        <v>-0.49</v>
+        <v>46.46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.46</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.46500000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G6">
-        <v>2.3E-2</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>1.73</v>
       </c>
       <c r="J6">
-        <v>0.11</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="K6">
-        <v>0.14000000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M6">
-        <v>10.52</v>
+        <v>147</v>
       </c>
       <c r="N6">
-        <v>6.95</v>
+        <v>37.68</v>
       </c>
       <c r="O6">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>185.77</v>
-      </c>
-      <c r="D7">
-        <v>155.77000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-10</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.68300000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G7">
-        <v>5.5E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H7">
-        <v>2.07E-2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="J7">
-        <v>0.108</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K7">
-        <v>0.26900000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="L7">
-        <v>0.13800000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="M7">
-        <v>393.14</v>
+        <v>147.59</v>
       </c>
       <c r="N7">
-        <v>13.71</v>
+        <v>38.07</v>
       </c>
       <c r="O7">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>-20</v>
+      <c r="D8" s="5">
+        <v>-120</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0.59799999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>1.37</v>
       </c>
       <c r="J8">
-        <v>0.109</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="K8">
-        <v>0.152</v>
+        <v>0.25</v>
       </c>
       <c r="L8">
-        <v>4.2999999999999997E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="M8">
-        <v>48.5</v>
+        <v>121.03</v>
       </c>
       <c r="N8">
-        <v>18.2</v>
+        <v>49.87</v>
       </c>
       <c r="O8">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>-10</v>
+      <c r="D9" s="5">
+        <v>-20</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G9">
         <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="G9">
-        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="J9">
-        <v>0.13300000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="K9">
-        <v>0.26</v>
+        <v>0.152</v>
       </c>
       <c r="L9">
-        <v>0.125</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="M9">
-        <v>147.59</v>
+        <v>48.5</v>
       </c>
       <c r="N9">
-        <v>38.07</v>
+        <v>18.2</v>
       </c>
       <c r="O9">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C10">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-0.49</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>-120</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="G10">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="H10">
-        <v>7.2900000000000006E-2</v>
-      </c>
       <c r="I10">
-        <v>1.37</v>
+        <v>0.24</v>
       </c>
       <c r="J10">
-        <v>0.41399999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L10">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10">
-        <v>121.03</v>
+        <v>10.52</v>
       </c>
       <c r="N10">
-        <v>49.87</v>
+        <v>6.95</v>
       </c>
       <c r="O10">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4516,7 +4317,7 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>-10</v>
       </c>
       <c r="E11">
@@ -4554,8 +4355,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O11">
+    <sortCondition descending="1" ref="O2:O11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67045EBC-1382-49B9-BC6F-0EDD3B3ABD89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E41345-ECE6-4F1D-BD32-EBE536851BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -185,10 +185,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -776,29 +776,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$K$2:$K$3</c:f>
+              <c:f>'Stats-this session'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.22700000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.106</c:v>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,29 +907,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$L$2:$L$3</c:f>
+              <c:f>'Stats-this session'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.7000000000000002E-2</c:v>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,29 +1258,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$M$2:$M$3</c:f>
+              <c:f>'Stats-this session'!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>322.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.54</c:v>
+                <c:pt idx="5">
+                  <c:v>147.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,29 +1399,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$N$2:$N$3</c:f>
+              <c:f>'Stats-this session'!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>37.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.15</c:v>
+                <c:pt idx="5">
+                  <c:v>38.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,65 +1729,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$9</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Kynan</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jonathan</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$O$2:$O$9</c:f>
+              <c:f>'Stats-this session'!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104</c:v>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4040,9 +4244,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>VPIP</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4055,29 +4256,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$F$2:$F$3</c:f>
+              <c:f>'Stats-this session'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.60899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32600000000000001</c:v>
+                <c:pt idx="5">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,9 +4340,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Pre-flop Raise</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -4106,28 +4352,76 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$G$2:$G$3</c:f>
+              <c:f>'Stats-this session'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.40600000000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4142,9 +4436,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Three-bet preflop</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -4157,28 +4448,76 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$H$2:$H$3</c:f>
+              <c:f>'Stats-this session'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.9100000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4469,29 +4808,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stats-this session'!$A$2:$A$3</c:f>
+              <c:f>'Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Bill</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cedric</c:v>
+                <c:pt idx="5">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stats-this session'!$I$2:$I$3</c:f>
+              <c:f>'Stats-this session'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.73</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9258,7 +9645,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9849,8 +10236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9923,147 +10310,147 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>46.46</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.46</v>
+        <v>66.010000000000005</v>
+      </c>
+      <c r="D2" s="4">
+        <v>36.01</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.60899999999999999</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="G2">
-        <v>0.40600000000000003</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H2">
-        <v>3.9100000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.73</v>
+        <v>0.51</v>
       </c>
       <c r="J2">
-        <v>0.42299999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="K2">
-        <v>0.22700000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="L2">
-        <v>0.125</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="M2">
-        <v>147</v>
+        <v>322.52999999999997</v>
       </c>
       <c r="N2">
-        <v>37.68</v>
+        <v>13.92</v>
       </c>
       <c r="O2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
-        <v>22.25</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-7.75</v>
+        <v>185.77</v>
+      </c>
+      <c r="D3" s="4">
+        <v>155.77000000000001</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.32600000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.07E-2</v>
       </c>
       <c r="I3">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="J3">
-        <v>0.13200000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="K3">
-        <v>0.106</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="L3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="M3">
-        <v>48.54</v>
+        <v>393.14</v>
       </c>
       <c r="N3">
-        <v>8.15</v>
+        <v>13.71</v>
       </c>
       <c r="O3">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4">
-        <v>66.010000000000005</v>
-      </c>
-      <c r="D4">
-        <v>36.01</v>
+        <v>22.25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-7.75</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.61399999999999999</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="G4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>0.22</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K4">
-        <v>0.214</v>
+        <v>0.106</v>
       </c>
       <c r="L4">
-        <v>9.7000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M4">
-        <v>322.52999999999997</v>
+        <v>48.54</v>
       </c>
       <c r="N4">
-        <v>13.92</v>
+        <v>8.15</v>
       </c>
       <c r="O4">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -10115,237 +10502,237 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="D6">
-        <v>-0.49</v>
+        <v>46.46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.46</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.46500000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G6">
-        <v>2.3E-2</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>1.73</v>
       </c>
       <c r="J6">
-        <v>0.11</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="K6">
-        <v>0.14000000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M6">
-        <v>10.52</v>
+        <v>147</v>
       </c>
       <c r="N6">
-        <v>6.95</v>
+        <v>37.68</v>
       </c>
       <c r="O6">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>185.77</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>155.77000000000001</v>
+        <v>-10</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.68300000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G7">
-        <v>5.5E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H7">
-        <v>2.07E-2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="J7">
-        <v>0.108</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K7">
-        <v>0.26900000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="L7">
-        <v>0.13800000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="M7">
-        <v>393.14</v>
+        <v>147.59</v>
       </c>
       <c r="N7">
-        <v>13.71</v>
+        <v>38.07</v>
       </c>
       <c r="O7">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0.59799999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>1.37</v>
       </c>
       <c r="J8">
-        <v>0.109</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="K8">
-        <v>0.152</v>
+        <v>0.25</v>
       </c>
       <c r="L8">
-        <v>4.2999999999999997E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="M8">
-        <v>48.5</v>
+        <v>121.03</v>
       </c>
       <c r="N8">
-        <v>18.2</v>
+        <v>49.87</v>
       </c>
       <c r="O8">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G9">
         <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="G9">
-        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="J9">
-        <v>0.13300000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="K9">
-        <v>0.26</v>
+        <v>0.152</v>
       </c>
       <c r="L9">
-        <v>0.125</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="M9">
-        <v>147.59</v>
+        <v>48.5</v>
       </c>
       <c r="N9">
-        <v>38.07</v>
+        <v>18.2</v>
       </c>
       <c r="O9">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C10">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="D10">
+        <v>-0.49</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>-120</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="G10">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="H10">
-        <v>7.2900000000000006E-2</v>
-      </c>
       <c r="I10">
-        <v>1.37</v>
+        <v>0.24</v>
       </c>
       <c r="J10">
-        <v>0.41399999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L10">
-        <v>9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10">
-        <v>121.03</v>
+        <v>10.52</v>
       </c>
       <c r="N10">
-        <v>49.87</v>
+        <v>6.95</v>
       </c>
       <c r="O10">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -10396,6 +10783,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O11">
+    <sortCondition descending="1" ref="O2:O11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE22FC78-0171-4B2D-AA41-0289CE813714}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABD058-D50C-483C-817E-DA7858C5210D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
-    <sheet name="All Stats-this session" sheetId="2" r:id="rId2"/>
-    <sheet name="NL Stats-this session" sheetId="3" r:id="rId3"/>
-    <sheet name="PLO Stats-this session" sheetId="4" r:id="rId4"/>
+    <sheet name="NL Stats-this session" sheetId="3" r:id="rId2"/>
+    <sheet name="PLO Stats-this session" sheetId="4" r:id="rId3"/>
+    <sheet name="All Stats-this session" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -234,8 +234,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pre-Flop Stats</a:t>
+              <a:t>Fish</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bankroll</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -251,205 +256,163 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Bankroll</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>4 09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scott</c:v>
+                  <c:v>4 16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>4 19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
+                  <c:v>4 24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$F$2:$F$6</c:f>
+              <c:f>Bankrolls!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.71799999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>10.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.495</c:v>
+                  <c:v>31.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.436</c:v>
+                  <c:v>21.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>43.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>185.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-37A1-4269-B031-73900DA9DD59}"/>
+              <c16:uniqueId val="{00000000-7E43-4157-95D6-BA03C2C536E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Own Money Invested</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$G$2:$G$6</c:f>
+              <c:f>Bankrolls!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>15.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>35.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>45.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.114</c:v>
+                  <c:v>45.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42399999999999999</c:v>
+                  <c:v>45.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.330000000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.330000000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.330000000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-37A1-4269-B031-73900DA9DD59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'All Stats-this session'!$H$2:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0300000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-37A1-4269-B031-73900DA9DD59}"/>
+              <c16:uniqueId val="{00000001-7E43-4157-95D6-BA03C2C536E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -461,20 +424,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1400196383"/>
-        <c:axId val="1400210943"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="713638751"/>
+        <c:axId val="715084319"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1400196383"/>
+        <c:axId val="713638751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -495,7 +457,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -510,7 +472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400210943"/>
+        <c:crossAx val="715084319"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -518,7 +480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1400210943"/>
+        <c:axId val="715084319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,8 +500,8 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -554,7 +516,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -569,13 +531,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400196383"/>
+        <c:crossAx val="713638751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -589,7 +551,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -731,13 +693,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -745,12 +721,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D642-4599-955E-6B120C5A6961}"/>
+              <c16:uniqueId val="{00000000-474C-47F4-8157-D39CF3DF0932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,13 +948,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -971,12 +973,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2928-4DAC-B3ED-87F94E86AA5E}"/>
+              <c16:uniqueId val="{00000000-60A5-4596-B8BC-CFED22CDBCE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -994,13 +1008,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1008,12 +1033,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2928-4DAC-B3ED-87F94E86AA5E}"/>
+              <c16:uniqueId val="{00000001-60A5-4596-B8BC-CFED22CDBCE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1031,13 +1068,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1045,12 +1093,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2928-4DAC-B3ED-87F94E86AA5E}"/>
+              <c16:uniqueId val="{00000002-60A5-4596-B8BC-CFED22CDBCE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1332,13 +1392,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1346,12 +1417,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BE1-41CD-B05E-72BB53E9A69A}"/>
+              <c16:uniqueId val="{00000000-724D-45CD-A8F3-B1670BCFE566}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1599,13 +1682,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1613,12 +1707,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CEE-4D4B-8F20-3D2D7BD71864}"/>
+              <c16:uniqueId val="{00000000-E17A-4547-B650-6B6FD51329D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1671,13 +1777,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1685,12 +1802,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2CEE-4D4B-8F20-3D2D7BD71864}"/>
+              <c16:uniqueId val="{00000001-E17A-4547-B650-6B6FD51329D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1963,13 +2092,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1977,12 +2117,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBC0-4BBE-A3A9-789F332F5618}"/>
+              <c16:uniqueId val="{00000000-FCD3-4928-84CF-4CB455D4DCDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2045,13 +2197,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2059,12 +2222,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBC0-4BBE-A3A9-789F332F5618}"/>
+              <c16:uniqueId val="{00000001-FCD3-4928-84CF-4CB455D4DCDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2316,13 +2491,24 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2330,12 +2516,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B62B-4BCC-A25E-E46867119DDE}"/>
+              <c16:uniqueId val="{00000000-AD1F-4B78-92C2-2903AFCBBB0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2472,7 +2670,425 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pre-Flop Stats</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All Stats-this session'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EA4-4A03-82CA-FDA3869B6509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All Stats-this session'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8EA4-4A03-82CA-FDA3869B6509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All Stats-this session'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8EA4-4A03-82CA-FDA3869B6509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1400196383"/>
+        <c:axId val="1400210943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1400196383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400210943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400210943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400196383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2634,7 +3250,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3484-4DDA-BE86-4C58FEE7F84A}"/>
+              <c16:uniqueId val="{00000000-2FA8-4059-9F78-15409E9AD880}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2772,7 +3388,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2930,7 +3546,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE15-4726-901A-84B3E6E9295E}"/>
+              <c16:uniqueId val="{00000000-436C-4C9A-84AB-12A801772829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3031,7 +3647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE15-4726-901A-84B3E6E9295E}"/>
+              <c16:uniqueId val="{00000001-436C-4C9A-84AB-12A801772829}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3168,7 +3784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3352,7 +3968,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0628-482B-9EC3-DE5060C90B9C}"/>
+              <c16:uniqueId val="{00000000-567F-4986-922B-32768D1C5DE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3463,7 +4079,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0628-482B-9EC3-DE5060C90B9C}"/>
+              <c16:uniqueId val="{00000001-567F-4986-922B-32768D1C5DE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3601,7 +4217,385 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Raymond </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Bankroll</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.770000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66FC-4C73-AAAE-FEDE4F1668F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66FC-4C73-AAAE-FEDE4F1668F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="713638751"/>
+        <c:axId val="715084319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="713638751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715084319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715084319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713638751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3763,7 +4757,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9387-40A8-A8EE-6A88AA5AA425}"/>
+              <c16:uniqueId val="{00000000-392A-47D0-9229-E32CBC0C2426}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3900,6 +4894,1140 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scott </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Bankroll</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>51.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CED-46CC-BCCC-0BA177BFA0C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CED-46CC-BCCC-0BA177BFA0C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="713638751"/>
+        <c:axId val="715084319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="713638751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715084319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715084319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713638751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cedric </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Bankroll</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$S$2:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-453E-46FA-9EBE-81F8B607A8C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>26.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.86999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.86999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.86999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-453E-46FA-9EBE-81F8B607A8C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="713638751"/>
+        <c:axId val="715084319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="713638751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715084319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715084319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713638751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cheyenne </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Bankroll</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$X$2:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8781-4E4A-BC25-386613B49E89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bankrolls!$Y$2:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8781-4E4A-BC25-386613B49E89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="713638751"/>
+        <c:axId val="715084319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="713638751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="715084319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="715084319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713638751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3970,13 +6098,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3984,12 +6126,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-633F-45CE-A2F8-34399403530D}"/>
+              <c16:uniqueId val="{00000000-F8B1-431F-B28A-A274354BA3DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4007,13 +6164,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4021,12 +6192,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-633F-45CE-A2F8-34399403530D}"/>
+              <c16:uniqueId val="{00000001-F8B1-431F-B28A-A274354BA3DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4044,13 +6230,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4058,12 +6258,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0300000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-633F-45CE-A2F8-34399403530D}"/>
+              <c16:uniqueId val="{00000002-F8B1-431F-B28A-A274354BA3DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4345,13 +6560,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4359,12 +6588,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8465-42A1-BCE8-17E139811D1C}"/>
+              <c16:uniqueId val="{00000000-756D-455C-8D46-D920AD7774D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4612,13 +6856,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4626,12 +6884,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1430-4E74-B9FD-C861104ADF4F}"/>
+              <c16:uniqueId val="{00000000-0276-410F-B0B2-B6238D4BA282}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4684,13 +6957,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4698,12 +6985,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1430-4E74-B9FD-C861104ADF4F}"/>
+              <c16:uniqueId val="{00000001-0276-410F-B0B2-B6238D4BA282}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4976,13 +7278,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4990,12 +7306,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>108.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4618-41E1-833E-F18DFC678011}"/>
+              <c16:uniqueId val="{00000000-5F37-4D15-9178-8A38A9D7FE04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5058,13 +7389,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5072,12 +7417,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>57.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4618-41E1-833E-F18DFC678011}"/>
+              <c16:uniqueId val="{00000001-5F37-4D15-9178-8A38A9D7FE04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5219,23 +7579,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5255,23 +7615,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5291,23 +7651,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5327,23 +7687,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5363,23 +7723,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>23810</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5770,6 +8130,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6069,8 +8614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6633,15 +9178,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,34 +9275,34 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.71799999999999997</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="G2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J2">
-        <v>0.185</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K2">
-        <v>0.27200000000000002</v>
+        <v>0.192</v>
       </c>
       <c r="L2">
-        <v>0.155</v>
+        <v>0.106</v>
       </c>
       <c r="M2">
-        <v>178.01</v>
+        <v>108.68</v>
       </c>
       <c r="N2">
-        <v>70.739999999999995</v>
+        <v>57.84</v>
       </c>
       <c r="O2">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
@@ -6778,34 +9324,34 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.64500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G3">
-        <v>0.41499999999999998</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="H3">
-        <v>3.6900000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I3">
-        <v>4.82</v>
+        <v>6.32</v>
       </c>
       <c r="J3">
-        <v>0.61</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="K3">
-        <v>0.184</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="L3">
-        <v>7.3999999999999996E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="M3">
-        <v>207.15</v>
+        <v>198.45</v>
       </c>
       <c r="N3">
-        <v>175.04</v>
+        <v>164.24</v>
       </c>
       <c r="O3">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
@@ -6830,34 +9376,34 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.495</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>1.9800000000000002E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="I4">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="K4">
-        <v>0.158</v>
+        <v>0.111</v>
       </c>
       <c r="L4">
-        <v>8.8999999999999996E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="M4">
-        <v>29.23</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="N4">
-        <v>37.32</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="O4">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -6877,34 +9423,34 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.436</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="G5">
-        <v>0.114</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H5">
-        <v>1.34E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="I5">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="J5">
-        <v>0.23899999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="K5">
-        <v>0.14799999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L5">
-        <v>7.3999999999999996E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="M5">
-        <v>44.7</v>
+        <v>13.9</v>
       </c>
       <c r="N5">
-        <v>43.47</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="O5">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -6962,11 +9508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="A2:O6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7038,16 +9584,198 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.61</v>
+      </c>
+      <c r="J2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="K2">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M2">
+        <v>69.33</v>
+      </c>
+      <c r="N2">
+        <v>12.9</v>
+      </c>
+      <c r="O2">
+        <v>55</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>101.44</v>
+      </c>
+      <c r="D3" s="2">
+        <v>81.44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2.73</v>
+      </c>
+      <c r="J3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N3">
+        <v>10.8</v>
+      </c>
+      <c r="O3">
+        <v>60</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.87</v>
+      </c>
+      <c r="J4">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.125</v>
+      </c>
+      <c r="M4">
+        <v>30.8</v>
+      </c>
+      <c r="N4">
+        <v>24.82</v>
+      </c>
+      <c r="O4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.65</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.69</v>
+      </c>
+      <c r="J5">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.35</v>
+      </c>
+      <c r="L5">
+        <v>0.25</v>
+      </c>
+      <c r="M5">
+        <v>19.18</v>
+      </c>
+      <c r="N5">
+        <v>3.3</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7058,11 +9786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="A2:O6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7134,16 +9862,245 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.34</v>
+      </c>
+      <c r="J2">
+        <v>0.185</v>
+      </c>
+      <c r="K2">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.155</v>
+      </c>
+      <c r="M2">
+        <v>178.01</v>
+      </c>
+      <c r="N2">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="O2">
+        <v>206</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>101.44</v>
+      </c>
+      <c r="D3" s="2">
+        <v>81.44</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H3">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.82</v>
+      </c>
+      <c r="J3">
+        <v>0.61</v>
+      </c>
+      <c r="K3">
+        <v>0.184</v>
+      </c>
+      <c r="L3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M3">
+        <v>207.15</v>
+      </c>
+      <c r="N3">
+        <v>175.04</v>
+      </c>
+      <c r="O3">
+        <v>217</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.495</v>
+      </c>
+      <c r="G4">
+        <v>0.03</v>
+      </c>
+      <c r="H4">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.45</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>0.158</v>
+      </c>
+      <c r="L4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M4">
+        <v>29.23</v>
+      </c>
+      <c r="N4">
+        <v>37.32</v>
+      </c>
+      <c r="O4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.436</v>
+      </c>
+      <c r="G5">
+        <v>0.114</v>
+      </c>
+      <c r="H5">
+        <v>1.34E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.86</v>
+      </c>
+      <c r="J5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M5">
+        <v>44.7</v>
+      </c>
+      <c r="N5">
+        <v>43.47</v>
+      </c>
+      <c r="O5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>5.56</v>
+      </c>
+      <c r="D6">
+        <v>-11.44</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.42</v>
+      </c>
+      <c r="J6">
+        <v>0.49</v>
+      </c>
+      <c r="K6">
+        <v>0.121</v>
+      </c>
+      <c r="L6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.85</v>
+      </c>
+      <c r="N6">
+        <v>15.24</v>
+      </c>
+      <c r="O6">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABD058-D50C-483C-817E-DA7858C5210D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72B3C82-D32C-4769-98EC-26777B4C34BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
@@ -6063,8 +6063,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pre-Flop Stats</a:t>
+              <a:t>VPIP,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pre-flop raise, three-bet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6403,37 +6408,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9186,8 +9160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9511,7 +9485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9789,8 +9763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08293560-FC7F-41ED-BC01-0740F96345D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74981C-688A-42B9-8948-955DFDAB5311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,23 @@
     <sheet name="All Stats-this session" sheetId="4" r:id="rId4"/>
     <sheet name="Stacks vs time" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -128,7 +139,25 @@
     <t>Hands played</t>
   </si>
   <si>
-    <t>Hand #</t>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Kynan</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Regan</t>
   </si>
 </sst>
 </file>
@@ -155,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,11 +201,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +224,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +395,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26F3-4BD2-A996-066656B2DEDE}"/>
+              <c16:uniqueId val="{00000000-853B-43D1-A145-894DE6E51DB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -416,7 +456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-26F3-4BD2-A996-066656B2DEDE}"/>
+              <c16:uniqueId val="{00000001-853B-43D1-A145-894DE6E51DB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -745,7 +785,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C48-4163-8B70-0E6906667F10}"/>
+              <c16:uniqueId val="{00000000-7A37-4CB6-B531-C747C607A801}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -994,7 +1034,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-651B-47C7-A5AE-934CD1F1F5A2}"/>
+              <c16:uniqueId val="{00000000-0F1E-4BD2-901B-19CB9B221430}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,7 +1094,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-651B-47C7-A5AE-934CD1F1F5A2}"/>
+              <c16:uniqueId val="{00000001-0F1E-4BD2-901B-19CB9B221430}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,7 +1154,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-651B-47C7-A5AE-934CD1F1F5A2}"/>
+              <c16:uniqueId val="{00000002-0F1E-4BD2-901B-19CB9B221430}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1438,7 +1478,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-738D-4DFB-8A0B-1078D3066B4C}"/>
+              <c16:uniqueId val="{00000000-FF9B-4C7B-B7FA-9EEA7A031857}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1728,7 +1768,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADDE-4D8B-A838-D8EB6528B380}"/>
+              <c16:uniqueId val="{00000000-A138-4BD2-B65D-A8D3EA3BB964}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1823,7 +1863,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADDE-4D8B-A838-D8EB6528B380}"/>
+              <c16:uniqueId val="{00000001-A138-4BD2-B65D-A8D3EA3BB964}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2138,7 +2178,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B530-4866-92CB-0136461A76EE}"/>
+              <c16:uniqueId val="{00000000-A0D8-4ECE-817C-19AE3972B9B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2243,7 +2283,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B530-4866-92CB-0136461A76EE}"/>
+              <c16:uniqueId val="{00000001-A0D8-4ECE-817C-19AE3972B9B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2537,7 +2577,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34EE-4C39-A876-0B205FFD563C}"/>
+              <c16:uniqueId val="{00000000-7BD8-4D69-82C2-379B1DEA9C3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2792,7 +2832,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3339-4440-B844-FDB56DD39380}"/>
+              <c16:uniqueId val="{00000000-EE40-4F05-9123-71458E68D154}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2858,7 +2898,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3339-4440-B844-FDB56DD39380}"/>
+              <c16:uniqueId val="{00000001-EE40-4F05-9123-71458E68D154}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2924,7 +2964,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3339-4440-B844-FDB56DD39380}"/>
+              <c16:uniqueId val="{00000002-EE40-4F05-9123-71458E68D154}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3254,7 +3294,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-033D-4863-80C3-FF3371F18986}"/>
+              <c16:uniqueId val="{00000000-60C4-45C4-8574-8BC75E237F28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3550,7 +3590,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69F6-40A3-AD9B-AD318745C690}"/>
+              <c16:uniqueId val="{00000000-9E96-493F-9510-2DD3C8F99EE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3651,7 +3691,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69F6-40A3-AD9B-AD318745C690}"/>
+              <c16:uniqueId val="{00000001-9E96-493F-9510-2DD3C8F99EE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3972,7 +4012,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8437-40D3-BF44-58D4557CE1F1}"/>
+              <c16:uniqueId val="{00000000-5D9B-492B-B74D-E5E32E063ADA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4083,7 +4123,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8437-40D3-BF44-58D4557CE1F1}"/>
+              <c16:uniqueId val="{00000001-5D9B-492B-B74D-E5E32E063ADA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4370,7 +4410,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9986-41D1-94E9-1049AAA7B0E3}"/>
+              <c16:uniqueId val="{00000000-C366-4D35-9B9C-E62065F70AF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4463,7 +4503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9986-41D1-94E9-1049AAA7B0E3}"/>
+              <c16:uniqueId val="{00000001-C366-4D35-9B9C-E62065F70AF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4761,7 +4801,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-682F-44C5-B6DF-A617B76CCE9A}"/>
+              <c16:uniqueId val="{00000000-18A9-42D8-A9A3-3E8D1B95E980}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4898,6 +4938,2010 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stacks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scott</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stacks vs time'!$B$2:$B$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.02</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.97</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.87</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22.12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.44</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15.44</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.49</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15.39</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17.59</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>19.29</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>17.39</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>38.71</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>38.21</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>40.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>46.93</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>46.93</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46.66</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>46.56</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>46.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A561-4E0D-AB7C-DE61BFA26FB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Fish</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stacks vs time'!$G$2:$G$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.68</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.88</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28.79</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.31</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29.66</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29.56</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28.76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28.66</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.96</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32.86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.36</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31.91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31.91</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31.11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33.61</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.61</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33.06</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32.96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32.96</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.62</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.22</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.62</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28.63</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>28.63</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32.53</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32.53</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>32.43</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>28.13</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27.83</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>53.23</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>53.83</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>53.63</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>53.63</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>53.53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>53.03</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>52.93</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>52.88</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>52.78</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>69.63</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>68.38</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>68.38</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>67.23</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>65.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>80.36</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>79.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>77.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>74.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>72.86</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>71.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>71.16</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>71.959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>71.91</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>71.91</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>69.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>69.06</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>155.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>155.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>152.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>149.34</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>148.84</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>147.84</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141.47</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142.47</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>142.1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>143.94</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>143.94</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>185.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A561-4E0D-AB7C-DE61BFA26FB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Regan</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stacks vs time'!$J$2:$J$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.92</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.37</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.62</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.62</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24.42</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23.72</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.67</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.67</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25.82</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25.82</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35.64</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35.64</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.65</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43.51</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43.41</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34.56</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58.49</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55.32</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>69.23</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>69.13</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>69.03</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>69.03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>69.03</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>66.98</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>66.98</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>66.98</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>66.48</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>63.23</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>62.23</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>64.33</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>64.33</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>64.23</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>63.23</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>64.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>64.14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>20.69</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A561-4E0D-AB7C-DE61BFA26FB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Bill</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stacks vs time'!$D$2:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="147"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.05</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42.82</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.72</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45.67</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.67</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.57</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45.57</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45.57</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>47.12</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47.12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46.32</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.82</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45.12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57.48</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56.93</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56.83</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>56.83</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>79.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>79.37</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78.91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>80.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>80.38</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>79.88</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>79.88</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78.78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>78.78</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>78.78</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>78.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>78.48</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>77.28</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>75.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>75.58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>75.48</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>110.48</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>110.48</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>110.48</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>110.38</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>113.58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>112.98</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>112.98</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>92.98</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>92.88</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>92.23</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>90.03</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>90.03</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>89.58</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>89.53</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>89.53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>85.16</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>85.06</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>84.86</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>84.76</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>84.06</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>59.41</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>59.41</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>47.07</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>47.07</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>46.07</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45.97</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>45.37</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44.27</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43.45</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>66.010000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A561-4E0D-AB7C-DE61BFA26FB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2023666735"/>
+        <c:axId val="2023666319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2023666735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Hand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2023666319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2023666319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Stack</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2023666735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5047,7 +7091,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C99E-4F67-BAA3-413C77770431}"/>
+              <c16:uniqueId val="{00000000-108F-456A-B4AA-F58582F08C56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5140,7 +7184,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C99E-4F67-BAA3-413C77770431}"/>
+              <c16:uniqueId val="{00000001-108F-456A-B4AA-F58582F08C56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5425,7 +7469,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1486-4286-BBBA-53672DFCBAD5}"/>
+              <c16:uniqueId val="{00000000-8D14-4110-913E-BA31BEB8381D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5518,7 +7562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1486-4286-BBBA-53672DFCBAD5}"/>
+              <c16:uniqueId val="{00000001-8D14-4110-913E-BA31BEB8381D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5803,7 +7847,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E14E-4E98-AFF9-7C92F331F0A7}"/>
+              <c16:uniqueId val="{00000000-6E84-45BB-9228-14962EFEB4C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5896,7 +7940,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E14E-4E98-AFF9-7C92F331F0A7}"/>
+              <c16:uniqueId val="{00000001-6E84-45BB-9228-14962EFEB4C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6155,7 +8199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEE7-49B1-BF75-8E56BC3A1E14}"/>
+              <c16:uniqueId val="{00000000-1DA6-423A-90D2-8700227796E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6221,7 +8265,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DEE7-49B1-BF75-8E56BC3A1E14}"/>
+              <c16:uniqueId val="{00000001-1DA6-423A-90D2-8700227796E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6287,7 +8331,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DEE7-49B1-BF75-8E56BC3A1E14}"/>
+              <c16:uniqueId val="{00000002-1DA6-423A-90D2-8700227796E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6586,7 +8630,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F67-45F0-83D7-4089B5EB5C52}"/>
+              <c16:uniqueId val="{00000000-1567-400D-BF78-EC0F0C783434}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6882,7 +8926,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6C8-41AB-AA4B-48B6E6600C55}"/>
+              <c16:uniqueId val="{00000000-F653-4032-A023-F06A1425ACAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6983,7 +9027,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6C8-41AB-AA4B-48B6E6600C55}"/>
+              <c16:uniqueId val="{00000001-F653-4032-A023-F06A1425ACAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7304,7 +9348,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64F9-44FA-9042-7D6DB6407EE0}"/>
+              <c16:uniqueId val="{00000000-ADA9-4EB7-B0D1-C7809E78AC59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7415,7 +9459,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64F9-44FA-9042-7D6DB6407EE0}"/>
+              <c16:uniqueId val="{00000001-ADA9-4EB7-B0D1-C7809E78AC59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8293,6 +10337,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10089,21 +12174,4622 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381DD02A-A252-430C-A300-731066B6FBBC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="C3">
+        <v>9.9</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>9.9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="C4">
+        <v>9.85</v>
+      </c>
+      <c r="D4">
+        <v>9.9</v>
+      </c>
+      <c r="E4">
+        <v>10.15</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="C5">
+        <v>9.85</v>
+      </c>
+      <c r="D5">
+        <v>9.6</v>
+      </c>
+      <c r="E5">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F5">
+        <v>9.9</v>
+      </c>
+      <c r="G5">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C6">
+        <v>9.85</v>
+      </c>
+      <c r="D6">
+        <v>9.6</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G6">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="C7">
+        <v>9.85</v>
+      </c>
+      <c r="D7">
+        <v>8.1</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+      <c r="F7">
+        <v>9.75</v>
+      </c>
+      <c r="G7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="C8">
+        <v>9.33</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>10.27</v>
+      </c>
+      <c r="F8">
+        <v>9.75</v>
+      </c>
+      <c r="G8">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>11.78</v>
+      </c>
+      <c r="C9">
+        <v>9.01</v>
+      </c>
+      <c r="D9">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E9">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F9">
+        <v>9.75</v>
+      </c>
+      <c r="G9">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>11.78</v>
+      </c>
+      <c r="C10">
+        <v>8.69</v>
+      </c>
+      <c r="D10">
+        <v>11.59</v>
+      </c>
+      <c r="E10">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="F10">
+        <v>9.23</v>
+      </c>
+      <c r="G10">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11.78</v>
+      </c>
+      <c r="C11">
+        <v>8.59</v>
+      </c>
+      <c r="D11">
+        <v>11.49</v>
+      </c>
+      <c r="E11">
+        <v>10.53</v>
+      </c>
+      <c r="F11">
+        <v>8.43</v>
+      </c>
+      <c r="G11">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>13.68</v>
+      </c>
+      <c r="C12">
+        <v>8.59</v>
+      </c>
+      <c r="D12">
+        <v>10.89</v>
+      </c>
+      <c r="E12">
+        <v>9.93</v>
+      </c>
+      <c r="F12">
+        <v>8.33</v>
+      </c>
+      <c r="G12">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13.68</v>
+      </c>
+      <c r="C13">
+        <v>8.59</v>
+      </c>
+      <c r="D13">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E13">
+        <v>9.73</v>
+      </c>
+      <c r="F13">
+        <v>9.4</v>
+      </c>
+      <c r="G13">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>23.74</v>
+      </c>
+      <c r="C14">
+        <v>8.59</v>
+      </c>
+      <c r="D14">
+        <v>0.71</v>
+      </c>
+      <c r="E14">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F14">
+        <v>9.4</v>
+      </c>
+      <c r="G14">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>23.03</v>
+      </c>
+      <c r="C15">
+        <v>8.49</v>
+      </c>
+      <c r="D15">
+        <v>0.16</v>
+      </c>
+      <c r="E15">
+        <v>8.58</v>
+      </c>
+      <c r="F15">
+        <v>12.02</v>
+      </c>
+      <c r="G15">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>22.33</v>
+      </c>
+      <c r="C16">
+        <v>14.09</v>
+      </c>
+      <c r="D16">
+        <v>10.06</v>
+      </c>
+      <c r="E16">
+        <v>7.88</v>
+      </c>
+      <c r="F16">
+        <v>11.32</v>
+      </c>
+      <c r="G16">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>22.63</v>
+      </c>
+      <c r="C17">
+        <v>14.09</v>
+      </c>
+      <c r="D17">
+        <v>10.36</v>
+      </c>
+      <c r="E17">
+        <v>7.28</v>
+      </c>
+      <c r="F17">
+        <v>11.32</v>
+      </c>
+      <c r="G17">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>22.23</v>
+      </c>
+      <c r="C18">
+        <v>14.09</v>
+      </c>
+      <c r="D18">
+        <v>10.36</v>
+      </c>
+      <c r="E18">
+        <v>8.48</v>
+      </c>
+      <c r="F18">
+        <v>10.92</v>
+      </c>
+      <c r="G18">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C19">
+        <v>14.09</v>
+      </c>
+      <c r="D19">
+        <v>10.36</v>
+      </c>
+      <c r="E19">
+        <v>7.88</v>
+      </c>
+      <c r="F19">
+        <v>10.87</v>
+      </c>
+      <c r="G19">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C20">
+        <v>14.09</v>
+      </c>
+      <c r="D20">
+        <v>10.26</v>
+      </c>
+      <c r="E20">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F20">
+        <v>10.77</v>
+      </c>
+      <c r="G20">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C21">
+        <v>13.09</v>
+      </c>
+      <c r="D21">
+        <v>10.26</v>
+      </c>
+      <c r="E21">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F21">
+        <v>10.77</v>
+      </c>
+      <c r="G21">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C22">
+        <v>13.04</v>
+      </c>
+      <c r="D22">
+        <v>9.86</v>
+      </c>
+      <c r="E22">
+        <v>8.73</v>
+      </c>
+      <c r="F22">
+        <v>10.77</v>
+      </c>
+      <c r="G22">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C23">
+        <v>13.04</v>
+      </c>
+      <c r="D23">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E23">
+        <v>9.23</v>
+      </c>
+      <c r="F23">
+        <v>10.77</v>
+      </c>
+      <c r="G23">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C24">
+        <v>12.64</v>
+      </c>
+      <c r="D24">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E24">
+        <v>9.83</v>
+      </c>
+      <c r="F24">
+        <v>10.67</v>
+      </c>
+      <c r="G24">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C25">
+        <v>12.64</v>
+      </c>
+      <c r="D25">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E25">
+        <v>9.73</v>
+      </c>
+      <c r="F25">
+        <v>10.62</v>
+      </c>
+      <c r="G25">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C26">
+        <v>12.99</v>
+      </c>
+      <c r="D26">
+        <v>9.36</v>
+      </c>
+      <c r="E26">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="F26">
+        <v>10.62</v>
+      </c>
+      <c r="G26">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C27">
+        <v>12.89</v>
+      </c>
+      <c r="D27">
+        <v>10.17</v>
+      </c>
+      <c r="E27">
+        <v>9.43</v>
+      </c>
+      <c r="F27">
+        <v>10.11</v>
+      </c>
+      <c r="G27">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C28">
+        <v>12.69</v>
+      </c>
+      <c r="D28">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F28">
+        <v>10.11</v>
+      </c>
+      <c r="G28">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C29">
+        <v>12.69</v>
+      </c>
+      <c r="D29">
+        <v>7.37</v>
+      </c>
+      <c r="E29">
+        <v>9.58</v>
+      </c>
+      <c r="F29">
+        <v>12.86</v>
+      </c>
+      <c r="G29">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C30">
+        <v>12.99</v>
+      </c>
+      <c r="D30">
+        <v>7.37</v>
+      </c>
+      <c r="E30">
+        <v>9.48</v>
+      </c>
+      <c r="F30">
+        <v>12.76</v>
+      </c>
+      <c r="G30">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C31">
+        <v>19.89</v>
+      </c>
+      <c r="D31">
+        <v>7.27</v>
+      </c>
+      <c r="E31">
+        <v>6.38</v>
+      </c>
+      <c r="F31">
+        <v>12.16</v>
+      </c>
+      <c r="G31">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C32">
+        <v>19.84</v>
+      </c>
+      <c r="D32">
+        <v>6.87</v>
+      </c>
+      <c r="E32">
+        <v>6.08</v>
+      </c>
+      <c r="F32">
+        <v>13.11</v>
+      </c>
+      <c r="G32">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C33">
+        <v>19.84</v>
+      </c>
+      <c r="D33">
+        <v>6.17</v>
+      </c>
+      <c r="E33">
+        <v>5.38</v>
+      </c>
+      <c r="F33">
+        <v>16.61</v>
+      </c>
+      <c r="G33">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>18.21</v>
+      </c>
+      <c r="C34">
+        <v>25.84</v>
+      </c>
+      <c r="D34">
+        <v>3.22</v>
+      </c>
+      <c r="E34">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F34">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="G34">
+        <v>3.79</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>15.73</v>
+      </c>
+      <c r="C35">
+        <v>25.84</v>
+      </c>
+      <c r="D35">
+        <v>2.72</v>
+      </c>
+      <c r="E35">
+        <v>6.51</v>
+      </c>
+      <c r="F35">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G35">
+        <v>3.69</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>15.33</v>
+      </c>
+      <c r="C36">
+        <v>25.84</v>
+      </c>
+      <c r="D36">
+        <v>6.52</v>
+      </c>
+      <c r="E36">
+        <v>6.11</v>
+      </c>
+      <c r="F36">
+        <v>15.61</v>
+      </c>
+      <c r="G36">
+        <v>1.89</v>
+      </c>
+      <c r="H36">
+        <v>9.6</v>
+      </c>
+      <c r="I36">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>19.62</v>
+      </c>
+      <c r="C37">
+        <v>25.84</v>
+      </c>
+      <c r="D37">
+        <v>6.52</v>
+      </c>
+      <c r="E37">
+        <v>6.01</v>
+      </c>
+      <c r="F37">
+        <v>14.61</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I37">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>20.92</v>
+      </c>
+      <c r="C38">
+        <v>25.84</v>
+      </c>
+      <c r="D38">
+        <v>5.92</v>
+      </c>
+      <c r="E38">
+        <v>6.01</v>
+      </c>
+      <c r="F38">
+        <v>14.61</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>29.57</v>
+      </c>
+      <c r="C39">
+        <v>25.84</v>
+      </c>
+      <c r="D39">
+        <v>5.92</v>
+      </c>
+      <c r="E39">
+        <v>5.31</v>
+      </c>
+      <c r="F39">
+        <v>14.51</v>
+      </c>
+      <c r="G39">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H39">
+        <v>8.6</v>
+      </c>
+      <c r="I39">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>25.02</v>
+      </c>
+      <c r="C40">
+        <v>25.84</v>
+      </c>
+      <c r="D40">
+        <v>5.32</v>
+      </c>
+      <c r="E40">
+        <v>4.71</v>
+      </c>
+      <c r="F40">
+        <v>14.41</v>
+      </c>
+      <c r="G40">
+        <v>15.65</v>
+      </c>
+      <c r="H40">
+        <v>8.1</v>
+      </c>
+      <c r="I40">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>20.72</v>
+      </c>
+      <c r="C41">
+        <v>25.14</v>
+      </c>
+      <c r="D41">
+        <v>3.62</v>
+      </c>
+      <c r="E41">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F41">
+        <v>14.41</v>
+      </c>
+      <c r="G41">
+        <v>13.95</v>
+      </c>
+      <c r="H41">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I41">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>21.57</v>
+      </c>
+      <c r="C42">
+        <v>24.59</v>
+      </c>
+      <c r="D42">
+        <v>3.62</v>
+      </c>
+      <c r="E42">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F42">
+        <v>13.91</v>
+      </c>
+      <c r="G42">
+        <v>13.95</v>
+      </c>
+      <c r="H42">
+        <v>15.8</v>
+      </c>
+      <c r="I42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>21.57</v>
+      </c>
+      <c r="C43">
+        <v>24.59</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3.96</v>
+      </c>
+      <c r="F43">
+        <v>9.51</v>
+      </c>
+      <c r="G43">
+        <v>13.85</v>
+      </c>
+      <c r="H43">
+        <v>24.72</v>
+      </c>
+      <c r="I43">
+        <v>1.8</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>24.51</v>
+      </c>
+      <c r="C44">
+        <v>24.59</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3.96</v>
+      </c>
+      <c r="F44">
+        <v>9.51</v>
+      </c>
+      <c r="G44">
+        <v>13.8</v>
+      </c>
+      <c r="H44">
+        <v>21.93</v>
+      </c>
+      <c r="I44">
+        <v>1.8</v>
+      </c>
+      <c r="J44">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>24.51</v>
+      </c>
+      <c r="C45">
+        <v>24.49</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>4.41</v>
+      </c>
+      <c r="F45">
+        <v>9.51</v>
+      </c>
+      <c r="G45">
+        <v>13.7</v>
+      </c>
+      <c r="H45">
+        <v>21.83</v>
+      </c>
+      <c r="I45">
+        <v>1.7</v>
+      </c>
+      <c r="J45">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>24.51</v>
+      </c>
+      <c r="C46">
+        <v>24.49</v>
+      </c>
+      <c r="D46">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E46">
+        <v>3.61</v>
+      </c>
+      <c r="F46">
+        <v>9.51</v>
+      </c>
+      <c r="G46">
+        <v>12.9</v>
+      </c>
+      <c r="H46">
+        <v>21.78</v>
+      </c>
+      <c r="I46">
+        <v>4.95</v>
+      </c>
+      <c r="J46">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>24.41</v>
+      </c>
+      <c r="C47">
+        <v>24.49</v>
+      </c>
+      <c r="D47">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E47">
+        <v>3.61</v>
+      </c>
+      <c r="F47">
+        <v>9.51</v>
+      </c>
+      <c r="G47">
+        <v>12.9</v>
+      </c>
+      <c r="H47">
+        <v>21.78</v>
+      </c>
+      <c r="I47">
+        <v>4.45</v>
+      </c>
+      <c r="J47">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>22.11</v>
+      </c>
+      <c r="C48">
+        <v>24.49</v>
+      </c>
+      <c r="D48">
+        <v>11.4</v>
+      </c>
+      <c r="E48">
+        <v>3.61</v>
+      </c>
+      <c r="F48">
+        <v>9.51</v>
+      </c>
+      <c r="G48">
+        <v>12.7</v>
+      </c>
+      <c r="H48">
+        <v>21.78</v>
+      </c>
+      <c r="I48">
+        <v>4.25</v>
+      </c>
+      <c r="J48">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>23.11</v>
+      </c>
+      <c r="C49">
+        <v>24.39</v>
+      </c>
+      <c r="D49">
+        <v>11.4</v>
+      </c>
+      <c r="E49">
+        <v>3.51</v>
+      </c>
+      <c r="F49">
+        <v>9.51</v>
+      </c>
+      <c r="G49">
+        <v>12.7</v>
+      </c>
+      <c r="H49">
+        <v>21.68</v>
+      </c>
+      <c r="I49">
+        <v>3.55</v>
+      </c>
+      <c r="J49">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>23.01</v>
+      </c>
+      <c r="C50">
+        <v>23.39</v>
+      </c>
+      <c r="D50">
+        <v>11.3</v>
+      </c>
+      <c r="E50">
+        <v>3.41</v>
+      </c>
+      <c r="F50">
+        <v>9.51</v>
+      </c>
+      <c r="G50">
+        <v>13.45</v>
+      </c>
+      <c r="H50">
+        <v>21.48</v>
+      </c>
+      <c r="I50">
+        <v>4.3</v>
+      </c>
+      <c r="J50">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>28.97</v>
+      </c>
+      <c r="C51">
+        <v>23.39</v>
+      </c>
+      <c r="D51">
+        <v>11.2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>9.51</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>21.48</v>
+      </c>
+      <c r="I51">
+        <v>4.3</v>
+      </c>
+      <c r="J51">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>28.87</v>
+      </c>
+      <c r="C52">
+        <v>23.39</v>
+      </c>
+      <c r="D52">
+        <v>11.2</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>9.51</v>
+      </c>
+      <c r="G52">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H52">
+        <v>20.88</v>
+      </c>
+      <c r="I52">
+        <v>7.8</v>
+      </c>
+      <c r="J52">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>25.42</v>
+      </c>
+      <c r="C53">
+        <v>23.39</v>
+      </c>
+      <c r="D53">
+        <v>24.8</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>9.51</v>
+      </c>
+      <c r="G53">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H53">
+        <v>20.78</v>
+      </c>
+      <c r="I53">
+        <v>7.8</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>25.42</v>
+      </c>
+      <c r="C54">
+        <v>22.64</v>
+      </c>
+      <c r="D54">
+        <v>24.05</v>
+      </c>
+      <c r="E54">
+        <v>19.95</v>
+      </c>
+      <c r="F54">
+        <v>9.51</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>20.73</v>
+      </c>
+      <c r="I54">
+        <v>7.7</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>22.17</v>
+      </c>
+      <c r="C55">
+        <v>22.64</v>
+      </c>
+      <c r="D55">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E55">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F55">
+        <v>9.51</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>11.48</v>
+      </c>
+      <c r="I55">
+        <v>7.6</v>
+      </c>
+      <c r="J55">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>22.12</v>
+      </c>
+      <c r="C56">
+        <v>22.64</v>
+      </c>
+      <c r="D56">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E56">
+        <v>19.75</v>
+      </c>
+      <c r="F56">
+        <v>9.51</v>
+      </c>
+      <c r="G56">
+        <v>9.9</v>
+      </c>
+      <c r="H56">
+        <v>11.48</v>
+      </c>
+      <c r="I56">
+        <v>7.5</v>
+      </c>
+      <c r="J56">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>21.52</v>
+      </c>
+      <c r="C57">
+        <v>22.24</v>
+      </c>
+      <c r="D57">
+        <v>36.9</v>
+      </c>
+      <c r="E57">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="F57">
+        <v>9.51</v>
+      </c>
+      <c r="G57">
+        <v>9.9</v>
+      </c>
+      <c r="H57">
+        <v>6.23</v>
+      </c>
+      <c r="I57">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="J57">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>21.52</v>
+      </c>
+      <c r="C58">
+        <v>22.19</v>
+      </c>
+      <c r="D58">
+        <v>36.9</v>
+      </c>
+      <c r="E58">
+        <v>18.55</v>
+      </c>
+      <c r="F58">
+        <v>9.51</v>
+      </c>
+      <c r="G58">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H58">
+        <v>6.23</v>
+      </c>
+      <c r="I58">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="J58">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C59">
+        <v>21.18</v>
+      </c>
+      <c r="D59">
+        <v>31.35</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>9.51</v>
+      </c>
+      <c r="G59">
+        <v>24.68</v>
+      </c>
+      <c r="H59">
+        <v>6.23</v>
+      </c>
+      <c r="I59">
+        <v>16.34</v>
+      </c>
+      <c r="J59">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="C60">
+        <v>21.18</v>
+      </c>
+      <c r="D60">
+        <v>31.95</v>
+      </c>
+      <c r="E60">
+        <v>12.9</v>
+      </c>
+      <c r="F60">
+        <v>9.51</v>
+      </c>
+      <c r="G60">
+        <v>24.38</v>
+      </c>
+      <c r="H60">
+        <v>6.23</v>
+      </c>
+      <c r="I60">
+        <v>16.34</v>
+      </c>
+      <c r="J60">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="C61">
+        <v>21.18</v>
+      </c>
+      <c r="D61">
+        <v>31.35</v>
+      </c>
+      <c r="E61">
+        <v>12.9</v>
+      </c>
+      <c r="F61">
+        <v>9.51</v>
+      </c>
+      <c r="G61">
+        <v>24.38</v>
+      </c>
+      <c r="H61">
+        <v>6.23</v>
+      </c>
+      <c r="I61">
+        <v>19.14</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>7.61</v>
+      </c>
+      <c r="C62">
+        <v>21.18</v>
+      </c>
+      <c r="D62">
+        <v>43.25</v>
+      </c>
+      <c r="E62">
+        <v>12.9</v>
+      </c>
+      <c r="F62">
+        <v>9.51</v>
+      </c>
+      <c r="G62">
+        <v>23.88</v>
+      </c>
+      <c r="H62">
+        <v>6.23</v>
+      </c>
+      <c r="I62">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>11.91</v>
+      </c>
+      <c r="C63">
+        <v>21.18</v>
+      </c>
+      <c r="D63">
+        <v>43.05</v>
+      </c>
+      <c r="E63">
+        <v>10.4</v>
+      </c>
+      <c r="F63">
+        <v>9.51</v>
+      </c>
+      <c r="G63">
+        <v>23.08</v>
+      </c>
+      <c r="H63">
+        <v>6.23</v>
+      </c>
+      <c r="I63">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
+        <v>11.91</v>
+      </c>
+      <c r="C64">
+        <v>21.08</v>
+      </c>
+      <c r="D64">
+        <v>43.05</v>
+      </c>
+      <c r="E64">
+        <v>10.4</v>
+      </c>
+      <c r="F64">
+        <v>9.51</v>
+      </c>
+      <c r="G64">
+        <v>23.18</v>
+      </c>
+      <c r="H64">
+        <v>6.23</v>
+      </c>
+      <c r="I64">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="J64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>7.55</v>
+      </c>
+      <c r="C65">
+        <v>21.03</v>
+      </c>
+      <c r="D65">
+        <v>42.45</v>
+      </c>
+      <c r="E65">
+        <v>10.3</v>
+      </c>
+      <c r="F65">
+        <v>9.51</v>
+      </c>
+      <c r="G65">
+        <v>28.79</v>
+      </c>
+      <c r="H65">
+        <v>6.23</v>
+      </c>
+      <c r="I65">
+        <v>16.64</v>
+      </c>
+      <c r="J65">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>8.07</v>
+      </c>
+      <c r="C66">
+        <v>21.03</v>
+      </c>
+      <c r="D66">
+        <v>41.67</v>
+      </c>
+      <c r="E66">
+        <v>10.82</v>
+      </c>
+      <c r="F66">
+        <v>9.51</v>
+      </c>
+      <c r="G66">
+        <v>29.31</v>
+      </c>
+      <c r="H66">
+        <v>5.6</v>
+      </c>
+      <c r="I66">
+        <v>16.59</v>
+      </c>
+      <c r="J66">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5">
+        <v>7.47</v>
+      </c>
+      <c r="C67">
+        <v>21.03</v>
+      </c>
+      <c r="D67">
+        <v>41.67</v>
+      </c>
+      <c r="E67">
+        <v>10.82</v>
+      </c>
+      <c r="F67">
+        <v>9.51</v>
+      </c>
+      <c r="G67">
+        <v>28.71</v>
+      </c>
+      <c r="H67">
+        <v>5.6</v>
+      </c>
+      <c r="I67">
+        <v>24.74</v>
+      </c>
+      <c r="J67">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7.02</v>
+      </c>
+      <c r="C68">
+        <v>21.03</v>
+      </c>
+      <c r="D68">
+        <v>41.67</v>
+      </c>
+      <c r="E68">
+        <v>10.72</v>
+      </c>
+      <c r="F68">
+        <v>9.51</v>
+      </c>
+      <c r="G68">
+        <v>28.71</v>
+      </c>
+      <c r="H68">
+        <v>5.15</v>
+      </c>
+      <c r="I68">
+        <v>24.29</v>
+      </c>
+      <c r="J68">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>6.42</v>
+      </c>
+      <c r="C69">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D69">
+        <v>44.27</v>
+      </c>
+      <c r="E69">
+        <v>10.72</v>
+      </c>
+      <c r="F69">
+        <v>9.51</v>
+      </c>
+      <c r="G69">
+        <v>28.01</v>
+      </c>
+      <c r="H69">
+        <v>4.55</v>
+      </c>
+      <c r="I69">
+        <v>24.29</v>
+      </c>
+      <c r="J69">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
+        <v>6.32</v>
+      </c>
+      <c r="C70">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="D70">
+        <v>44.17</v>
+      </c>
+      <c r="E70">
+        <v>8.82</v>
+      </c>
+      <c r="F70">
+        <v>9.51</v>
+      </c>
+      <c r="G70">
+        <v>28.01</v>
+      </c>
+      <c r="H70">
+        <v>4.45</v>
+      </c>
+      <c r="I70">
+        <v>24.19</v>
+      </c>
+      <c r="J70">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>13.02</v>
+      </c>
+      <c r="C71">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D71">
+        <v>43.72</v>
+      </c>
+      <c r="E71">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F71">
+        <v>9.51</v>
+      </c>
+      <c r="G71">
+        <v>27.56</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>23.74</v>
+      </c>
+      <c r="J71">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>12.92</v>
+      </c>
+      <c r="C72">
+        <v>21.26</v>
+      </c>
+      <c r="D72">
+        <v>42.82</v>
+      </c>
+      <c r="E72">
+        <v>7.47</v>
+      </c>
+      <c r="F72">
+        <v>9.51</v>
+      </c>
+      <c r="G72">
+        <v>27.46</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>23.54</v>
+      </c>
+      <c r="J72">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>12.92</v>
+      </c>
+      <c r="C73">
+        <v>21.16</v>
+      </c>
+      <c r="D73">
+        <v>42.72</v>
+      </c>
+      <c r="E73">
+        <v>7.37</v>
+      </c>
+      <c r="F73">
+        <v>9.51</v>
+      </c>
+      <c r="G73">
+        <v>30.66</v>
+      </c>
+      <c r="H73">
+        <v>7.2</v>
+      </c>
+      <c r="I73">
+        <v>23.44</v>
+      </c>
+      <c r="J73">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>12.92</v>
+      </c>
+      <c r="C74">
+        <v>21.16</v>
+      </c>
+      <c r="D74">
+        <v>45.82</v>
+      </c>
+      <c r="E74">
+        <v>7.27</v>
+      </c>
+      <c r="F74">
+        <v>9.51</v>
+      </c>
+      <c r="G74">
+        <v>29.66</v>
+      </c>
+      <c r="H74">
+        <v>6.4</v>
+      </c>
+      <c r="I74">
+        <v>22.44</v>
+      </c>
+      <c r="J74">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>12.92</v>
+      </c>
+      <c r="C75">
+        <v>21.06</v>
+      </c>
+      <c r="D75">
+        <v>45.82</v>
+      </c>
+      <c r="E75">
+        <v>6.82</v>
+      </c>
+      <c r="F75">
+        <v>9.51</v>
+      </c>
+      <c r="G75">
+        <v>29.56</v>
+      </c>
+      <c r="H75">
+        <v>5.95</v>
+      </c>
+      <c r="I75">
+        <v>26.74</v>
+      </c>
+      <c r="J75">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>12.92</v>
+      </c>
+      <c r="C76">
+        <v>21.06</v>
+      </c>
+      <c r="D76">
+        <v>45.82</v>
+      </c>
+      <c r="E76">
+        <v>6.82</v>
+      </c>
+      <c r="F76">
+        <v>9.51</v>
+      </c>
+      <c r="G76">
+        <v>28.76</v>
+      </c>
+      <c r="H76">
+        <v>5.85</v>
+      </c>
+      <c r="I76">
+        <v>31.94</v>
+      </c>
+      <c r="J76">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5">
+        <v>12.92</v>
+      </c>
+      <c r="C77">
+        <v>20.59</v>
+      </c>
+      <c r="D77">
+        <v>45.72</v>
+      </c>
+      <c r="E77">
+        <v>9.91</v>
+      </c>
+      <c r="F77">
+        <v>9.51</v>
+      </c>
+      <c r="G77">
+        <v>28.66</v>
+      </c>
+      <c r="H77">
+        <v>5.8</v>
+      </c>
+      <c r="I77">
+        <v>29.57</v>
+      </c>
+      <c r="J77">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5">
+        <v>12.82</v>
+      </c>
+      <c r="C78">
+        <v>20.59</v>
+      </c>
+      <c r="D78">
+        <v>45.67</v>
+      </c>
+      <c r="E78">
+        <v>9.91</v>
+      </c>
+      <c r="F78">
+        <v>9.51</v>
+      </c>
+      <c r="G78">
+        <v>28.56</v>
+      </c>
+      <c r="H78">
+        <v>5.35</v>
+      </c>
+      <c r="I78">
+        <v>29.12</v>
+      </c>
+      <c r="J78">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
+        <v>12.62</v>
+      </c>
+      <c r="C79">
+        <v>19.29</v>
+      </c>
+      <c r="D79">
+        <v>45.67</v>
+      </c>
+      <c r="E79">
+        <v>8.61</v>
+      </c>
+      <c r="F79">
+        <v>9.51</v>
+      </c>
+      <c r="G79">
+        <v>27.26</v>
+      </c>
+      <c r="H79">
+        <v>9.65</v>
+      </c>
+      <c r="I79">
+        <v>28.92</v>
+      </c>
+      <c r="J79">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
+        <v>11.82</v>
+      </c>
+      <c r="C80">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="D80">
+        <v>45.57</v>
+      </c>
+      <c r="E80">
+        <v>8.61</v>
+      </c>
+      <c r="F80">
+        <v>9.51</v>
+      </c>
+      <c r="G80">
+        <v>32.96</v>
+      </c>
+      <c r="H80">
+        <v>8.85</v>
+      </c>
+      <c r="I80">
+        <v>28.12</v>
+      </c>
+      <c r="J80">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5">
+        <v>11.82</v>
+      </c>
+      <c r="C81">
+        <v>19.84</v>
+      </c>
+      <c r="D81">
+        <v>45.57</v>
+      </c>
+      <c r="E81">
+        <v>8.51</v>
+      </c>
+      <c r="F81">
+        <v>9.51</v>
+      </c>
+      <c r="G81">
+        <v>32.86</v>
+      </c>
+      <c r="H81">
+        <v>8.85</v>
+      </c>
+      <c r="I81">
+        <v>28.12</v>
+      </c>
+      <c r="J81">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="C82">
+        <v>19.84</v>
+      </c>
+      <c r="D82">
+        <v>45.57</v>
+      </c>
+      <c r="E82">
+        <v>8.01</v>
+      </c>
+      <c r="F82">
+        <v>9.51</v>
+      </c>
+      <c r="G82">
+        <v>32.36</v>
+      </c>
+      <c r="H82">
+        <v>8.85</v>
+      </c>
+      <c r="I82">
+        <v>28.12</v>
+      </c>
+      <c r="J82">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5">
+        <v>7.82</v>
+      </c>
+      <c r="C83">
+        <v>19.84</v>
+      </c>
+      <c r="D83">
+        <v>47.12</v>
+      </c>
+      <c r="E83">
+        <v>7.46</v>
+      </c>
+      <c r="F83">
+        <v>9.51</v>
+      </c>
+      <c r="G83">
+        <v>31.91</v>
+      </c>
+      <c r="H83">
+        <v>8.85</v>
+      </c>
+      <c r="I83">
+        <v>28.12</v>
+      </c>
+      <c r="J83">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5">
+        <v>7.32</v>
+      </c>
+      <c r="C84">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="D84">
+        <v>47.12</v>
+      </c>
+      <c r="E84">
+        <v>6.96</v>
+      </c>
+      <c r="F84">
+        <v>9.51</v>
+      </c>
+      <c r="G84">
+        <v>31.91</v>
+      </c>
+      <c r="H84">
+        <v>8.75</v>
+      </c>
+      <c r="I84">
+        <v>27.62</v>
+      </c>
+      <c r="J84">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5">
+        <v>7.32</v>
+      </c>
+      <c r="C85">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="D85">
+        <v>46.32</v>
+      </c>
+      <c r="E85">
+        <v>6.16</v>
+      </c>
+      <c r="F85">
+        <v>9.51</v>
+      </c>
+      <c r="G85">
+        <v>31.11</v>
+      </c>
+      <c r="H85">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I85">
+        <v>26.82</v>
+      </c>
+      <c r="J85">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5">
+        <v>6.82</v>
+      </c>
+      <c r="C86">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="D86">
+        <v>45.82</v>
+      </c>
+      <c r="E86">
+        <v>6.16</v>
+      </c>
+      <c r="F86">
+        <v>9.51</v>
+      </c>
+      <c r="G86">
+        <v>33.61</v>
+      </c>
+      <c r="H86">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I86">
+        <v>26.32</v>
+      </c>
+      <c r="J86">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5">
+        <v>7.52</v>
+      </c>
+      <c r="C87">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="D87">
+        <v>45.32</v>
+      </c>
+      <c r="E87">
+        <v>6.06</v>
+      </c>
+      <c r="F87">
+        <v>9.51</v>
+      </c>
+      <c r="G87">
+        <v>33.61</v>
+      </c>
+      <c r="H87">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I87">
+        <v>26.22</v>
+      </c>
+      <c r="J87">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5">
+        <v>7.52</v>
+      </c>
+      <c r="C88">
+        <v>19.34</v>
+      </c>
+      <c r="D88">
+        <v>45.32</v>
+      </c>
+      <c r="E88">
+        <v>6.06</v>
+      </c>
+      <c r="F88">
+        <v>9.51</v>
+      </c>
+      <c r="G88">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="H88">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I88">
+        <v>27.42</v>
+      </c>
+      <c r="J88">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5">
+        <v>7.07</v>
+      </c>
+      <c r="C89">
+        <v>18.89</v>
+      </c>
+      <c r="D89">
+        <v>45.32</v>
+      </c>
+      <c r="E89">
+        <v>5.96</v>
+      </c>
+      <c r="F89">
+        <v>9.51</v>
+      </c>
+      <c r="G89">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="H89">
+        <v>8.25</v>
+      </c>
+      <c r="I89">
+        <v>27.42</v>
+      </c>
+      <c r="J89">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5">
+        <v>15.44</v>
+      </c>
+      <c r="C90">
+        <v>11.82</v>
+      </c>
+      <c r="D90">
+        <v>45.32</v>
+      </c>
+      <c r="E90">
+        <v>5.46</v>
+      </c>
+      <c r="F90">
+        <v>9.51</v>
+      </c>
+      <c r="G90">
+        <v>33.06</v>
+      </c>
+      <c r="H90">
+        <v>8.15</v>
+      </c>
+      <c r="I90">
+        <v>27.42</v>
+      </c>
+      <c r="J90">
+        <v>23.82</v>
+      </c>
+      <c r="K90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5">
+        <v>15.44</v>
+      </c>
+      <c r="C91">
+        <v>11.82</v>
+      </c>
+      <c r="D91">
+        <v>45.22</v>
+      </c>
+      <c r="E91">
+        <v>5.36</v>
+      </c>
+      <c r="F91">
+        <v>9.51</v>
+      </c>
+      <c r="G91">
+        <v>32.96</v>
+      </c>
+      <c r="H91">
+        <v>7.5</v>
+      </c>
+      <c r="I91">
+        <v>25.6</v>
+      </c>
+      <c r="J91">
+        <v>23.72</v>
+      </c>
+      <c r="K91">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C92">
+        <v>11.82</v>
+      </c>
+      <c r="D92">
+        <v>45.12</v>
+      </c>
+      <c r="E92">
+        <v>5.36</v>
+      </c>
+      <c r="F92">
+        <v>9.51</v>
+      </c>
+      <c r="G92">
+        <v>32.96</v>
+      </c>
+      <c r="H92">
+        <v>6.9</v>
+      </c>
+      <c r="I92">
+        <v>25.6</v>
+      </c>
+      <c r="J92">
+        <v>23.67</v>
+      </c>
+      <c r="K92">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>15.49</v>
+      </c>
+      <c r="C93">
+        <v>10.15</v>
+      </c>
+      <c r="D93">
+        <v>57.48</v>
+      </c>
+      <c r="E93">
+        <v>4.76</v>
+      </c>
+      <c r="F93">
+        <v>9.51</v>
+      </c>
+      <c r="G93">
+        <v>23.62</v>
+      </c>
+      <c r="H93">
+        <v>6.85</v>
+      </c>
+      <c r="I93">
+        <v>25.6</v>
+      </c>
+      <c r="J93">
+        <v>23.67</v>
+      </c>
+      <c r="K93">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>15.39</v>
+      </c>
+      <c r="C94">
+        <v>10.15</v>
+      </c>
+      <c r="D94">
+        <v>56.93</v>
+      </c>
+      <c r="E94">
+        <v>4.76</v>
+      </c>
+      <c r="F94">
+        <v>9.51</v>
+      </c>
+      <c r="G94">
+        <v>23.17</v>
+      </c>
+      <c r="H94">
+        <v>6.85</v>
+      </c>
+      <c r="I94">
+        <v>24.65</v>
+      </c>
+      <c r="J94">
+        <v>25.82</v>
+      </c>
+      <c r="K94">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5">
+        <v>15.29</v>
+      </c>
+      <c r="C95">
+        <v>10.15</v>
+      </c>
+      <c r="D95">
+        <v>56.93</v>
+      </c>
+      <c r="E95">
+        <v>6.06</v>
+      </c>
+      <c r="F95">
+        <v>9.51</v>
+      </c>
+      <c r="G95">
+        <v>22.77</v>
+      </c>
+      <c r="H95">
+        <v>6.85</v>
+      </c>
+      <c r="I95">
+        <v>24.25</v>
+      </c>
+      <c r="J95">
+        <v>25.82</v>
+      </c>
+      <c r="K95">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5">
+        <v>17.59</v>
+      </c>
+      <c r="C96">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D96">
+        <v>56.93</v>
+      </c>
+      <c r="E96">
+        <v>6.06</v>
+      </c>
+      <c r="F96">
+        <v>9.51</v>
+      </c>
+      <c r="G96">
+        <v>22.22</v>
+      </c>
+      <c r="H96">
+        <v>6.85</v>
+      </c>
+      <c r="I96">
+        <v>23.7</v>
+      </c>
+      <c r="J96">
+        <v>25.27</v>
+      </c>
+      <c r="K96">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>56.83</v>
+      </c>
+      <c r="E97">
+        <v>5.56</v>
+      </c>
+      <c r="F97">
+        <v>9.51</v>
+      </c>
+      <c r="G97">
+        <v>21.72</v>
+      </c>
+      <c r="H97">
+        <v>6.85</v>
+      </c>
+      <c r="I97">
+        <v>23.7</v>
+      </c>
+      <c r="J97">
+        <v>35.64</v>
+      </c>
+      <c r="K97">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>56.83</v>
+      </c>
+      <c r="E98">
+        <v>5.16</v>
+      </c>
+      <c r="F98">
+        <v>9.51</v>
+      </c>
+      <c r="G98">
+        <v>21.72</v>
+      </c>
+      <c r="H98">
+        <v>6.45</v>
+      </c>
+      <c r="I98">
+        <v>20.3</v>
+      </c>
+      <c r="J98">
+        <v>35.64</v>
+      </c>
+      <c r="K98">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="E99">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F99">
+        <v>9.51</v>
+      </c>
+      <c r="G99">
+        <v>21.62</v>
+      </c>
+      <c r="H99">
+        <v>19.5</v>
+      </c>
+      <c r="I99">
+        <v>20.3</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>79.37</v>
+      </c>
+      <c r="E100">
+        <v>5.01</v>
+      </c>
+      <c r="F100">
+        <v>9.51</v>
+      </c>
+      <c r="G100">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="H100">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I100">
+        <v>22.1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="C101">
+        <v>3.76</v>
+      </c>
+      <c r="D101">
+        <v>78.91</v>
+      </c>
+      <c r="E101">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F101">
+        <v>9.51</v>
+      </c>
+      <c r="G101">
+        <v>29.3</v>
+      </c>
+      <c r="H101">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I101">
+        <v>20.69</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="C102">
+        <v>3.66</v>
+      </c>
+      <c r="D102">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="E102">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F102">
+        <v>9.51</v>
+      </c>
+      <c r="G102">
+        <v>28.63</v>
+      </c>
+      <c r="H102">
+        <v>19.25</v>
+      </c>
+      <c r="I102">
+        <v>20.39</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="C103">
+        <v>3.46</v>
+      </c>
+      <c r="D103">
+        <v>80.38</v>
+      </c>
+      <c r="E103">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F103">
+        <v>9.51</v>
+      </c>
+      <c r="G103">
+        <v>28.63</v>
+      </c>
+      <c r="H103">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="I103">
+        <v>21.29</v>
+      </c>
+      <c r="J103">
+        <v>20</v>
+      </c>
+      <c r="K103">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>12.52</v>
+      </c>
+      <c r="C104">
+        <v>23.41</v>
+      </c>
+      <c r="D104">
+        <v>79.88</v>
+      </c>
+      <c r="E104">
+        <v>4.25</v>
+      </c>
+      <c r="F104">
+        <v>9.51</v>
+      </c>
+      <c r="G104">
+        <v>32.53</v>
+      </c>
+      <c r="H104">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="I104">
+        <v>21.29</v>
+      </c>
+      <c r="J104">
+        <v>17.3</v>
+      </c>
+      <c r="K104">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>12.52</v>
+      </c>
+      <c r="C105">
+        <v>23.41</v>
+      </c>
+      <c r="D105">
+        <v>79.88</v>
+      </c>
+      <c r="E105">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F105">
+        <v>9.51</v>
+      </c>
+      <c r="G105">
+        <v>32.53</v>
+      </c>
+      <c r="H105">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="I105">
+        <v>21.29</v>
+      </c>
+      <c r="J105">
+        <v>17.45</v>
+      </c>
+      <c r="K105">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>12.52</v>
+      </c>
+      <c r="C106">
+        <v>23.41</v>
+      </c>
+      <c r="D106">
+        <v>78.78</v>
+      </c>
+      <c r="E106">
+        <v>10.8</v>
+      </c>
+      <c r="F106">
+        <v>9.51</v>
+      </c>
+      <c r="G106">
+        <v>32.43</v>
+      </c>
+      <c r="H106">
+        <v>19.05</v>
+      </c>
+      <c r="I106">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J106">
+        <v>13.3</v>
+      </c>
+      <c r="K106">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>17.02</v>
+      </c>
+      <c r="C107">
+        <v>23.41</v>
+      </c>
+      <c r="D107">
+        <v>78.78</v>
+      </c>
+      <c r="E107">
+        <v>10.8</v>
+      </c>
+      <c r="F107">
+        <v>9.51</v>
+      </c>
+      <c r="G107">
+        <v>28.13</v>
+      </c>
+      <c r="H107">
+        <v>18.95</v>
+      </c>
+      <c r="I107">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J107">
+        <v>13.2</v>
+      </c>
+      <c r="K107">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5">
+        <v>17.02</v>
+      </c>
+      <c r="C108">
+        <v>23.41</v>
+      </c>
+      <c r="D108">
+        <v>78.78</v>
+      </c>
+      <c r="E108">
+        <v>10.8</v>
+      </c>
+      <c r="F108">
+        <v>9.51</v>
+      </c>
+      <c r="G108">
+        <v>27.83</v>
+      </c>
+      <c r="H108">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="I108">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J108">
+        <v>13.1</v>
+      </c>
+      <c r="K108">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
+        <v>17.02</v>
+      </c>
+      <c r="C109">
+        <v>23.41</v>
+      </c>
+      <c r="D109">
+        <v>78.680000000000007</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>9.51</v>
+      </c>
+      <c r="G109">
+        <v>53.23</v>
+      </c>
+      <c r="H109">
+        <v>18.2</v>
+      </c>
+      <c r="I109">
+        <v>19.54</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C110">
+        <v>23.41</v>
+      </c>
+      <c r="D110">
+        <v>78.48</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>9.51</v>
+      </c>
+      <c r="G110">
+        <v>53.83</v>
+      </c>
+      <c r="H110">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I110">
+        <v>19.54</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5">
+        <v>16.72</v>
+      </c>
+      <c r="C111">
+        <v>28.81</v>
+      </c>
+      <c r="D111">
+        <v>77.28</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>9.51</v>
+      </c>
+      <c r="G111">
+        <v>53.63</v>
+      </c>
+      <c r="H111">
+        <v>15.7</v>
+      </c>
+      <c r="I111">
+        <v>18.34</v>
+      </c>
+      <c r="J111">
+        <v>40</v>
+      </c>
+      <c r="K111">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5">
+        <v>16.72</v>
+      </c>
+      <c r="C112">
+        <v>28.81</v>
+      </c>
+      <c r="D112">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>9.51</v>
+      </c>
+      <c r="G112">
+        <v>53.63</v>
+      </c>
+      <c r="H112">
+        <v>15.7</v>
+      </c>
+      <c r="I112">
+        <v>18.29</v>
+      </c>
+      <c r="J112">
+        <v>40</v>
+      </c>
+      <c r="K112">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5">
+        <v>16.12</v>
+      </c>
+      <c r="C113">
+        <v>28.81</v>
+      </c>
+      <c r="D113">
+        <v>75.58</v>
+      </c>
+      <c r="E113">
+        <v>8.9</v>
+      </c>
+      <c r="F113">
+        <v>9.51</v>
+      </c>
+      <c r="G113">
+        <v>53.53</v>
+      </c>
+      <c r="H113">
+        <v>15.6</v>
+      </c>
+      <c r="I113">
+        <v>18.29</v>
+      </c>
+      <c r="J113">
+        <v>41.1</v>
+      </c>
+      <c r="K113">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5">
+        <v>16.12</v>
+      </c>
+      <c r="C114">
+        <v>28.71</v>
+      </c>
+      <c r="D114">
+        <v>75.48</v>
+      </c>
+      <c r="E114">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F114">
+        <v>9.51</v>
+      </c>
+      <c r="G114">
+        <v>53.03</v>
+      </c>
+      <c r="H114">
+        <v>15.6</v>
+      </c>
+      <c r="I114">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="J114">
+        <v>42</v>
+      </c>
+      <c r="K114">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5">
+        <v>12.12</v>
+      </c>
+      <c r="C115">
+        <v>28.66</v>
+      </c>
+      <c r="D115">
+        <v>110.48</v>
+      </c>
+      <c r="E115">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F115">
+        <v>9.51</v>
+      </c>
+      <c r="G115">
+        <v>52.93</v>
+      </c>
+      <c r="H115">
+        <v>15.5</v>
+      </c>
+      <c r="I115">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="J115">
+        <v>12</v>
+      </c>
+      <c r="K115">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5">
+        <v>11.72</v>
+      </c>
+      <c r="C116">
+        <v>28.66</v>
+      </c>
+      <c r="D116">
+        <v>110.48</v>
+      </c>
+      <c r="E116">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F116">
+        <v>9.51</v>
+      </c>
+      <c r="G116">
+        <v>52.88</v>
+      </c>
+      <c r="H116">
+        <v>15.4</v>
+      </c>
+      <c r="I116">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="J116">
+        <v>12.65</v>
+      </c>
+      <c r="K116">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5">
+        <v>11.72</v>
+      </c>
+      <c r="C117">
+        <v>28.46</v>
+      </c>
+      <c r="D117">
+        <v>110.48</v>
+      </c>
+      <c r="E117">
+        <v>8.6</v>
+      </c>
+      <c r="F117">
+        <v>9.51</v>
+      </c>
+      <c r="G117">
+        <v>52.78</v>
+      </c>
+      <c r="H117">
+        <v>15.2</v>
+      </c>
+      <c r="I117">
+        <v>17.29</v>
+      </c>
+      <c r="J117">
+        <v>12.55</v>
+      </c>
+      <c r="K117">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5">
+        <v>11.22</v>
+      </c>
+      <c r="C118">
+        <v>25.31</v>
+      </c>
+      <c r="D118">
+        <v>110.38</v>
+      </c>
+      <c r="E118">
+        <v>8.6</v>
+      </c>
+      <c r="F118">
+        <v>9.51</v>
+      </c>
+      <c r="G118">
+        <v>69.63</v>
+      </c>
+      <c r="H118">
+        <v>15.15</v>
+      </c>
+      <c r="I118">
+        <v>17.29</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5">
+        <v>11.12</v>
+      </c>
+      <c r="C119">
+        <v>25.11</v>
+      </c>
+      <c r="D119">
+        <v>113.58</v>
+      </c>
+      <c r="E119">
+        <v>8.6</v>
+      </c>
+      <c r="F119">
+        <v>9.51</v>
+      </c>
+      <c r="G119">
+        <v>68.38</v>
+      </c>
+      <c r="H119">
+        <v>15.05</v>
+      </c>
+      <c r="I119">
+        <v>17.09</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5">
+        <v>9.77</v>
+      </c>
+      <c r="C120">
+        <v>25.11</v>
+      </c>
+      <c r="D120">
+        <v>112.98</v>
+      </c>
+      <c r="E120">
+        <v>8.5</v>
+      </c>
+      <c r="F120">
+        <v>9.51</v>
+      </c>
+      <c r="G120">
+        <v>68.38</v>
+      </c>
+      <c r="H120">
+        <v>18.45</v>
+      </c>
+      <c r="I120">
+        <v>15.74</v>
+      </c>
+      <c r="J120">
+        <v>20</v>
+      </c>
+      <c r="K120">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C121">
+        <v>26.96</v>
+      </c>
+      <c r="D121">
+        <v>112.98</v>
+      </c>
+      <c r="E121">
+        <v>8.5</v>
+      </c>
+      <c r="F121">
+        <v>9.51</v>
+      </c>
+      <c r="G121">
+        <v>67.23</v>
+      </c>
+      <c r="H121">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I121">
+        <v>15.64</v>
+      </c>
+      <c r="J121">
+        <v>20</v>
+      </c>
+      <c r="K121">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C122">
+        <v>26.91</v>
+      </c>
+      <c r="D122">
+        <v>92.98</v>
+      </c>
+      <c r="E122">
+        <v>8.5</v>
+      </c>
+      <c r="F122">
+        <v>9.51</v>
+      </c>
+      <c r="G122">
+        <v>65.739999999999995</v>
+      </c>
+      <c r="H122">
+        <v>16.86</v>
+      </c>
+      <c r="I122">
+        <v>15.4</v>
+      </c>
+      <c r="J122">
+        <v>43.51</v>
+      </c>
+      <c r="K122">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="C123">
+        <v>26.91</v>
+      </c>
+      <c r="D123">
+        <v>92.88</v>
+      </c>
+      <c r="E123">
+        <v>8.4</v>
+      </c>
+      <c r="F123">
+        <v>9.51</v>
+      </c>
+      <c r="G123">
+        <v>80.36</v>
+      </c>
+      <c r="H123">
+        <v>7.75</v>
+      </c>
+      <c r="I123">
+        <v>15.4</v>
+      </c>
+      <c r="J123">
+        <v>43.41</v>
+      </c>
+      <c r="K123">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="C124">
+        <v>23.89</v>
+      </c>
+      <c r="D124">
+        <v>92.23</v>
+      </c>
+      <c r="E124">
+        <v>8.4</v>
+      </c>
+      <c r="F124">
+        <v>9.51</v>
+      </c>
+      <c r="G124">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="H124">
+        <v>7.1</v>
+      </c>
+      <c r="I124">
+        <v>29.87</v>
+      </c>
+      <c r="J124">
+        <v>34.56</v>
+      </c>
+      <c r="K124">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="C125">
+        <v>23.89</v>
+      </c>
+      <c r="D125">
+        <v>90.03</v>
+      </c>
+      <c r="E125">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F125">
+        <v>9.51</v>
+      </c>
+      <c r="G125">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="H125">
+        <v>7</v>
+      </c>
+      <c r="I125">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="J125">
+        <v>32.46</v>
+      </c>
+      <c r="K125">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5">
+        <v>5.81</v>
+      </c>
+      <c r="C126">
+        <v>23.89</v>
+      </c>
+      <c r="D126">
+        <v>90.03</v>
+      </c>
+      <c r="E126">
+        <v>8.25</v>
+      </c>
+      <c r="F126">
+        <v>9.51</v>
+      </c>
+      <c r="G126">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="H126">
+        <v>10.93</v>
+      </c>
+      <c r="I126">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="J126">
+        <v>36.4</v>
+      </c>
+      <c r="K126">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5">
+        <v>15.81</v>
+      </c>
+      <c r="C127">
+        <v>23.89</v>
+      </c>
+      <c r="D127">
+        <v>89.58</v>
+      </c>
+      <c r="E127">
+        <v>8.25</v>
+      </c>
+      <c r="F127">
+        <v>9.51</v>
+      </c>
+      <c r="G127">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H127">
+        <v>5.88</v>
+      </c>
+      <c r="I127">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="J127">
+        <v>44.27</v>
+      </c>
+      <c r="K127">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5">
+        <v>14.77</v>
+      </c>
+      <c r="C128">
+        <v>23.89</v>
+      </c>
+      <c r="D128">
+        <v>89.53</v>
+      </c>
+      <c r="E128">
+        <v>7.21</v>
+      </c>
+      <c r="F128">
+        <v>9.51</v>
+      </c>
+      <c r="G128">
+        <v>72.86</v>
+      </c>
+      <c r="H128">
+        <v>4.84</v>
+      </c>
+      <c r="I128">
+        <v>25.53</v>
+      </c>
+      <c r="J128">
+        <v>58.49</v>
+      </c>
+      <c r="K128">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5">
+        <v>19.29</v>
+      </c>
+      <c r="C129">
+        <v>23.89</v>
+      </c>
+      <c r="D129">
+        <v>89.53</v>
+      </c>
+      <c r="E129">
+        <v>7.21</v>
+      </c>
+      <c r="F129">
+        <v>9.51</v>
+      </c>
+      <c r="G129">
+        <v>71.61</v>
+      </c>
+      <c r="H129">
+        <v>4.84</v>
+      </c>
+      <c r="I129">
+        <v>25.43</v>
+      </c>
+      <c r="J129">
+        <v>55.32</v>
+      </c>
+      <c r="K129">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="C130">
+        <v>23.79</v>
+      </c>
+      <c r="D130">
+        <v>85.16</v>
+      </c>
+      <c r="E130">
+        <v>7.21</v>
+      </c>
+      <c r="F130">
+        <v>9.51</v>
+      </c>
+      <c r="G130">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="H130">
+        <v>4.49</v>
+      </c>
+      <c r="I130">
+        <v>24.43</v>
+      </c>
+      <c r="J130">
+        <v>69.23</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="C131">
+        <v>28.41</v>
+      </c>
+      <c r="D131">
+        <v>85.06</v>
+      </c>
+      <c r="E131">
+        <v>7.11</v>
+      </c>
+      <c r="F131">
+        <v>9.51</v>
+      </c>
+      <c r="G131">
+        <v>71.16</v>
+      </c>
+      <c r="H131">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I131">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="J131">
+        <v>69.13</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="C132">
+        <v>28.41</v>
+      </c>
+      <c r="D132">
+        <v>84.86</v>
+      </c>
+      <c r="E132">
+        <v>6.91</v>
+      </c>
+      <c r="F132">
+        <v>9.51</v>
+      </c>
+      <c r="G132">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="H132">
+        <v>4.29</v>
+      </c>
+      <c r="I132">
+        <v>20.11</v>
+      </c>
+      <c r="J132">
+        <v>69.03</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="C133">
+        <v>28.41</v>
+      </c>
+      <c r="D133">
+        <v>84.76</v>
+      </c>
+      <c r="E133">
+        <v>6.81</v>
+      </c>
+      <c r="F133">
+        <v>9.51</v>
+      </c>
+      <c r="G133">
+        <v>71.91</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>24.65</v>
+      </c>
+      <c r="J133">
+        <v>69.03</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5">
+        <v>17.39</v>
+      </c>
+      <c r="C134">
+        <v>26.69</v>
+      </c>
+      <c r="D134">
+        <v>84.06</v>
+      </c>
+      <c r="E134">
+        <v>6.76</v>
+      </c>
+      <c r="F134">
+        <v>9.51</v>
+      </c>
+      <c r="G134">
+        <v>71.91</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>24.65</v>
+      </c>
+      <c r="J134">
+        <v>69.03</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5">
+        <v>15.24</v>
+      </c>
+      <c r="C135">
+        <v>24.54</v>
+      </c>
+      <c r="D135">
+        <v>59.41</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>9.51</v>
+      </c>
+      <c r="G135">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>64.56</v>
+      </c>
+      <c r="J135">
+        <v>66.98</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5">
+        <v>12.34</v>
+      </c>
+      <c r="C136">
+        <v>24.54</v>
+      </c>
+      <c r="D136">
+        <v>59.41</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>9.51</v>
+      </c>
+      <c r="G136">
+        <v>69.06</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>68.16</v>
+      </c>
+      <c r="J136">
+        <v>66.98</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>24.44</v>
+      </c>
+      <c r="D137">
+        <v>47.07</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>9.51</v>
+      </c>
+      <c r="G137">
+        <v>155.63999999999999</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>6.36</v>
+      </c>
+      <c r="J137">
+        <v>66.98</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>24.24</v>
+      </c>
+      <c r="D138">
+        <v>47.07</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>9.51</v>
+      </c>
+      <c r="G138">
+        <v>155.63999999999999</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>7.06</v>
+      </c>
+      <c r="J138">
+        <v>66.48</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C139">
+        <v>24.24</v>
+      </c>
+      <c r="D139">
+        <v>46.07</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>9.51</v>
+      </c>
+      <c r="G139">
+        <v>152.38999999999999</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>7.06</v>
+      </c>
+      <c r="J139">
+        <v>63.23</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5">
+        <v>38.71</v>
+      </c>
+      <c r="C140">
+        <v>24.24</v>
+      </c>
+      <c r="D140">
+        <v>45.97</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>9.51</v>
+      </c>
+      <c r="G140">
+        <v>149.34</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>62.23</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5">
+        <v>38.21</v>
+      </c>
+      <c r="C141">
+        <v>23.74</v>
+      </c>
+      <c r="D141">
+        <v>45.37</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>9.51</v>
+      </c>
+      <c r="G141">
+        <v>148.84</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>64.33</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="C142">
+        <v>23.64</v>
+      </c>
+      <c r="D142">
+        <v>44.27</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>9.51</v>
+      </c>
+      <c r="G142">
+        <v>147.84</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>64.33</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5">
+        <v>46.93</v>
+      </c>
+      <c r="C143">
+        <v>23.59</v>
+      </c>
+      <c r="D143">
+        <v>44.27</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>9.51</v>
+      </c>
+      <c r="G143">
+        <v>141.47</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>64.23</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5">
+        <v>46.93</v>
+      </c>
+      <c r="C144">
+        <v>23.59</v>
+      </c>
+      <c r="D144">
+        <v>44.27</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>9.51</v>
+      </c>
+      <c r="G144">
+        <v>142.47</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>63.23</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5">
+        <v>46.66</v>
+      </c>
+      <c r="C145">
+        <v>23.22</v>
+      </c>
+      <c r="D145">
+        <v>44.27</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>9.51</v>
+      </c>
+      <c r="G145">
+        <v>142.1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>64.239999999999995</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5">
+        <v>46.56</v>
+      </c>
+      <c r="C146">
+        <v>22.4</v>
+      </c>
+      <c r="D146">
+        <v>43.45</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>9.51</v>
+      </c>
+      <c r="G146">
+        <v>143.94</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>64.14</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5">
+        <v>46.56</v>
+      </c>
+      <c r="C147">
+        <v>22.3</v>
+      </c>
+      <c r="D147">
+        <v>87</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>9.51</v>
+      </c>
+      <c r="G147">
+        <v>143.94</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>20.69</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5">
+        <v>46.46</v>
+      </c>
+      <c r="C148">
+        <v>22.3</v>
+      </c>
+      <c r="D148">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>9.51</v>
+      </c>
+      <c r="G148">
+        <v>185.77</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74981C-688A-42B9-8948-955DFDAB5311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C28024-CC80-46E7-9643-C8CB8B39532B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
     <sheet name="NL Stats-this session" sheetId="2" r:id="rId2"/>
     <sheet name="PLO Stats-this session" sheetId="3" r:id="rId3"/>
     <sheet name="All Stats-this session" sheetId="4" r:id="rId4"/>
-    <sheet name="Stacks vs time" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +93,9 @@
     <t>5 17</t>
   </si>
   <si>
+    <t>5 20</t>
+  </si>
+  <si>
     <t>Player</t>
   </si>
   <si>
@@ -139,25 +141,7 @@
     <t>Hands played</t>
   </si>
   <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Kynan</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Regan</t>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
@@ -184,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,20 +185,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,8 +199,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,9 +280,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Bankroll</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -323,9 +294,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -352,16 +323,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$D$2:$D$10</c:f>
+              <c:f>Bankrolls!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -388,6 +362,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>125.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,16 +372,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-853B-43D1-A145-894DE6E51DB9}"/>
+              <c16:uniqueId val="{00000000-5D35-4608-9008-DDC040171B54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Own Money Invested</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -417,12 +391,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4 09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$E$2:$E$10</c:f>
+              <c:f>Bankrolls!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>15.44</c:v>
                 </c:pt>
@@ -448,6 +460,9 @@
                   <c:v>61.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>61.330000000000013</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>61.330000000000013</c:v>
                 </c:pt>
               </c:numCache>
@@ -456,7 +471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-853B-43D1-A145-894DE6E51DB9}"/>
+              <c16:uniqueId val="{00000001-5D35-4608-9008-DDC040171B54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -785,7 +800,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A37-4CB6-B531-C747C607A801}"/>
+              <c16:uniqueId val="{00000000-18BE-4BAE-913A-C4C13DAAD632}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1034,7 +1049,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F1E-4BD2-901B-19CB9B221430}"/>
+              <c16:uniqueId val="{00000000-4925-41D2-BE4D-547B5E1C9641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1094,7 +1109,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F1E-4BD2-901B-19CB9B221430}"/>
+              <c16:uniqueId val="{00000001-4925-41D2-BE4D-547B5E1C9641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1154,7 +1169,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F1E-4BD2-901B-19CB9B221430}"/>
+              <c16:uniqueId val="{00000002-4925-41D2-BE4D-547B5E1C9641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1478,7 +1493,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF9B-4C7B-B7FA-9EEA7A031857}"/>
+              <c16:uniqueId val="{00000000-8AD6-4A9F-AFE0-46B67F0E735B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1768,7 +1783,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A138-4BD2-B65D-A8D3EA3BB964}"/>
+              <c16:uniqueId val="{00000000-C933-4601-BD8D-97854A820654}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,7 +1878,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A138-4BD2-B65D-A8D3EA3BB964}"/>
+              <c16:uniqueId val="{00000001-C933-4601-BD8D-97854A820654}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2178,7 +2193,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0D8-4ECE-817C-19AE3972B9B6}"/>
+              <c16:uniqueId val="{00000000-D2EC-4A3B-9976-18A89B05B472}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2283,7 +2298,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0D8-4ECE-817C-19AE3972B9B6}"/>
+              <c16:uniqueId val="{00000001-D2EC-4A3B-9976-18A89B05B472}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2577,7 +2592,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BD8-4D69-82C2-379B1DEA9C3E}"/>
+              <c16:uniqueId val="{00000000-9DF2-4504-A23B-714A5E350263}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2773,6 +2788,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>VPIP</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2785,60 +2803,57 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$F$2:$F$6</c:f>
+              <c:f>'All Stats-this session'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.71799999999999997</c:v>
+                  <c:v>0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0.433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.495</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.436</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE40-4F05-9123-71458E68D154}"/>
+              <c16:uniqueId val="{00000000-1245-44D3-BA40-46C8345BA0A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>PFR</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -2851,60 +2866,57 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$G$2:$G$6</c:f>
+              <c:f>'All Stats-this session'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>0.34300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42399999999999999</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE40-4F05-9123-71458E68D154}"/>
+              <c16:uniqueId val="{00000001-1245-44D3-BA40-46C8345BA0A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Bet</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -2917,54 +2929,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$H$2:$H$6</c:f>
+              <c:f>'All Stats-this session'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6900000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9800000000000002E-2</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.34E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0300000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE40-4F05-9123-71458E68D154}"/>
+              <c16:uniqueId val="{00000002-1245-44D3-BA40-46C8345BA0A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3247,54 +3253,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$I$2:$I$6</c:f>
+              <c:f>'All Stats-this session'!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.82</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.42</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60C4-45C4-8574-8BC75E237F28}"/>
+              <c16:uniqueId val="{00000000-81C9-441F-9647-1C71DB3EDCC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3543,54 +3543,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$K$2:$K$6</c:f>
+              <c:f>'All Stats-this session'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.184</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.158</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.121</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E96-493F-9510-2DD3C8F99EE7}"/>
+              <c16:uniqueId val="{00000000-39C2-493B-9017-CA96CDF51ED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3644,54 +3638,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$L$2:$L$6</c:f>
+              <c:f>'All Stats-this session'!$L$2:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.155</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E96-493F-9510-2DD3C8F99EE7}"/>
+              <c16:uniqueId val="{00000001-39C2-493B-9017-CA96CDF51ED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3965,54 +3953,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$M$2:$M$6</c:f>
+              <c:f>'All Stats-this session'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>178.01</c:v>
+                  <c:v>161.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207.15</c:v>
+                  <c:v>159.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.23</c:v>
+                  <c:v>190.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.85</c:v>
+                  <c:v>74.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D9B-492B-B74D-E5E32E063ADA}"/>
+              <c16:uniqueId val="{00000000-F8EB-4E99-8B27-77DB5D5053DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4076,54 +4058,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$N$2:$N$6</c:f>
+              <c:f>'All Stats-this session'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70.739999999999995</c:v>
+                  <c:v>79.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175.04</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.32</c:v>
+                  <c:v>96.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.24</c:v>
+                  <c:v>27.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D9B-492B-B74D-E5E32E063ADA}"/>
+              <c16:uniqueId val="{00000001-F8EB-4E99-8B27-77DB5D5053DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4338,9 +4314,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -4367,16 +4343,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$I$2:$I$10</c:f>
+              <c:f>Bankrolls!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4402,6 +4381,9 @@
                   <c:v>44.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>32.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>32.770000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -4410,7 +4392,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C366-4D35-9B9C-E62065F70AF0}"/>
+              <c16:uniqueId val="{00000000-53E3-4225-A050-B0654658C99C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4431,9 +4413,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -4460,16 +4442,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$J$2:$J$10</c:f>
+              <c:f>Bankrolls!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4495,6 +4480,9 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -4503,7 +4491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C366-4D35-9B9C-E62065F70AF0}"/>
+              <c16:uniqueId val="{00000001-53E3-4225-A050-B0654658C99C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4754,54 +4742,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                  <c:v>Xavier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$O$2:$O$6</c:f>
+              <c:f>'All Stats-this session'!$O$2:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>206</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18A9-42D8-A9A3-3E8D1B95E980}"/>
+              <c16:uniqueId val="{00000000-E21E-4947-B792-5ADE11B4D69A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4938,2010 +4920,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stacks</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Scott</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Stacks vs time'!$B$2:$B$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.68</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.74</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.03</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.63</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18.21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.73</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19.62</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>29.57</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25.02</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20.72</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.57</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>21.57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24.51</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24.51</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>24.51</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>24.41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22.11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23.11</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>23.01</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28.97</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28.87</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25.42</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25.42</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>22.17</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>22.12</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>21.52</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>21.52</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.55</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8.07</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.47</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.02</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.42</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.32</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.02</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.92</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12.92</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.92</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12.92</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>12.92</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12.92</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12.82</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>12.62</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.52</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.07</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>15.44</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>15.44</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>16.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>15.49</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>15.39</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>15.29</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>17.59</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>8.4700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>12.52</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>12.52</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12.52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>17.02</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>17.02</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>17.02</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>16.72</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16.72</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>16.12</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>16.12</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>12.12</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.22</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11.12</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>9.77</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>9.3699999999999992</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>9.3699999999999992</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>9.27</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9.27</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>9.27</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.81</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>15.81</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14.77</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>19.29</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>17.39</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12.34</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>38.71</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>38.21</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>40.409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>46.93</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>46.93</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>46.66</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>46.56</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>46.56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>46.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A561-4E0D-AB7C-DE61BFA26FB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Fish</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Stacks vs time'!$G$2:$G$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.43</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.72</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.49</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.39</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.39</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.39</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.2899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.2899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.39</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.2899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.19</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.89</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.79</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.79</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.65</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.85</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>13.45</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24.68</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>24.38</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>24.38</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>23.88</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>23.08</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>28.79</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>29.31</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>28.71</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>28.71</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>28.01</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>28.01</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>27.56</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>27.46</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>30.66</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29.66</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>29.56</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>28.76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>28.66</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>28.56</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>27.26</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>32.96</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>32.86</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32.36</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>31.91</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>31.91</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31.11</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33.61</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33.61</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>33.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>33.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>33.06</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>32.96</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32.96</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>23.62</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>23.17</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>22.77</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>22.22</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>21.72</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>21.72</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>21.62</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>20.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>28.63</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>28.63</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>32.53</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>32.53</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>32.43</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>28.13</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>27.83</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>53.23</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>53.83</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>53.63</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>53.63</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>53.53</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>53.03</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>52.93</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>52.88</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>52.78</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>69.63</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>68.38</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>68.38</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>67.23</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>65.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>80.36</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>79.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>77.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>74.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>73.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>72.86</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>71.61</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>71.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>71.16</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>71.959999999999994</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>71.91</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>71.91</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>69.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>69.06</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>155.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>155.63999999999999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>152.38999999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>149.34</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>148.84</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>147.84</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141.47</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142.47</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>142.1</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>143.94</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>143.94</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>185.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A561-4E0D-AB7C-DE61BFA26FB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Regan</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Stacks vs time'!$J$2:$J$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.85</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24.92</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>21.62</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>17.32</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>15.37</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>14.92</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>19.37</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>24.12</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>24.12</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23.62</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>23.62</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22.97</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>24.42</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>23.82</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>23.72</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>23.67</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>23.67</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>25.82</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>25.82</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>25.27</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>35.64</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>35.64</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>17.45</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>41.1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>12.65</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>43.51</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>43.41</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>34.56</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>32.46</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>36.4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44.27</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>58.49</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>55.32</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>69.23</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>69.13</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>69.03</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>69.03</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>69.03</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>66.98</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>66.98</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>66.98</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>66.48</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>63.23</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>62.23</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>64.33</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>64.33</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>64.23</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>63.23</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>64.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>64.14</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>20.69</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A561-4E0D-AB7C-DE61BFA26FB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Bill</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Stacks vs time'!$D$2:$D$148</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.26</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.26</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.36</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.17</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.9700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.87</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.17</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.52</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.52</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.92</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.32</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.62</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.62</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>24.05</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>37.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>37.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>36.9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36.9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>31.35</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>31.95</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>31.35</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43.25</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43.05</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43.05</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>42.45</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>41.67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>41.67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>41.67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44.27</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44.17</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43.72</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42.82</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42.72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>45.82</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>45.82</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>45.82</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>45.72</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>45.67</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>45.67</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>45.57</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>45.57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>45.57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>47.12</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>47.12</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>46.32</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>45.82</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>45.32</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>45.32</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>45.32</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>45.32</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>45.22</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>45.12</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>57.48</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>56.93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>56.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>56.93</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>56.83</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>56.83</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>79.569999999999993</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>79.37</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>78.91</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>80.680000000000007</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>80.38</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>79.88</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>79.88</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>78.78</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>78.78</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>78.78</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>78.680000000000007</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>78.48</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>77.28</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>75.680000000000007</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>75.58</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>75.48</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>110.48</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>110.48</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>110.48</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>110.38</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>113.58</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>112.98</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>112.98</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>92.98</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>92.88</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>92.23</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>90.03</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>90.03</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>89.58</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>89.53</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>89.53</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>85.16</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>85.06</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>84.86</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>84.76</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>84.06</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>59.41</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>59.41</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>47.07</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>47.07</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>46.07</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>45.97</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>45.37</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44.27</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44.27</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44.27</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44.27</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>43.45</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>66.010000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A561-4E0D-AB7C-DE61BFA26FB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2023666735"/>
-        <c:axId val="2023666319"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2023666735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Hand</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2023666319"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="20"/>
-        <c:tickMarkSkip val="10"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2023666319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Stack</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2023666735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7019,9 +4997,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -7048,16 +5026,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$N$2:$N$10</c:f>
+              <c:f>Bankrolls!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>51.61</c:v>
                 </c:pt>
@@ -7084,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>275.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>330.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,7 +5075,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-108F-456A-B4AA-F58582F08C56}"/>
+              <c16:uniqueId val="{00000000-AEC4-42CC-9113-3D851CEB0C40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7112,9 +5096,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -7141,16 +5125,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$O$2:$O$10</c:f>
+              <c:f>Bankrolls!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
@@ -7176,6 +5163,9 @@
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -7184,7 +5174,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-108F-456A-B4AA-F58582F08C56}"/>
+              <c16:uniqueId val="{00000001-AEC4-42CC-9113-3D851CEB0C40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7397,9 +5387,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -7426,16 +5416,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$S$2:$S$10</c:f>
+              <c:f>Bankrolls!$S$2:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7462,6 +5455,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7469,7 +5465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D14-4110-913E-BA31BEB8381D}"/>
+              <c16:uniqueId val="{00000000-45DF-4F48-9D39-D387DEEA0F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7490,9 +5486,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -7519,16 +5515,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$T$2:$T$10</c:f>
+              <c:f>Bankrolls!$T$2:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>26.12</c:v>
                 </c:pt>
@@ -7555,6 +5554,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>91.86999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7562,7 +5564,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D14-4110-913E-BA31BEB8381D}"/>
+              <c16:uniqueId val="{00000001-45DF-4F48-9D39-D387DEEA0F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7775,9 +5777,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -7804,16 +5806,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$X$2:$X$10</c:f>
+              <c:f>Bankrolls!$X$2:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7839,6 +5844,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7847,7 +5855,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E84-45BB-9228-14962EFEB4C9}"/>
+              <c16:uniqueId val="{00000000-73B9-465B-B542-D1911AE93CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7868,9 +5876,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$10</c:f>
+              <c:f>Bankrolls!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -7897,16 +5905,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$Y$2:$Y$10</c:f>
+              <c:f>Bankrolls!$Y$2:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7932,6 +5943,9 @@
                   <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>45.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7940,7 +5954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6E84-45BB-9228-14962EFEB4C9}"/>
+              <c16:uniqueId val="{00000001-73B9-465B-B542-D1911AE93CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8199,7 +6213,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DA6-423A-90D2-8700227796E2}"/>
+              <c16:uniqueId val="{00000000-E8AF-4CBD-9D26-76D1C65F9605}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8265,7 +6279,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1DA6-423A-90D2-8700227796E2}"/>
+              <c16:uniqueId val="{00000001-E8AF-4CBD-9D26-76D1C65F9605}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8331,7 +6345,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1DA6-423A-90D2-8700227796E2}"/>
+              <c16:uniqueId val="{00000002-E8AF-4CBD-9D26-76D1C65F9605}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8630,7 +6644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1567-400D-BF78-EC0F0C783434}"/>
+              <c16:uniqueId val="{00000000-91BA-435F-B021-0DA6657F1A92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8926,7 +6940,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F653-4032-A023-F06A1425ACAE}"/>
+              <c16:uniqueId val="{00000000-94C8-4F2C-8CE2-97144A261DCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9027,7 +7041,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F653-4032-A023-F06A1425ACAE}"/>
+              <c16:uniqueId val="{00000001-94C8-4F2C-8CE2-97144A261DCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9348,7 +7362,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADA9-4EB7-B0D1-C7809E78AC59}"/>
+              <c16:uniqueId val="{00000000-32F4-404D-8A35-120071A71528}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9459,7 +7473,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADA9-4EB7-B0D1-C7809E78AC59}"/>
+              <c16:uniqueId val="{00000001-32F4-404D-8A35-120071A71528}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10337,47 +8351,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10675,23 +8648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20" style="5" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -11236,6 +9209,62 @@
         <v>0</v>
       </c>
       <c r="Y10">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>70.58</v>
+      </c>
+      <c r="D11">
+        <v>131.91</v>
+      </c>
+      <c r="E11">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>12.77</v>
+      </c>
+      <c r="I11">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>320.48</v>
+      </c>
+      <c r="N11">
+        <v>330.53</v>
+      </c>
+      <c r="O11">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R11">
+        <v>-91.029999999999987</v>
+      </c>
+      <c r="S11">
+        <v>12.39</v>
+      </c>
+      <c r="T11">
+        <v>103.42</v>
+      </c>
+      <c r="V11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>-45.2</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>45.2</v>
       </c>
     </row>
@@ -11249,74 +9278,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -11574,74 +9603,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -11850,76 +9879,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -11929,4867 +9958,199 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2">
+        <v>26.14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
-        <v>0.71799999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="G2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="J2">
-        <v>0.185</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="K2">
-        <v>0.27200000000000002</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="L2">
-        <v>0.155</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M2">
-        <v>178.01</v>
+        <v>161.46</v>
       </c>
       <c r="N2">
-        <v>70.739999999999995</v>
+        <v>79.63</v>
       </c>
       <c r="O2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>23.8</v>
       </c>
       <c r="C3">
-        <v>101.44</v>
+        <v>12.39</v>
       </c>
       <c r="D3" s="2">
-        <v>81.44</v>
+        <v>-11.41</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.64500000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="G3">
-        <v>0.41499999999999998</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.6900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.82</v>
+        <v>0.89</v>
       </c>
       <c r="J3">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.184</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="L3">
-        <v>7.3999999999999996E-2</v>
+        <v>0.124</v>
       </c>
       <c r="M3">
-        <v>207.15</v>
+        <v>159.28</v>
       </c>
       <c r="N3">
-        <v>175.04</v>
+        <v>54.6</v>
       </c>
       <c r="O3">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4">
+        <v>75.27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>55.27</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>-20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
-        <v>0.495</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="H4">
-        <v>1.9800000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="I4">
-        <v>0.45</v>
+        <v>3.67</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="K4">
-        <v>0.158</v>
+        <v>0.16</v>
       </c>
       <c r="L4">
-        <v>8.8999999999999996E-2</v>
+        <v>0.107</v>
       </c>
       <c r="M4">
-        <v>29.23</v>
+        <v>190.59</v>
       </c>
       <c r="N4">
-        <v>37.32</v>
+        <v>96.96</v>
       </c>
       <c r="O4">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>-10</v>
+      <c r="D5" s="2">
+        <v>-50</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.78</v>
+      </c>
+      <c r="G5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0.436</v>
-      </c>
-      <c r="G5">
-        <v>0.114</v>
-      </c>
-      <c r="H5">
-        <v>1.34E-2</v>
-      </c>
       <c r="I5">
-        <v>0.86</v>
+        <v>1.42</v>
       </c>
       <c r="J5">
-        <v>0.23899999999999999</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="K5">
-        <v>0.14799999999999999</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="L5">
-        <v>7.3999999999999996E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="M5">
-        <v>44.7</v>
+        <v>74.38</v>
       </c>
       <c r="N5">
-        <v>43.47</v>
+        <v>27.1</v>
       </c>
       <c r="O5">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>5.56</v>
-      </c>
-      <c r="D6">
-        <v>-11.44</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H6">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>4.42</v>
-      </c>
-      <c r="J6">
-        <v>0.49</v>
-      </c>
-      <c r="K6">
-        <v>0.121</v>
-      </c>
-      <c r="L6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="M6">
-        <v>2.85</v>
-      </c>
-      <c r="N6">
-        <v>15.24</v>
-      </c>
-      <c r="O6">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K148"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>9.9</v>
-      </c>
-      <c r="C3">
-        <v>9.9</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>9.9</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>9.9</v>
-      </c>
-      <c r="C4">
-        <v>9.85</v>
-      </c>
-      <c r="D4">
-        <v>9.9</v>
-      </c>
-      <c r="E4">
-        <v>10.15</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.9</v>
-      </c>
-      <c r="C5">
-        <v>9.85</v>
-      </c>
-      <c r="D5">
-        <v>9.6</v>
-      </c>
-      <c r="E5">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="F5">
-        <v>9.9</v>
-      </c>
-      <c r="G5">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="C6">
-        <v>9.85</v>
-      </c>
-      <c r="D6">
-        <v>9.6</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G6">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>12.2</v>
-      </c>
-      <c r="C7">
-        <v>9.85</v>
-      </c>
-      <c r="D7">
-        <v>8.1</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
-      <c r="F7">
-        <v>9.75</v>
-      </c>
-      <c r="G7">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="C8">
-        <v>9.33</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>10.27</v>
-      </c>
-      <c r="F8">
-        <v>9.75</v>
-      </c>
-      <c r="G8">
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>11.78</v>
-      </c>
-      <c r="C9">
-        <v>9.01</v>
-      </c>
-      <c r="D9">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E9">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F9">
-        <v>9.75</v>
-      </c>
-      <c r="G9">
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>11.78</v>
-      </c>
-      <c r="C10">
-        <v>8.69</v>
-      </c>
-      <c r="D10">
-        <v>11.59</v>
-      </c>
-      <c r="E10">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="F10">
-        <v>9.23</v>
-      </c>
-      <c r="G10">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>11.78</v>
-      </c>
-      <c r="C11">
-        <v>8.59</v>
-      </c>
-      <c r="D11">
-        <v>11.49</v>
-      </c>
-      <c r="E11">
-        <v>10.53</v>
-      </c>
-      <c r="F11">
-        <v>8.43</v>
-      </c>
-      <c r="G11">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>13.68</v>
-      </c>
-      <c r="C12">
-        <v>8.59</v>
-      </c>
-      <c r="D12">
-        <v>10.89</v>
-      </c>
-      <c r="E12">
-        <v>9.93</v>
-      </c>
-      <c r="F12">
-        <v>8.33</v>
-      </c>
-      <c r="G12">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>13.68</v>
-      </c>
-      <c r="C13">
-        <v>8.59</v>
-      </c>
-      <c r="D13">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="E13">
-        <v>9.73</v>
-      </c>
-      <c r="F13">
-        <v>9.4</v>
-      </c>
-      <c r="G13">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>23.74</v>
-      </c>
-      <c r="C14">
-        <v>8.59</v>
-      </c>
-      <c r="D14">
-        <v>0.71</v>
-      </c>
-      <c r="E14">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="F14">
-        <v>9.4</v>
-      </c>
-      <c r="G14">
-        <v>8.43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>23.03</v>
-      </c>
-      <c r="C15">
-        <v>8.49</v>
-      </c>
-      <c r="D15">
-        <v>0.16</v>
-      </c>
-      <c r="E15">
-        <v>8.58</v>
-      </c>
-      <c r="F15">
-        <v>12.02</v>
-      </c>
-      <c r="G15">
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>22.33</v>
-      </c>
-      <c r="C16">
-        <v>14.09</v>
-      </c>
-      <c r="D16">
-        <v>10.06</v>
-      </c>
-      <c r="E16">
-        <v>7.88</v>
-      </c>
-      <c r="F16">
-        <v>11.32</v>
-      </c>
-      <c r="G16">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>22.63</v>
-      </c>
-      <c r="C17">
-        <v>14.09</v>
-      </c>
-      <c r="D17">
-        <v>10.36</v>
-      </c>
-      <c r="E17">
-        <v>7.28</v>
-      </c>
-      <c r="F17">
-        <v>11.32</v>
-      </c>
-      <c r="G17">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>22.23</v>
-      </c>
-      <c r="C18">
-        <v>14.09</v>
-      </c>
-      <c r="D18">
-        <v>10.36</v>
-      </c>
-      <c r="E18">
-        <v>8.48</v>
-      </c>
-      <c r="F18">
-        <v>10.92</v>
-      </c>
-      <c r="G18">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C19">
-        <v>14.09</v>
-      </c>
-      <c r="D19">
-        <v>10.36</v>
-      </c>
-      <c r="E19">
-        <v>7.88</v>
-      </c>
-      <c r="F19">
-        <v>10.87</v>
-      </c>
-      <c r="G19">
-        <v>8.49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C20">
-        <v>14.09</v>
-      </c>
-      <c r="D20">
-        <v>10.26</v>
-      </c>
-      <c r="E20">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="F20">
-        <v>10.77</v>
-      </c>
-      <c r="G20">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C21">
-        <v>13.09</v>
-      </c>
-      <c r="D21">
-        <v>10.26</v>
-      </c>
-      <c r="E21">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="F21">
-        <v>10.77</v>
-      </c>
-      <c r="G21">
-        <v>9.39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C22">
-        <v>13.04</v>
-      </c>
-      <c r="D22">
-        <v>9.86</v>
-      </c>
-      <c r="E22">
-        <v>8.73</v>
-      </c>
-      <c r="F22">
-        <v>10.77</v>
-      </c>
-      <c r="G22">
-        <v>9.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C23">
-        <v>13.04</v>
-      </c>
-      <c r="D23">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="E23">
-        <v>9.23</v>
-      </c>
-      <c r="F23">
-        <v>10.77</v>
-      </c>
-      <c r="G23">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C24">
-        <v>12.64</v>
-      </c>
-      <c r="D24">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="E24">
-        <v>9.83</v>
-      </c>
-      <c r="F24">
-        <v>10.67</v>
-      </c>
-      <c r="G24">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C25">
-        <v>12.64</v>
-      </c>
-      <c r="D25">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="E25">
-        <v>9.73</v>
-      </c>
-      <c r="F25">
-        <v>10.62</v>
-      </c>
-      <c r="G25">
-        <v>9.34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C26">
-        <v>12.99</v>
-      </c>
-      <c r="D26">
-        <v>9.36</v>
-      </c>
-      <c r="E26">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="F26">
-        <v>10.62</v>
-      </c>
-      <c r="G26">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C27">
-        <v>12.89</v>
-      </c>
-      <c r="D27">
-        <v>10.17</v>
-      </c>
-      <c r="E27">
-        <v>9.43</v>
-      </c>
-      <c r="F27">
-        <v>10.11</v>
-      </c>
-      <c r="G27">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C28">
-        <v>12.69</v>
-      </c>
-      <c r="D28">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="E28">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="F28">
-        <v>10.11</v>
-      </c>
-      <c r="G28">
-        <v>9.39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C29">
-        <v>12.69</v>
-      </c>
-      <c r="D29">
-        <v>7.37</v>
-      </c>
-      <c r="E29">
-        <v>9.58</v>
-      </c>
-      <c r="F29">
-        <v>12.86</v>
-      </c>
-      <c r="G29">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C30">
-        <v>12.99</v>
-      </c>
-      <c r="D30">
-        <v>7.37</v>
-      </c>
-      <c r="E30">
-        <v>9.48</v>
-      </c>
-      <c r="F30">
-        <v>12.76</v>
-      </c>
-      <c r="G30">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C31">
-        <v>19.89</v>
-      </c>
-      <c r="D31">
-        <v>7.27</v>
-      </c>
-      <c r="E31">
-        <v>6.38</v>
-      </c>
-      <c r="F31">
-        <v>12.16</v>
-      </c>
-      <c r="G31">
-        <v>6.09</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C32">
-        <v>19.84</v>
-      </c>
-      <c r="D32">
-        <v>6.87</v>
-      </c>
-      <c r="E32">
-        <v>6.08</v>
-      </c>
-      <c r="F32">
-        <v>13.11</v>
-      </c>
-      <c r="G32">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C33">
-        <v>19.84</v>
-      </c>
-      <c r="D33">
-        <v>6.17</v>
-      </c>
-      <c r="E33">
-        <v>5.38</v>
-      </c>
-      <c r="F33">
-        <v>16.61</v>
-      </c>
-      <c r="G33">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>18.21</v>
-      </c>
-      <c r="C34">
-        <v>25.84</v>
-      </c>
-      <c r="D34">
-        <v>3.22</v>
-      </c>
-      <c r="E34">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F34">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="G34">
-        <v>3.79</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>15.73</v>
-      </c>
-      <c r="C35">
-        <v>25.84</v>
-      </c>
-      <c r="D35">
-        <v>2.72</v>
-      </c>
-      <c r="E35">
-        <v>6.51</v>
-      </c>
-      <c r="F35">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="G35">
-        <v>3.69</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>15.33</v>
-      </c>
-      <c r="C36">
-        <v>25.84</v>
-      </c>
-      <c r="D36">
-        <v>6.52</v>
-      </c>
-      <c r="E36">
-        <v>6.11</v>
-      </c>
-      <c r="F36">
-        <v>15.61</v>
-      </c>
-      <c r="G36">
-        <v>1.89</v>
-      </c>
-      <c r="H36">
-        <v>9.6</v>
-      </c>
-      <c r="I36">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>19.62</v>
-      </c>
-      <c r="C37">
-        <v>25.84</v>
-      </c>
-      <c r="D37">
-        <v>6.52</v>
-      </c>
-      <c r="E37">
-        <v>6.01</v>
-      </c>
-      <c r="F37">
-        <v>14.61</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I37">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>20.92</v>
-      </c>
-      <c r="C38">
-        <v>25.84</v>
-      </c>
-      <c r="D38">
-        <v>5.92</v>
-      </c>
-      <c r="E38">
-        <v>6.01</v>
-      </c>
-      <c r="F38">
-        <v>14.61</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <v>29.57</v>
-      </c>
-      <c r="C39">
-        <v>25.84</v>
-      </c>
-      <c r="D39">
-        <v>5.92</v>
-      </c>
-      <c r="E39">
-        <v>5.31</v>
-      </c>
-      <c r="F39">
-        <v>14.51</v>
-      </c>
-      <c r="G39">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H39">
-        <v>8.6</v>
-      </c>
-      <c r="I39">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <v>25.02</v>
-      </c>
-      <c r="C40">
-        <v>25.84</v>
-      </c>
-      <c r="D40">
-        <v>5.32</v>
-      </c>
-      <c r="E40">
-        <v>4.71</v>
-      </c>
-      <c r="F40">
-        <v>14.41</v>
-      </c>
-      <c r="G40">
-        <v>15.65</v>
-      </c>
-      <c r="H40">
-        <v>8.1</v>
-      </c>
-      <c r="I40">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>20.72</v>
-      </c>
-      <c r="C41">
-        <v>25.14</v>
-      </c>
-      <c r="D41">
-        <v>3.62</v>
-      </c>
-      <c r="E41">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F41">
-        <v>14.41</v>
-      </c>
-      <c r="G41">
-        <v>13.95</v>
-      </c>
-      <c r="H41">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I41">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>21.57</v>
-      </c>
-      <c r="C42">
-        <v>24.59</v>
-      </c>
-      <c r="D42">
-        <v>3.62</v>
-      </c>
-      <c r="E42">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="F42">
-        <v>13.91</v>
-      </c>
-      <c r="G42">
-        <v>13.95</v>
-      </c>
-      <c r="H42">
-        <v>15.8</v>
-      </c>
-      <c r="I42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>21.57</v>
-      </c>
-      <c r="C43">
-        <v>24.59</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>3.96</v>
-      </c>
-      <c r="F43">
-        <v>9.51</v>
-      </c>
-      <c r="G43">
-        <v>13.85</v>
-      </c>
-      <c r="H43">
-        <v>24.72</v>
-      </c>
-      <c r="I43">
-        <v>1.8</v>
-      </c>
-      <c r="J43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>24.51</v>
-      </c>
-      <c r="C44">
-        <v>24.59</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>3.96</v>
-      </c>
-      <c r="F44">
-        <v>9.51</v>
-      </c>
-      <c r="G44">
-        <v>13.8</v>
-      </c>
-      <c r="H44">
-        <v>21.93</v>
-      </c>
-      <c r="I44">
-        <v>1.8</v>
-      </c>
-      <c r="J44">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5">
-        <v>24.51</v>
-      </c>
-      <c r="C45">
-        <v>24.49</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>4.41</v>
-      </c>
-      <c r="F45">
-        <v>9.51</v>
-      </c>
-      <c r="G45">
-        <v>13.7</v>
-      </c>
-      <c r="H45">
-        <v>21.83</v>
-      </c>
-      <c r="I45">
-        <v>1.7</v>
-      </c>
-      <c r="J45">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>24.51</v>
-      </c>
-      <c r="C46">
-        <v>24.49</v>
-      </c>
-      <c r="D46">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E46">
-        <v>3.61</v>
-      </c>
-      <c r="F46">
-        <v>9.51</v>
-      </c>
-      <c r="G46">
-        <v>12.9</v>
-      </c>
-      <c r="H46">
-        <v>21.78</v>
-      </c>
-      <c r="I46">
-        <v>4.95</v>
-      </c>
-      <c r="J46">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>24.41</v>
-      </c>
-      <c r="C47">
-        <v>24.49</v>
-      </c>
-      <c r="D47">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E47">
-        <v>3.61</v>
-      </c>
-      <c r="F47">
-        <v>9.51</v>
-      </c>
-      <c r="G47">
-        <v>12.9</v>
-      </c>
-      <c r="H47">
-        <v>21.78</v>
-      </c>
-      <c r="I47">
-        <v>4.45</v>
-      </c>
-      <c r="J47">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>22.11</v>
-      </c>
-      <c r="C48">
-        <v>24.49</v>
-      </c>
-      <c r="D48">
-        <v>11.4</v>
-      </c>
-      <c r="E48">
-        <v>3.61</v>
-      </c>
-      <c r="F48">
-        <v>9.51</v>
-      </c>
-      <c r="G48">
-        <v>12.7</v>
-      </c>
-      <c r="H48">
-        <v>21.78</v>
-      </c>
-      <c r="I48">
-        <v>4.25</v>
-      </c>
-      <c r="J48">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5">
-        <v>23.11</v>
-      </c>
-      <c r="C49">
-        <v>24.39</v>
-      </c>
-      <c r="D49">
-        <v>11.4</v>
-      </c>
-      <c r="E49">
-        <v>3.51</v>
-      </c>
-      <c r="F49">
-        <v>9.51</v>
-      </c>
-      <c r="G49">
-        <v>12.7</v>
-      </c>
-      <c r="H49">
-        <v>21.68</v>
-      </c>
-      <c r="I49">
-        <v>3.55</v>
-      </c>
-      <c r="J49">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>23.01</v>
-      </c>
-      <c r="C50">
-        <v>23.39</v>
-      </c>
-      <c r="D50">
-        <v>11.3</v>
-      </c>
-      <c r="E50">
-        <v>3.41</v>
-      </c>
-      <c r="F50">
-        <v>9.51</v>
-      </c>
-      <c r="G50">
-        <v>13.45</v>
-      </c>
-      <c r="H50">
-        <v>21.48</v>
-      </c>
-      <c r="I50">
-        <v>4.3</v>
-      </c>
-      <c r="J50">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>28.97</v>
-      </c>
-      <c r="C51">
-        <v>23.39</v>
-      </c>
-      <c r="D51">
-        <v>11.2</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>9.51</v>
-      </c>
-      <c r="G51">
-        <v>11</v>
-      </c>
-      <c r="H51">
-        <v>21.48</v>
-      </c>
-      <c r="I51">
-        <v>4.3</v>
-      </c>
-      <c r="J51">
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>28.87</v>
-      </c>
-      <c r="C52">
-        <v>23.39</v>
-      </c>
-      <c r="D52">
-        <v>11.2</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>9.51</v>
-      </c>
-      <c r="G52">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H52">
-        <v>20.88</v>
-      </c>
-      <c r="I52">
-        <v>7.8</v>
-      </c>
-      <c r="J52">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>25.42</v>
-      </c>
-      <c r="C53">
-        <v>23.39</v>
-      </c>
-      <c r="D53">
-        <v>24.8</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>9.51</v>
-      </c>
-      <c r="G53">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H53">
-        <v>20.78</v>
-      </c>
-      <c r="I53">
-        <v>7.8</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>25.42</v>
-      </c>
-      <c r="C54">
-        <v>22.64</v>
-      </c>
-      <c r="D54">
-        <v>24.05</v>
-      </c>
-      <c r="E54">
-        <v>19.95</v>
-      </c>
-      <c r="F54">
-        <v>9.51</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>20.73</v>
-      </c>
-      <c r="I54">
-        <v>7.7</v>
-      </c>
-      <c r="J54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>22.17</v>
-      </c>
-      <c r="C55">
-        <v>22.64</v>
-      </c>
-      <c r="D55">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E55">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="F55">
-        <v>9.51</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>11.48</v>
-      </c>
-      <c r="I55">
-        <v>7.6</v>
-      </c>
-      <c r="J55">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>22.12</v>
-      </c>
-      <c r="C56">
-        <v>22.64</v>
-      </c>
-      <c r="D56">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E56">
-        <v>19.75</v>
-      </c>
-      <c r="F56">
-        <v>9.51</v>
-      </c>
-      <c r="G56">
-        <v>9.9</v>
-      </c>
-      <c r="H56">
-        <v>11.48</v>
-      </c>
-      <c r="I56">
-        <v>7.5</v>
-      </c>
-      <c r="J56">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>21.52</v>
-      </c>
-      <c r="C57">
-        <v>22.24</v>
-      </c>
-      <c r="D57">
-        <v>36.9</v>
-      </c>
-      <c r="E57">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="F57">
-        <v>9.51</v>
-      </c>
-      <c r="G57">
-        <v>9.9</v>
-      </c>
-      <c r="H57">
-        <v>6.23</v>
-      </c>
-      <c r="I57">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="J57">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>21.52</v>
-      </c>
-      <c r="C58">
-        <v>22.19</v>
-      </c>
-      <c r="D58">
-        <v>36.9</v>
-      </c>
-      <c r="E58">
-        <v>18.55</v>
-      </c>
-      <c r="F58">
-        <v>9.51</v>
-      </c>
-      <c r="G58">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="H58">
-        <v>6.23</v>
-      </c>
-      <c r="I58">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="J58">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="C59">
-        <v>21.18</v>
-      </c>
-      <c r="D59">
-        <v>31.35</v>
-      </c>
-      <c r="E59">
-        <v>13</v>
-      </c>
-      <c r="F59">
-        <v>9.51</v>
-      </c>
-      <c r="G59">
-        <v>24.68</v>
-      </c>
-      <c r="H59">
-        <v>6.23</v>
-      </c>
-      <c r="I59">
-        <v>16.34</v>
-      </c>
-      <c r="J59">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="C60">
-        <v>21.18</v>
-      </c>
-      <c r="D60">
-        <v>31.95</v>
-      </c>
-      <c r="E60">
-        <v>12.9</v>
-      </c>
-      <c r="F60">
-        <v>9.51</v>
-      </c>
-      <c r="G60">
-        <v>24.38</v>
-      </c>
-      <c r="H60">
-        <v>6.23</v>
-      </c>
-      <c r="I60">
-        <v>16.34</v>
-      </c>
-      <c r="J60">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="C61">
-        <v>21.18</v>
-      </c>
-      <c r="D61">
-        <v>31.35</v>
-      </c>
-      <c r="E61">
-        <v>12.9</v>
-      </c>
-      <c r="F61">
-        <v>9.51</v>
-      </c>
-      <c r="G61">
-        <v>24.38</v>
-      </c>
-      <c r="H61">
-        <v>6.23</v>
-      </c>
-      <c r="I61">
-        <v>19.14</v>
-      </c>
-      <c r="J61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5">
-        <v>7.61</v>
-      </c>
-      <c r="C62">
-        <v>21.18</v>
-      </c>
-      <c r="D62">
-        <v>43.25</v>
-      </c>
-      <c r="E62">
-        <v>12.9</v>
-      </c>
-      <c r="F62">
-        <v>9.51</v>
-      </c>
-      <c r="G62">
-        <v>23.88</v>
-      </c>
-      <c r="H62">
-        <v>6.23</v>
-      </c>
-      <c r="I62">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="J62">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5">
-        <v>11.91</v>
-      </c>
-      <c r="C63">
-        <v>21.18</v>
-      </c>
-      <c r="D63">
-        <v>43.05</v>
-      </c>
-      <c r="E63">
-        <v>10.4</v>
-      </c>
-      <c r="F63">
-        <v>9.51</v>
-      </c>
-      <c r="G63">
-        <v>23.08</v>
-      </c>
-      <c r="H63">
-        <v>6.23</v>
-      </c>
-      <c r="I63">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="J63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>11.91</v>
-      </c>
-      <c r="C64">
-        <v>21.08</v>
-      </c>
-      <c r="D64">
-        <v>43.05</v>
-      </c>
-      <c r="E64">
-        <v>10.4</v>
-      </c>
-      <c r="F64">
-        <v>9.51</v>
-      </c>
-      <c r="G64">
-        <v>23.18</v>
-      </c>
-      <c r="H64">
-        <v>6.23</v>
-      </c>
-      <c r="I64">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="J64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5">
-        <v>7.55</v>
-      </c>
-      <c r="C65">
-        <v>21.03</v>
-      </c>
-      <c r="D65">
-        <v>42.45</v>
-      </c>
-      <c r="E65">
-        <v>10.3</v>
-      </c>
-      <c r="F65">
-        <v>9.51</v>
-      </c>
-      <c r="G65">
-        <v>28.79</v>
-      </c>
-      <c r="H65">
-        <v>6.23</v>
-      </c>
-      <c r="I65">
-        <v>16.64</v>
-      </c>
-      <c r="J65">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5">
-        <v>8.07</v>
-      </c>
-      <c r="C66">
-        <v>21.03</v>
-      </c>
-      <c r="D66">
-        <v>41.67</v>
-      </c>
-      <c r="E66">
-        <v>10.82</v>
-      </c>
-      <c r="F66">
-        <v>9.51</v>
-      </c>
-      <c r="G66">
-        <v>29.31</v>
-      </c>
-      <c r="H66">
-        <v>5.6</v>
-      </c>
-      <c r="I66">
-        <v>16.59</v>
-      </c>
-      <c r="J66">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5">
-        <v>7.47</v>
-      </c>
-      <c r="C67">
-        <v>21.03</v>
-      </c>
-      <c r="D67">
-        <v>41.67</v>
-      </c>
-      <c r="E67">
-        <v>10.82</v>
-      </c>
-      <c r="F67">
-        <v>9.51</v>
-      </c>
-      <c r="G67">
-        <v>28.71</v>
-      </c>
-      <c r="H67">
-        <v>5.6</v>
-      </c>
-      <c r="I67">
-        <v>24.74</v>
-      </c>
-      <c r="J67">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
-        <v>7.02</v>
-      </c>
-      <c r="C68">
-        <v>21.03</v>
-      </c>
-      <c r="D68">
-        <v>41.67</v>
-      </c>
-      <c r="E68">
-        <v>10.72</v>
-      </c>
-      <c r="F68">
-        <v>9.51</v>
-      </c>
-      <c r="G68">
-        <v>28.71</v>
-      </c>
-      <c r="H68">
-        <v>5.15</v>
-      </c>
-      <c r="I68">
-        <v>24.29</v>
-      </c>
-      <c r="J68">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5">
-        <v>6.42</v>
-      </c>
-      <c r="C69">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="D69">
-        <v>44.27</v>
-      </c>
-      <c r="E69">
-        <v>10.72</v>
-      </c>
-      <c r="F69">
-        <v>9.51</v>
-      </c>
-      <c r="G69">
-        <v>28.01</v>
-      </c>
-      <c r="H69">
-        <v>4.55</v>
-      </c>
-      <c r="I69">
-        <v>24.29</v>
-      </c>
-      <c r="J69">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5">
-        <v>6.32</v>
-      </c>
-      <c r="C70">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="D70">
-        <v>44.17</v>
-      </c>
-      <c r="E70">
-        <v>8.82</v>
-      </c>
-      <c r="F70">
-        <v>9.51</v>
-      </c>
-      <c r="G70">
-        <v>28.01</v>
-      </c>
-      <c r="H70">
-        <v>4.45</v>
-      </c>
-      <c r="I70">
-        <v>24.19</v>
-      </c>
-      <c r="J70">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5">
-        <v>13.02</v>
-      </c>
-      <c r="C71">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="D71">
-        <v>43.72</v>
-      </c>
-      <c r="E71">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="F71">
-        <v>9.51</v>
-      </c>
-      <c r="G71">
-        <v>27.56</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>23.74</v>
-      </c>
-      <c r="J71">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5">
-        <v>12.92</v>
-      </c>
-      <c r="C72">
-        <v>21.26</v>
-      </c>
-      <c r="D72">
-        <v>42.82</v>
-      </c>
-      <c r="E72">
-        <v>7.47</v>
-      </c>
-      <c r="F72">
-        <v>9.51</v>
-      </c>
-      <c r="G72">
-        <v>27.46</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>23.54</v>
-      </c>
-      <c r="J72">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5">
-        <v>12.92</v>
-      </c>
-      <c r="C73">
-        <v>21.16</v>
-      </c>
-      <c r="D73">
-        <v>42.72</v>
-      </c>
-      <c r="E73">
-        <v>7.37</v>
-      </c>
-      <c r="F73">
-        <v>9.51</v>
-      </c>
-      <c r="G73">
-        <v>30.66</v>
-      </c>
-      <c r="H73">
-        <v>7.2</v>
-      </c>
-      <c r="I73">
-        <v>23.44</v>
-      </c>
-      <c r="J73">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5">
-        <v>12.92</v>
-      </c>
-      <c r="C74">
-        <v>21.16</v>
-      </c>
-      <c r="D74">
-        <v>45.82</v>
-      </c>
-      <c r="E74">
-        <v>7.27</v>
-      </c>
-      <c r="F74">
-        <v>9.51</v>
-      </c>
-      <c r="G74">
-        <v>29.66</v>
-      </c>
-      <c r="H74">
-        <v>6.4</v>
-      </c>
-      <c r="I74">
-        <v>22.44</v>
-      </c>
-      <c r="J74">
-        <v>24.92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5">
-        <v>12.92</v>
-      </c>
-      <c r="C75">
-        <v>21.06</v>
-      </c>
-      <c r="D75">
-        <v>45.82</v>
-      </c>
-      <c r="E75">
-        <v>6.82</v>
-      </c>
-      <c r="F75">
-        <v>9.51</v>
-      </c>
-      <c r="G75">
-        <v>29.56</v>
-      </c>
-      <c r="H75">
-        <v>5.95</v>
-      </c>
-      <c r="I75">
-        <v>26.74</v>
-      </c>
-      <c r="J75">
-        <v>21.62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5">
-        <v>12.92</v>
-      </c>
-      <c r="C76">
-        <v>21.06</v>
-      </c>
-      <c r="D76">
-        <v>45.82</v>
-      </c>
-      <c r="E76">
-        <v>6.82</v>
-      </c>
-      <c r="F76">
-        <v>9.51</v>
-      </c>
-      <c r="G76">
-        <v>28.76</v>
-      </c>
-      <c r="H76">
-        <v>5.85</v>
-      </c>
-      <c r="I76">
-        <v>31.94</v>
-      </c>
-      <c r="J76">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
-        <v>12.92</v>
-      </c>
-      <c r="C77">
-        <v>20.59</v>
-      </c>
-      <c r="D77">
-        <v>45.72</v>
-      </c>
-      <c r="E77">
-        <v>9.91</v>
-      </c>
-      <c r="F77">
-        <v>9.51</v>
-      </c>
-      <c r="G77">
-        <v>28.66</v>
-      </c>
-      <c r="H77">
-        <v>5.8</v>
-      </c>
-      <c r="I77">
-        <v>29.57</v>
-      </c>
-      <c r="J77">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5">
-        <v>12.82</v>
-      </c>
-      <c r="C78">
-        <v>20.59</v>
-      </c>
-      <c r="D78">
-        <v>45.67</v>
-      </c>
-      <c r="E78">
-        <v>9.91</v>
-      </c>
-      <c r="F78">
-        <v>9.51</v>
-      </c>
-      <c r="G78">
-        <v>28.56</v>
-      </c>
-      <c r="H78">
-        <v>5.35</v>
-      </c>
-      <c r="I78">
-        <v>29.12</v>
-      </c>
-      <c r="J78">
-        <v>18.47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5">
-        <v>12.62</v>
-      </c>
-      <c r="C79">
-        <v>19.29</v>
-      </c>
-      <c r="D79">
-        <v>45.67</v>
-      </c>
-      <c r="E79">
-        <v>8.61</v>
-      </c>
-      <c r="F79">
-        <v>9.51</v>
-      </c>
-      <c r="G79">
-        <v>27.26</v>
-      </c>
-      <c r="H79">
-        <v>9.65</v>
-      </c>
-      <c r="I79">
-        <v>28.92</v>
-      </c>
-      <c r="J79">
-        <v>18.47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5">
-        <v>11.82</v>
-      </c>
-      <c r="C80">
-        <v>19.190000000000001</v>
-      </c>
-      <c r="D80">
-        <v>45.57</v>
-      </c>
-      <c r="E80">
-        <v>8.61</v>
-      </c>
-      <c r="F80">
-        <v>9.51</v>
-      </c>
-      <c r="G80">
-        <v>32.96</v>
-      </c>
-      <c r="H80">
-        <v>8.85</v>
-      </c>
-      <c r="I80">
-        <v>28.12</v>
-      </c>
-      <c r="J80">
-        <v>15.37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
-        <v>11.82</v>
-      </c>
-      <c r="C81">
-        <v>19.84</v>
-      </c>
-      <c r="D81">
-        <v>45.57</v>
-      </c>
-      <c r="E81">
-        <v>8.51</v>
-      </c>
-      <c r="F81">
-        <v>9.51</v>
-      </c>
-      <c r="G81">
-        <v>32.86</v>
-      </c>
-      <c r="H81">
-        <v>8.85</v>
-      </c>
-      <c r="I81">
-        <v>28.12</v>
-      </c>
-      <c r="J81">
-        <v>14.92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5">
-        <v>7.82</v>
-      </c>
-      <c r="C82">
-        <v>19.84</v>
-      </c>
-      <c r="D82">
-        <v>45.57</v>
-      </c>
-      <c r="E82">
-        <v>8.01</v>
-      </c>
-      <c r="F82">
-        <v>9.51</v>
-      </c>
-      <c r="G82">
-        <v>32.36</v>
-      </c>
-      <c r="H82">
-        <v>8.85</v>
-      </c>
-      <c r="I82">
-        <v>28.12</v>
-      </c>
-      <c r="J82">
-        <v>19.920000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5">
-        <v>7.82</v>
-      </c>
-      <c r="C83">
-        <v>19.84</v>
-      </c>
-      <c r="D83">
-        <v>47.12</v>
-      </c>
-      <c r="E83">
-        <v>7.46</v>
-      </c>
-      <c r="F83">
-        <v>9.51</v>
-      </c>
-      <c r="G83">
-        <v>31.91</v>
-      </c>
-      <c r="H83">
-        <v>8.85</v>
-      </c>
-      <c r="I83">
-        <v>28.12</v>
-      </c>
-      <c r="J83">
-        <v>19.37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>7.32</v>
-      </c>
-      <c r="C84">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="D84">
-        <v>47.12</v>
-      </c>
-      <c r="E84">
-        <v>6.96</v>
-      </c>
-      <c r="F84">
-        <v>9.51</v>
-      </c>
-      <c r="G84">
-        <v>31.91</v>
-      </c>
-      <c r="H84">
-        <v>8.75</v>
-      </c>
-      <c r="I84">
-        <v>27.62</v>
-      </c>
-      <c r="J84">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
-        <v>7.32</v>
-      </c>
-      <c r="C85">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="D85">
-        <v>46.32</v>
-      </c>
-      <c r="E85">
-        <v>6.16</v>
-      </c>
-      <c r="F85">
-        <v>9.51</v>
-      </c>
-      <c r="G85">
-        <v>31.11</v>
-      </c>
-      <c r="H85">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I85">
-        <v>26.82</v>
-      </c>
-      <c r="J85">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5">
-        <v>6.82</v>
-      </c>
-      <c r="C86">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="D86">
-        <v>45.82</v>
-      </c>
-      <c r="E86">
-        <v>6.16</v>
-      </c>
-      <c r="F86">
-        <v>9.51</v>
-      </c>
-      <c r="G86">
-        <v>33.61</v>
-      </c>
-      <c r="H86">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I86">
-        <v>26.32</v>
-      </c>
-      <c r="J86">
-        <v>23.62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>7.52</v>
-      </c>
-      <c r="C87">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="D87">
-        <v>45.32</v>
-      </c>
-      <c r="E87">
-        <v>6.06</v>
-      </c>
-      <c r="F87">
-        <v>9.51</v>
-      </c>
-      <c r="G87">
-        <v>33.61</v>
-      </c>
-      <c r="H87">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I87">
-        <v>26.22</v>
-      </c>
-      <c r="J87">
-        <v>23.62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
-        <v>7.52</v>
-      </c>
-      <c r="C88">
-        <v>19.34</v>
-      </c>
-      <c r="D88">
-        <v>45.32</v>
-      </c>
-      <c r="E88">
-        <v>6.06</v>
-      </c>
-      <c r="F88">
-        <v>9.51</v>
-      </c>
-      <c r="G88">
-        <v>33.159999999999997</v>
-      </c>
-      <c r="H88">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I88">
-        <v>27.42</v>
-      </c>
-      <c r="J88">
-        <v>22.97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>7.07</v>
-      </c>
-      <c r="C89">
-        <v>18.89</v>
-      </c>
-      <c r="D89">
-        <v>45.32</v>
-      </c>
-      <c r="E89">
-        <v>5.96</v>
-      </c>
-      <c r="F89">
-        <v>9.51</v>
-      </c>
-      <c r="G89">
-        <v>33.159999999999997</v>
-      </c>
-      <c r="H89">
-        <v>8.25</v>
-      </c>
-      <c r="I89">
-        <v>27.42</v>
-      </c>
-      <c r="J89">
-        <v>24.42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5">
-        <v>15.44</v>
-      </c>
-      <c r="C90">
-        <v>11.82</v>
-      </c>
-      <c r="D90">
-        <v>45.32</v>
-      </c>
-      <c r="E90">
-        <v>5.46</v>
-      </c>
-      <c r="F90">
-        <v>9.51</v>
-      </c>
-      <c r="G90">
-        <v>33.06</v>
-      </c>
-      <c r="H90">
-        <v>8.15</v>
-      </c>
-      <c r="I90">
-        <v>27.42</v>
-      </c>
-      <c r="J90">
-        <v>23.82</v>
-      </c>
-      <c r="K90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5">
-        <v>15.44</v>
-      </c>
-      <c r="C91">
-        <v>11.82</v>
-      </c>
-      <c r="D91">
-        <v>45.22</v>
-      </c>
-      <c r="E91">
-        <v>5.36</v>
-      </c>
-      <c r="F91">
-        <v>9.51</v>
-      </c>
-      <c r="G91">
-        <v>32.96</v>
-      </c>
-      <c r="H91">
-        <v>7.5</v>
-      </c>
-      <c r="I91">
-        <v>25.6</v>
-      </c>
-      <c r="J91">
-        <v>23.72</v>
-      </c>
-      <c r="K91">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="C92">
-        <v>11.82</v>
-      </c>
-      <c r="D92">
-        <v>45.12</v>
-      </c>
-      <c r="E92">
-        <v>5.36</v>
-      </c>
-      <c r="F92">
-        <v>9.51</v>
-      </c>
-      <c r="G92">
-        <v>32.96</v>
-      </c>
-      <c r="H92">
-        <v>6.9</v>
-      </c>
-      <c r="I92">
-        <v>25.6</v>
-      </c>
-      <c r="J92">
-        <v>23.67</v>
-      </c>
-      <c r="K92">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5">
-        <v>15.49</v>
-      </c>
-      <c r="C93">
-        <v>10.15</v>
-      </c>
-      <c r="D93">
-        <v>57.48</v>
-      </c>
-      <c r="E93">
-        <v>4.76</v>
-      </c>
-      <c r="F93">
-        <v>9.51</v>
-      </c>
-      <c r="G93">
-        <v>23.62</v>
-      </c>
-      <c r="H93">
-        <v>6.85</v>
-      </c>
-      <c r="I93">
-        <v>25.6</v>
-      </c>
-      <c r="J93">
-        <v>23.67</v>
-      </c>
-      <c r="K93">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5">
-        <v>15.39</v>
-      </c>
-      <c r="C94">
-        <v>10.15</v>
-      </c>
-      <c r="D94">
-        <v>56.93</v>
-      </c>
-      <c r="E94">
-        <v>4.76</v>
-      </c>
-      <c r="F94">
-        <v>9.51</v>
-      </c>
-      <c r="G94">
-        <v>23.17</v>
-      </c>
-      <c r="H94">
-        <v>6.85</v>
-      </c>
-      <c r="I94">
-        <v>24.65</v>
-      </c>
-      <c r="J94">
-        <v>25.82</v>
-      </c>
-      <c r="K94">
-        <v>12.77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5">
-        <v>15.29</v>
-      </c>
-      <c r="C95">
-        <v>10.15</v>
-      </c>
-      <c r="D95">
-        <v>56.93</v>
-      </c>
-      <c r="E95">
-        <v>6.06</v>
-      </c>
-      <c r="F95">
-        <v>9.51</v>
-      </c>
-      <c r="G95">
-        <v>22.77</v>
-      </c>
-      <c r="H95">
-        <v>6.85</v>
-      </c>
-      <c r="I95">
-        <v>24.25</v>
-      </c>
-      <c r="J95">
-        <v>25.82</v>
-      </c>
-      <c r="K95">
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5">
-        <v>17.59</v>
-      </c>
-      <c r="C96">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="D96">
-        <v>56.93</v>
-      </c>
-      <c r="E96">
-        <v>6.06</v>
-      </c>
-      <c r="F96">
-        <v>9.51</v>
-      </c>
-      <c r="G96">
-        <v>22.22</v>
-      </c>
-      <c r="H96">
-        <v>6.85</v>
-      </c>
-      <c r="I96">
-        <v>23.7</v>
-      </c>
-      <c r="J96">
-        <v>25.27</v>
-      </c>
-      <c r="K96">
-        <v>11.82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="C97">
-        <v>10</v>
-      </c>
-      <c r="D97">
-        <v>56.83</v>
-      </c>
-      <c r="E97">
-        <v>5.56</v>
-      </c>
-      <c r="F97">
-        <v>9.51</v>
-      </c>
-      <c r="G97">
-        <v>21.72</v>
-      </c>
-      <c r="H97">
-        <v>6.85</v>
-      </c>
-      <c r="I97">
-        <v>23.7</v>
-      </c>
-      <c r="J97">
-        <v>35.64</v>
-      </c>
-      <c r="K97">
-        <v>11.72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5">
-        <v>13.07</v>
-      </c>
-      <c r="C98">
-        <v>10</v>
-      </c>
-      <c r="D98">
-        <v>56.83</v>
-      </c>
-      <c r="E98">
-        <v>5.16</v>
-      </c>
-      <c r="F98">
-        <v>9.51</v>
-      </c>
-      <c r="G98">
-        <v>21.72</v>
-      </c>
-      <c r="H98">
-        <v>6.45</v>
-      </c>
-      <c r="I98">
-        <v>20.3</v>
-      </c>
-      <c r="J98">
-        <v>35.64</v>
-      </c>
-      <c r="K98">
-        <v>11.32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" s="5">
-        <v>13.07</v>
-      </c>
-      <c r="C99">
-        <v>10</v>
-      </c>
-      <c r="D99">
-        <v>79.569999999999993</v>
-      </c>
-      <c r="E99">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="F99">
-        <v>9.51</v>
-      </c>
-      <c r="G99">
-        <v>21.62</v>
-      </c>
-      <c r="H99">
-        <v>19.5</v>
-      </c>
-      <c r="I99">
-        <v>20.3</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>11.32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5">
-        <v>13.07</v>
-      </c>
-      <c r="C100">
-        <v>10</v>
-      </c>
-      <c r="D100">
-        <v>79.37</v>
-      </c>
-      <c r="E100">
-        <v>5.01</v>
-      </c>
-      <c r="F100">
-        <v>9.51</v>
-      </c>
-      <c r="G100">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="H100">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I100">
-        <v>22.1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>11.12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="5">
-        <v>13.07</v>
-      </c>
-      <c r="C101">
-        <v>3.76</v>
-      </c>
-      <c r="D101">
-        <v>78.91</v>
-      </c>
-      <c r="E101">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F101">
-        <v>9.51</v>
-      </c>
-      <c r="G101">
-        <v>29.3</v>
-      </c>
-      <c r="H101">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="I101">
-        <v>20.69</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="5">
-        <v>13.07</v>
-      </c>
-      <c r="C102">
-        <v>3.66</v>
-      </c>
-      <c r="D102">
-        <v>80.680000000000007</v>
-      </c>
-      <c r="E102">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F102">
-        <v>9.51</v>
-      </c>
-      <c r="G102">
-        <v>28.63</v>
-      </c>
-      <c r="H102">
-        <v>19.25</v>
-      </c>
-      <c r="I102">
-        <v>20.39</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" s="5">
-        <v>13.07</v>
-      </c>
-      <c r="C103">
-        <v>3.46</v>
-      </c>
-      <c r="D103">
-        <v>80.38</v>
-      </c>
-      <c r="E103">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F103">
-        <v>9.51</v>
-      </c>
-      <c r="G103">
-        <v>28.63</v>
-      </c>
-      <c r="H103">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="I103">
-        <v>21.29</v>
-      </c>
-      <c r="J103">
-        <v>20</v>
-      </c>
-      <c r="K103">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" s="5">
-        <v>12.52</v>
-      </c>
-      <c r="C104">
-        <v>23.41</v>
-      </c>
-      <c r="D104">
-        <v>79.88</v>
-      </c>
-      <c r="E104">
-        <v>4.25</v>
-      </c>
-      <c r="F104">
-        <v>9.51</v>
-      </c>
-      <c r="G104">
-        <v>32.53</v>
-      </c>
-      <c r="H104">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="I104">
-        <v>21.29</v>
-      </c>
-      <c r="J104">
-        <v>17.3</v>
-      </c>
-      <c r="K104">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" s="5">
-        <v>12.52</v>
-      </c>
-      <c r="C105">
-        <v>23.41</v>
-      </c>
-      <c r="D105">
-        <v>79.88</v>
-      </c>
-      <c r="E105">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F105">
-        <v>9.51</v>
-      </c>
-      <c r="G105">
-        <v>32.53</v>
-      </c>
-      <c r="H105">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="I105">
-        <v>21.29</v>
-      </c>
-      <c r="J105">
-        <v>17.45</v>
-      </c>
-      <c r="K105">
-        <v>10.11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" s="5">
-        <v>12.52</v>
-      </c>
-      <c r="C106">
-        <v>23.41</v>
-      </c>
-      <c r="D106">
-        <v>78.78</v>
-      </c>
-      <c r="E106">
-        <v>10.8</v>
-      </c>
-      <c r="F106">
-        <v>9.51</v>
-      </c>
-      <c r="G106">
-        <v>32.43</v>
-      </c>
-      <c r="H106">
-        <v>19.05</v>
-      </c>
-      <c r="I106">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="J106">
-        <v>13.3</v>
-      </c>
-      <c r="K106">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" s="5">
-        <v>17.02</v>
-      </c>
-      <c r="C107">
-        <v>23.41</v>
-      </c>
-      <c r="D107">
-        <v>78.78</v>
-      </c>
-      <c r="E107">
-        <v>10.8</v>
-      </c>
-      <c r="F107">
-        <v>9.51</v>
-      </c>
-      <c r="G107">
-        <v>28.13</v>
-      </c>
-      <c r="H107">
-        <v>18.95</v>
-      </c>
-      <c r="I107">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="J107">
-        <v>13.2</v>
-      </c>
-      <c r="K107">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" s="5">
-        <v>17.02</v>
-      </c>
-      <c r="C108">
-        <v>23.41</v>
-      </c>
-      <c r="D108">
-        <v>78.78</v>
-      </c>
-      <c r="E108">
-        <v>10.8</v>
-      </c>
-      <c r="F108">
-        <v>9.51</v>
-      </c>
-      <c r="G108">
-        <v>27.83</v>
-      </c>
-      <c r="H108">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="I108">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="J108">
-        <v>13.1</v>
-      </c>
-      <c r="K108">
-        <v>10.51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" s="5">
-        <v>17.02</v>
-      </c>
-      <c r="C109">
-        <v>23.41</v>
-      </c>
-      <c r="D109">
-        <v>78.680000000000007</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>9.51</v>
-      </c>
-      <c r="G109">
-        <v>53.23</v>
-      </c>
-      <c r="H109">
-        <v>18.2</v>
-      </c>
-      <c r="I109">
-        <v>19.54</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" s="5">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="C110">
-        <v>23.41</v>
-      </c>
-      <c r="D110">
-        <v>78.48</v>
-      </c>
-      <c r="E110">
-        <v>10</v>
-      </c>
-      <c r="F110">
-        <v>9.51</v>
-      </c>
-      <c r="G110">
-        <v>53.83</v>
-      </c>
-      <c r="H110">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I110">
-        <v>19.54</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>10.210000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" s="5">
-        <v>16.72</v>
-      </c>
-      <c r="C111">
-        <v>28.81</v>
-      </c>
-      <c r="D111">
-        <v>77.28</v>
-      </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
-      <c r="F111">
-        <v>9.51</v>
-      </c>
-      <c r="G111">
-        <v>53.63</v>
-      </c>
-      <c r="H111">
-        <v>15.7</v>
-      </c>
-      <c r="I111">
-        <v>18.34</v>
-      </c>
-      <c r="J111">
-        <v>40</v>
-      </c>
-      <c r="K111">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" s="5">
-        <v>16.72</v>
-      </c>
-      <c r="C112">
-        <v>28.81</v>
-      </c>
-      <c r="D112">
-        <v>75.680000000000007</v>
-      </c>
-      <c r="E112">
-        <v>9</v>
-      </c>
-      <c r="F112">
-        <v>9.51</v>
-      </c>
-      <c r="G112">
-        <v>53.63</v>
-      </c>
-      <c r="H112">
-        <v>15.7</v>
-      </c>
-      <c r="I112">
-        <v>18.29</v>
-      </c>
-      <c r="J112">
-        <v>40</v>
-      </c>
-      <c r="K112">
-        <v>12.76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" s="5">
-        <v>16.12</v>
-      </c>
-      <c r="C113">
-        <v>28.81</v>
-      </c>
-      <c r="D113">
-        <v>75.58</v>
-      </c>
-      <c r="E113">
-        <v>8.9</v>
-      </c>
-      <c r="F113">
-        <v>9.51</v>
-      </c>
-      <c r="G113">
-        <v>53.53</v>
-      </c>
-      <c r="H113">
-        <v>15.6</v>
-      </c>
-      <c r="I113">
-        <v>18.29</v>
-      </c>
-      <c r="J113">
-        <v>41.1</v>
-      </c>
-      <c r="K113">
-        <v>12.66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" s="5">
-        <v>16.12</v>
-      </c>
-      <c r="C114">
-        <v>28.71</v>
-      </c>
-      <c r="D114">
-        <v>75.48</v>
-      </c>
-      <c r="E114">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F114">
-        <v>9.51</v>
-      </c>
-      <c r="G114">
-        <v>53.03</v>
-      </c>
-      <c r="H114">
-        <v>15.6</v>
-      </c>
-      <c r="I114">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="J114">
-        <v>42</v>
-      </c>
-      <c r="K114">
-        <v>12.56</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" s="5">
-        <v>12.12</v>
-      </c>
-      <c r="C115">
-        <v>28.66</v>
-      </c>
-      <c r="D115">
-        <v>110.48</v>
-      </c>
-      <c r="E115">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F115">
-        <v>9.51</v>
-      </c>
-      <c r="G115">
-        <v>52.93</v>
-      </c>
-      <c r="H115">
-        <v>15.5</v>
-      </c>
-      <c r="I115">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="J115">
-        <v>12</v>
-      </c>
-      <c r="K115">
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" s="5">
-        <v>11.72</v>
-      </c>
-      <c r="C116">
-        <v>28.66</v>
-      </c>
-      <c r="D116">
-        <v>110.48</v>
-      </c>
-      <c r="E116">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F116">
-        <v>9.51</v>
-      </c>
-      <c r="G116">
-        <v>52.88</v>
-      </c>
-      <c r="H116">
-        <v>15.4</v>
-      </c>
-      <c r="I116">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="J116">
-        <v>12.65</v>
-      </c>
-      <c r="K116">
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" s="5">
-        <v>11.72</v>
-      </c>
-      <c r="C117">
-        <v>28.46</v>
-      </c>
-      <c r="D117">
-        <v>110.48</v>
-      </c>
-      <c r="E117">
-        <v>8.6</v>
-      </c>
-      <c r="F117">
-        <v>9.51</v>
-      </c>
-      <c r="G117">
-        <v>52.78</v>
-      </c>
-      <c r="H117">
-        <v>15.2</v>
-      </c>
-      <c r="I117">
-        <v>17.29</v>
-      </c>
-      <c r="J117">
-        <v>12.55</v>
-      </c>
-      <c r="K117">
-        <v>13.41</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" s="5">
-        <v>11.22</v>
-      </c>
-      <c r="C118">
-        <v>25.31</v>
-      </c>
-      <c r="D118">
-        <v>110.38</v>
-      </c>
-      <c r="E118">
-        <v>8.6</v>
-      </c>
-      <c r="F118">
-        <v>9.51</v>
-      </c>
-      <c r="G118">
-        <v>69.63</v>
-      </c>
-      <c r="H118">
-        <v>15.15</v>
-      </c>
-      <c r="I118">
-        <v>17.29</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>12.91</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" s="5">
-        <v>11.12</v>
-      </c>
-      <c r="C119">
-        <v>25.11</v>
-      </c>
-      <c r="D119">
-        <v>113.58</v>
-      </c>
-      <c r="E119">
-        <v>8.6</v>
-      </c>
-      <c r="F119">
-        <v>9.51</v>
-      </c>
-      <c r="G119">
-        <v>68.38</v>
-      </c>
-      <c r="H119">
-        <v>15.05</v>
-      </c>
-      <c r="I119">
-        <v>17.09</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>11.66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" s="5">
-        <v>9.77</v>
-      </c>
-      <c r="C120">
-        <v>25.11</v>
-      </c>
-      <c r="D120">
-        <v>112.98</v>
-      </c>
-      <c r="E120">
-        <v>8.5</v>
-      </c>
-      <c r="F120">
-        <v>9.51</v>
-      </c>
-      <c r="G120">
-        <v>68.38</v>
-      </c>
-      <c r="H120">
-        <v>18.45</v>
-      </c>
-      <c r="I120">
-        <v>15.74</v>
-      </c>
-      <c r="J120">
-        <v>20</v>
-      </c>
-      <c r="K120">
-        <v>11.56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" s="5">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="C121">
-        <v>26.96</v>
-      </c>
-      <c r="D121">
-        <v>112.98</v>
-      </c>
-      <c r="E121">
-        <v>8.5</v>
-      </c>
-      <c r="F121">
-        <v>9.51</v>
-      </c>
-      <c r="G121">
-        <v>67.23</v>
-      </c>
-      <c r="H121">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="I121">
-        <v>15.64</v>
-      </c>
-      <c r="J121">
-        <v>20</v>
-      </c>
-      <c r="K121">
-        <v>11.46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" s="5">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="C122">
-        <v>26.91</v>
-      </c>
-      <c r="D122">
-        <v>92.98</v>
-      </c>
-      <c r="E122">
-        <v>8.5</v>
-      </c>
-      <c r="F122">
-        <v>9.51</v>
-      </c>
-      <c r="G122">
-        <v>65.739999999999995</v>
-      </c>
-      <c r="H122">
-        <v>16.86</v>
-      </c>
-      <c r="I122">
-        <v>15.4</v>
-      </c>
-      <c r="J122">
-        <v>43.51</v>
-      </c>
-      <c r="K122">
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" s="5">
-        <v>9.27</v>
-      </c>
-      <c r="C123">
-        <v>26.91</v>
-      </c>
-      <c r="D123">
-        <v>92.88</v>
-      </c>
-      <c r="E123">
-        <v>8.4</v>
-      </c>
-      <c r="F123">
-        <v>9.51</v>
-      </c>
-      <c r="G123">
-        <v>80.36</v>
-      </c>
-      <c r="H123">
-        <v>7.75</v>
-      </c>
-      <c r="I123">
-        <v>15.4</v>
-      </c>
-      <c r="J123">
-        <v>43.41</v>
-      </c>
-      <c r="K123">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" s="5">
-        <v>9.27</v>
-      </c>
-      <c r="C124">
-        <v>23.89</v>
-      </c>
-      <c r="D124">
-        <v>92.23</v>
-      </c>
-      <c r="E124">
-        <v>8.4</v>
-      </c>
-      <c r="F124">
-        <v>9.51</v>
-      </c>
-      <c r="G124">
-        <v>79.709999999999994</v>
-      </c>
-      <c r="H124">
-        <v>7.1</v>
-      </c>
-      <c r="I124">
-        <v>29.87</v>
-      </c>
-      <c r="J124">
-        <v>34.56</v>
-      </c>
-      <c r="K124">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" s="5">
-        <v>9.27</v>
-      </c>
-      <c r="C125">
-        <v>23.89</v>
-      </c>
-      <c r="D125">
-        <v>90.03</v>
-      </c>
-      <c r="E125">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F125">
-        <v>9.51</v>
-      </c>
-      <c r="G125">
-        <v>77.709999999999994</v>
-      </c>
-      <c r="H125">
-        <v>7</v>
-      </c>
-      <c r="I125">
-        <v>36.369999999999997</v>
-      </c>
-      <c r="J125">
-        <v>32.46</v>
-      </c>
-      <c r="K125">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" s="5">
-        <v>5.81</v>
-      </c>
-      <c r="C126">
-        <v>23.89</v>
-      </c>
-      <c r="D126">
-        <v>90.03</v>
-      </c>
-      <c r="E126">
-        <v>8.25</v>
-      </c>
-      <c r="F126">
-        <v>9.51</v>
-      </c>
-      <c r="G126">
-        <v>74.349999999999994</v>
-      </c>
-      <c r="H126">
-        <v>10.93</v>
-      </c>
-      <c r="I126">
-        <v>35.369999999999997</v>
-      </c>
-      <c r="J126">
-        <v>36.4</v>
-      </c>
-      <c r="K126">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" s="5">
-        <v>15.81</v>
-      </c>
-      <c r="C127">
-        <v>23.89</v>
-      </c>
-      <c r="D127">
-        <v>89.58</v>
-      </c>
-      <c r="E127">
-        <v>8.25</v>
-      </c>
-      <c r="F127">
-        <v>9.51</v>
-      </c>
-      <c r="G127">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="H127">
-        <v>5.88</v>
-      </c>
-      <c r="I127">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="J127">
-        <v>44.27</v>
-      </c>
-      <c r="K127">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" s="5">
-        <v>14.77</v>
-      </c>
-      <c r="C128">
-        <v>23.89</v>
-      </c>
-      <c r="D128">
-        <v>89.53</v>
-      </c>
-      <c r="E128">
-        <v>7.21</v>
-      </c>
-      <c r="F128">
-        <v>9.51</v>
-      </c>
-      <c r="G128">
-        <v>72.86</v>
-      </c>
-      <c r="H128">
-        <v>4.84</v>
-      </c>
-      <c r="I128">
-        <v>25.53</v>
-      </c>
-      <c r="J128">
-        <v>58.49</v>
-      </c>
-      <c r="K128">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" s="5">
-        <v>19.29</v>
-      </c>
-      <c r="C129">
-        <v>23.89</v>
-      </c>
-      <c r="D129">
-        <v>89.53</v>
-      </c>
-      <c r="E129">
-        <v>7.21</v>
-      </c>
-      <c r="F129">
-        <v>9.51</v>
-      </c>
-      <c r="G129">
-        <v>71.61</v>
-      </c>
-      <c r="H129">
-        <v>4.84</v>
-      </c>
-      <c r="I129">
-        <v>25.43</v>
-      </c>
-      <c r="J129">
-        <v>55.32</v>
-      </c>
-      <c r="K129">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" s="5">
-        <v>14.92</v>
-      </c>
-      <c r="C130">
-        <v>23.79</v>
-      </c>
-      <c r="D130">
-        <v>85.16</v>
-      </c>
-      <c r="E130">
-        <v>7.21</v>
-      </c>
-      <c r="F130">
-        <v>9.51</v>
-      </c>
-      <c r="G130">
-        <v>71.260000000000005</v>
-      </c>
-      <c r="H130">
-        <v>4.49</v>
-      </c>
-      <c r="I130">
-        <v>24.43</v>
-      </c>
-      <c r="J130">
-        <v>69.23</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" s="5">
-        <v>14.92</v>
-      </c>
-      <c r="C131">
-        <v>28.41</v>
-      </c>
-      <c r="D131">
-        <v>85.06</v>
-      </c>
-      <c r="E131">
-        <v>7.11</v>
-      </c>
-      <c r="F131">
-        <v>9.51</v>
-      </c>
-      <c r="G131">
-        <v>71.16</v>
-      </c>
-      <c r="H131">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="I131">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="J131">
-        <v>69.13</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" s="5">
-        <v>14.92</v>
-      </c>
-      <c r="C132">
-        <v>28.41</v>
-      </c>
-      <c r="D132">
-        <v>84.86</v>
-      </c>
-      <c r="E132">
-        <v>6.91</v>
-      </c>
-      <c r="F132">
-        <v>9.51</v>
-      </c>
-      <c r="G132">
-        <v>71.959999999999994</v>
-      </c>
-      <c r="H132">
-        <v>4.29</v>
-      </c>
-      <c r="I132">
-        <v>20.11</v>
-      </c>
-      <c r="J132">
-        <v>69.03</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" s="5">
-        <v>14.92</v>
-      </c>
-      <c r="C133">
-        <v>28.41</v>
-      </c>
-      <c r="D133">
-        <v>84.76</v>
-      </c>
-      <c r="E133">
-        <v>6.81</v>
-      </c>
-      <c r="F133">
-        <v>9.51</v>
-      </c>
-      <c r="G133">
-        <v>71.91</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>24.65</v>
-      </c>
-      <c r="J133">
-        <v>69.03</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" s="5">
-        <v>17.39</v>
-      </c>
-      <c r="C134">
-        <v>26.69</v>
-      </c>
-      <c r="D134">
-        <v>84.06</v>
-      </c>
-      <c r="E134">
-        <v>6.76</v>
-      </c>
-      <c r="F134">
-        <v>9.51</v>
-      </c>
-      <c r="G134">
-        <v>71.91</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>24.65</v>
-      </c>
-      <c r="J134">
-        <v>69.03</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" s="5">
-        <v>15.24</v>
-      </c>
-      <c r="C135">
-        <v>24.54</v>
-      </c>
-      <c r="D135">
-        <v>59.41</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>9.51</v>
-      </c>
-      <c r="G135">
-        <v>69.760000000000005</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>64.56</v>
-      </c>
-      <c r="J135">
-        <v>66.98</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" s="5">
-        <v>12.34</v>
-      </c>
-      <c r="C136">
-        <v>24.54</v>
-      </c>
-      <c r="D136">
-        <v>59.41</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>9.51</v>
-      </c>
-      <c r="G136">
-        <v>69.06</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>68.16</v>
-      </c>
-      <c r="J136">
-        <v>66.98</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" s="5">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>24.44</v>
-      </c>
-      <c r="D137">
-        <v>47.07</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>9.51</v>
-      </c>
-      <c r="G137">
-        <v>155.63999999999999</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>6.36</v>
-      </c>
-      <c r="J137">
-        <v>66.98</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" s="5">
-        <v>20</v>
-      </c>
-      <c r="C138">
-        <v>24.24</v>
-      </c>
-      <c r="D138">
-        <v>47.07</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>9.51</v>
-      </c>
-      <c r="G138">
-        <v>155.63999999999999</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>7.06</v>
-      </c>
-      <c r="J138">
-        <v>66.48</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" s="5">
-        <v>27.5</v>
-      </c>
-      <c r="C139">
-        <v>24.24</v>
-      </c>
-      <c r="D139">
-        <v>46.07</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>9.51</v>
-      </c>
-      <c r="G139">
-        <v>152.38999999999999</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>7.06</v>
-      </c>
-      <c r="J139">
-        <v>63.23</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" s="5">
-        <v>38.71</v>
-      </c>
-      <c r="C140">
-        <v>24.24</v>
-      </c>
-      <c r="D140">
-        <v>45.97</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>9.51</v>
-      </c>
-      <c r="G140">
-        <v>149.34</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>62.23</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" s="5">
-        <v>38.21</v>
-      </c>
-      <c r="C141">
-        <v>23.74</v>
-      </c>
-      <c r="D141">
-        <v>45.37</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>9.51</v>
-      </c>
-      <c r="G141">
-        <v>148.84</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>64.33</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" s="5">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="C142">
-        <v>23.64</v>
-      </c>
-      <c r="D142">
-        <v>44.27</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>9.51</v>
-      </c>
-      <c r="G142">
-        <v>147.84</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>64.33</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" s="5">
-        <v>46.93</v>
-      </c>
-      <c r="C143">
-        <v>23.59</v>
-      </c>
-      <c r="D143">
-        <v>44.27</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>9.51</v>
-      </c>
-      <c r="G143">
-        <v>141.47</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>64.23</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" s="5">
-        <v>46.93</v>
-      </c>
-      <c r="C144">
-        <v>23.59</v>
-      </c>
-      <c r="D144">
-        <v>44.27</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>9.51</v>
-      </c>
-      <c r="G144">
-        <v>142.47</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>63.23</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" s="5">
-        <v>46.66</v>
-      </c>
-      <c r="C145">
-        <v>23.22</v>
-      </c>
-      <c r="D145">
-        <v>44.27</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>9.51</v>
-      </c>
-      <c r="G145">
-        <v>142.1</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>64.239999999999995</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" s="5">
-        <v>46.56</v>
-      </c>
-      <c r="C146">
-        <v>22.4</v>
-      </c>
-      <c r="D146">
-        <v>43.45</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>9.51</v>
-      </c>
-      <c r="G146">
-        <v>143.94</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>64.14</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" s="5">
-        <v>46.56</v>
-      </c>
-      <c r="C147">
-        <v>22.3</v>
-      </c>
-      <c r="D147">
-        <v>87</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>9.51</v>
-      </c>
-      <c r="G147">
-        <v>143.94</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>20.69</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" s="5">
-        <v>46.46</v>
-      </c>
-      <c r="C148">
-        <v>22.3</v>
-      </c>
-      <c r="D148">
-        <v>66.010000000000005</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>9.51</v>
-      </c>
-      <c r="G148">
-        <v>185.77</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CBBA8-CDEA-40D2-8959-139D242E6863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E540A-3385-426F-A86D-7101A47EE816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -130,7 +130,22 @@
     <t>Hands played</t>
   </si>
   <si>
-    <t>Xavier</t>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Kynan</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Regan</t>
   </si>
 </sst>
 </file>
@@ -361,7 +376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83C5-4956-A2F6-D546348071B0}"/>
+              <c16:uniqueId val="{00000000-6558-4BBA-AB6E-C9C0695DDD78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -460,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83C5-4956-A2F6-D546348071B0}"/>
+              <c16:uniqueId val="{00000001-6558-4BBA-AB6E-C9C0695DDD78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -789,7 +804,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C2C-4964-8B6B-7604AED95F1B}"/>
+              <c16:uniqueId val="{00000000-44F9-42AA-9971-EA334829DDAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1038,7 +1053,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD7C-48FC-A3C5-E273B7E4A928}"/>
+              <c16:uniqueId val="{00000000-3884-45CB-BCBA-A8ED4013D277}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1098,7 +1113,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD7C-48FC-A3C5-E273B7E4A928}"/>
+              <c16:uniqueId val="{00000001-3884-45CB-BCBA-A8ED4013D277}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1158,7 +1173,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD7C-48FC-A3C5-E273B7E4A928}"/>
+              <c16:uniqueId val="{00000002-3884-45CB-BCBA-A8ED4013D277}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,7 +1497,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2784-44F2-8194-22846F4DE783}"/>
+              <c16:uniqueId val="{00000000-28E6-46AC-A03F-DCB79F847776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1772,7 +1787,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BBF-4ED5-AB9D-41314494DEFB}"/>
+              <c16:uniqueId val="{00000000-45D4-45DF-AA48-18D1307F76B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1867,7 +1882,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1BBF-4ED5-AB9D-41314494DEFB}"/>
+              <c16:uniqueId val="{00000001-45D4-45DF-AA48-18D1307F76B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2182,7 +2197,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE71-4748-9C80-CD9977D5EDD8}"/>
+              <c16:uniqueId val="{00000000-45F3-4775-BB6C-D4F38322AE3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2287,7 +2302,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE71-4748-9C80-CD9977D5EDD8}"/>
+              <c16:uniqueId val="{00000001-45F3-4775-BB6C-D4F38322AE3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2581,7 +2596,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6DA-46E1-9A0A-CA46AEE373A7}"/>
+              <c16:uniqueId val="{00000000-D209-42F3-BF19-C66D279E6E0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2777,9 +2792,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>VPIP</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2792,57 +2804,90 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$F$2:$F$5</c:f>
+              <c:f>'All Stats-this session'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.71099999999999997</c:v>
+                  <c:v>0.61699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>0.36199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65700000000000003</c:v>
+                  <c:v>0.64800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84699999999999998</c:v>
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-104E-4A4F-B38E-0AD46BB260B9}"/>
+              <c16:uniqueId val="{00000000-6066-414F-AA77-4867F2E3DA22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>PFR</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -2855,57 +2900,90 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$G$2:$G$5</c:f>
+              <c:f>'All Stats-this session'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.40600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49199999999999999</c:v>
+                <c:pt idx="7">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-104E-4A4F-B38E-0AD46BB260B9}"/>
+              <c16:uniqueId val="{00000001-6066-414F-AA77-4867F2E3DA22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>3 Bet</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -2918,40 +2996,76 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$H$2:$H$5</c:f>
+              <c:f>'All Stats-this session'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.9100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5499999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2959,7 +3073,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-104E-4A4F-B38E-0AD46BB260B9}"/>
+              <c16:uniqueId val="{00000002-6066-414F-AA77-4867F2E3DA22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3242,48 +3356,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$I$2:$I$5</c:f>
+              <c:f>'All Stats-this session'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.44</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.67</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.42</c:v>
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7172-48E3-B01B-038B17B7049A}"/>
+              <c16:uniqueId val="{00000000-87E7-4D0C-A031-FF0EA4F59B1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3532,48 +3682,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$K$2:$K$5</c:f>
+              <c:f>'All Stats-this session'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45800000000000002</c:v>
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-833C-42BE-A28E-C75D490346F6}"/>
+              <c16:uniqueId val="{00000000-7840-40EF-91AC-4AAF0255240B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3627,48 +3813,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$L$2:$L$5</c:f>
+              <c:f>'All Stats-this session'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.124</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.107</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-833C-42BE-A28E-C75D490346F6}"/>
+              <c16:uniqueId val="{00000001-7840-40EF-91AC-4AAF0255240B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3942,48 +4164,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$M$2:$M$5</c:f>
+              <c:f>'All Stats-this session'!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>161.46</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.28</c:v>
+                  <c:v>48.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.59</c:v>
+                  <c:v>322.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.38</c:v>
+                  <c:v>48.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>393.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-564E-4762-B1D8-E383B0DAFF02}"/>
+              <c16:uniqueId val="{00000000-FAFF-4B79-94E0-3DCE5F8B1BED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4047,48 +4305,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$N$2:$N$5</c:f>
+              <c:f>'All Stats-this session'!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>79.63</c:v>
+                  <c:v>37.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.6</c:v>
+                  <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.96</c:v>
+                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.1</c:v>
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-564E-4762-B1D8-E383B0DAFF02}"/>
+              <c16:uniqueId val="{00000001-FAFF-4B79-94E0-3DCE5F8B1BED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4381,7 +4675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53BE-4498-80C9-329EEC6DB226}"/>
+              <c16:uniqueId val="{00000000-B083-40C0-88EF-DCAEDA258E2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4480,7 +4774,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53BE-4498-80C9-329EEC6DB226}"/>
+              <c16:uniqueId val="{00000001-B083-40C0-88EF-DCAEDA258E2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4731,48 +5025,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$5</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fish</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scott</c:v>
+                  <c:v>Bill</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Xavier</c:v>
+                  <c:v>Kynan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Marshall</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$O$2:$O$5</c:f>
+              <c:f>'All Stats-this session'!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>218</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BDD-427B-A4D4-6170378ED4CD}"/>
+              <c16:uniqueId val="{00000000-79A1-4383-B935-953DD5786AC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5064,7 +5394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2EDC-45ED-B942-5FD39EACC258}"/>
+              <c16:uniqueId val="{00000000-E266-4F8B-B265-E5CE1260F7ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5163,7 +5493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2EDC-45ED-B942-5FD39EACC258}"/>
+              <c16:uniqueId val="{00000001-E266-4F8B-B265-E5CE1260F7ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5454,7 +5784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A7F-46C4-915A-83FAD9C8780A}"/>
+              <c16:uniqueId val="{00000000-D98C-40C3-8E5C-2A6FD570090D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5553,7 +5883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8A7F-46C4-915A-83FAD9C8780A}"/>
+              <c16:uniqueId val="{00000001-D98C-40C3-8E5C-2A6FD570090D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5844,7 +6174,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8CF-4D26-9556-7809AE098A1E}"/>
+              <c16:uniqueId val="{00000000-6894-494D-A4F8-395C428546D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5943,7 +6273,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C8CF-4D26-9556-7809AE098A1E}"/>
+              <c16:uniqueId val="{00000001-6894-494D-A4F8-395C428546D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6202,7 +6532,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0467-4D5F-88B8-8B67A171A47D}"/>
+              <c16:uniqueId val="{00000000-BE00-4BE3-952C-9565AB50B297}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6268,7 +6598,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0467-4D5F-88B8-8B67A171A47D}"/>
+              <c16:uniqueId val="{00000001-BE00-4BE3-952C-9565AB50B297}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6334,7 +6664,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0467-4D5F-88B8-8B67A171A47D}"/>
+              <c16:uniqueId val="{00000002-BE00-4BE3-952C-9565AB50B297}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6633,7 +6963,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06AF-4F41-B8EE-A4778E252BEA}"/>
+              <c16:uniqueId val="{00000000-2FD7-495D-BE1C-FDFA572AA70F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6929,7 +7259,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDD4-47CA-9600-3026AB92AE90}"/>
+              <c16:uniqueId val="{00000000-6A68-41D8-AD12-9CBEC3FD2539}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7030,7 +7360,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CDD4-47CA-9600-3026AB92AE90}"/>
+              <c16:uniqueId val="{00000001-6A68-41D8-AD12-9CBEC3FD2539}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7351,7 +7681,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33FC-4A93-A87E-9E45CFD137CD}"/>
+              <c16:uniqueId val="{00000000-B7E5-48EA-B90A-90527ECE4360}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7462,7 +7792,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-33FC-4A93-A87E-9E45CFD137CD}"/>
+              <c16:uniqueId val="{00000001-B7E5-48EA-B90A-90527ECE4360}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9267,7 +9597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
@@ -9868,10 +10198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9944,49 +10274,49 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>46.46</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.46</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>26.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
-        <v>0.71099999999999997</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="G2">
-        <v>1.7999999999999999E-2</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I2">
-        <v>0.44</v>
+        <v>1.7</v>
       </c>
       <c r="J2">
-        <v>0.22800000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="K2">
-        <v>0.30299999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="L2">
-        <v>0.16500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="M2">
-        <v>161.46</v>
+        <v>147</v>
       </c>
       <c r="N2">
-        <v>79.63</v>
+        <v>37.68</v>
       </c>
       <c r="O2">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
@@ -9996,145 +10326,427 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>12.39</v>
+        <v>22.25</v>
       </c>
       <c r="D3" s="2">
-        <v>-7.61</v>
+        <v>-7.75</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.58599999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.89</v>
+        <v>0.39</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K3">
-        <v>0.27600000000000002</v>
+        <v>0.106</v>
       </c>
       <c r="L3">
-        <v>0.124</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M3">
-        <v>159.28</v>
+        <v>48.54</v>
       </c>
       <c r="N3">
-        <v>54.6</v>
+        <v>8.15</v>
       </c>
       <c r="O3">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>55.27</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="D4" s="2">
-        <v>35.270000000000003</v>
+        <v>36.01</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="G4">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="H4">
-        <v>3.5499999999999997E-2</v>
-      </c>
       <c r="I4">
-        <v>3.67</v>
+        <v>0.52</v>
       </c>
       <c r="J4">
-        <v>0.54300000000000004</v>
+        <v>0.219</v>
       </c>
       <c r="K4">
-        <v>0.16</v>
+        <v>0.214</v>
       </c>
       <c r="L4">
-        <v>0.107</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="M4">
-        <v>190.59</v>
+        <v>322.52999999999997</v>
       </c>
       <c r="N4">
-        <v>96.96</v>
+        <v>13.92</v>
       </c>
       <c r="O4">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.84699999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="G5">
-        <v>0.49199999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.42</v>
+        <v>0.26</v>
       </c>
       <c r="J5">
-        <v>0.47699999999999998</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K5">
-        <v>0.45800000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="L5">
-        <v>0.13600000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="M5">
-        <v>74.38</v>
+        <v>48.56</v>
       </c>
       <c r="N5">
-        <v>27.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O5">
-        <v>59</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="D6">
+        <v>-0.49</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.24</v>
+      </c>
+      <c r="J6">
+        <v>0.11</v>
+      </c>
+      <c r="K6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6">
+        <v>10.52</v>
+      </c>
+      <c r="N6">
+        <v>6.95</v>
+      </c>
+      <c r="O6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>185.77</v>
+      </c>
+      <c r="D7">
+        <v>155.77000000000001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="G7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.07E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.18</v>
+      </c>
+      <c r="J7">
+        <v>0.107</v>
+      </c>
+      <c r="K7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M7">
+        <v>393.14</v>
+      </c>
+      <c r="N7">
+        <v>13.71</v>
+      </c>
+      <c r="O7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.22</v>
+      </c>
+      <c r="J8">
+        <v>0.108</v>
+      </c>
+      <c r="K8">
+        <v>0.152</v>
+      </c>
+      <c r="L8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M8">
+        <v>48.5</v>
+      </c>
+      <c r="N8">
+        <v>18.2</v>
+      </c>
+      <c r="O8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.23</v>
+      </c>
+      <c r="J9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.26</v>
+      </c>
+      <c r="L9">
+        <v>0.125</v>
+      </c>
+      <c r="M9">
+        <v>147.59</v>
+      </c>
+      <c r="N9">
+        <v>38.07</v>
+      </c>
+      <c r="O9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-120</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H10">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.38</v>
+      </c>
+      <c r="J10">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M10">
+        <v>121.03</v>
+      </c>
+      <c r="N10">
+        <v>49.87</v>
+      </c>
+      <c r="O10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0.12</v>
+      </c>
+      <c r="K11">
+        <v>0.2</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>10.94</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E540A-3385-426F-A86D-7101A47EE816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A94F6D-6B63-485D-9E32-7EB0CB7362D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
     <t>5 20</t>
   </si>
   <si>
+    <t>5 24</t>
+  </si>
+  <si>
     <t>Player</t>
   </si>
   <si>
@@ -130,22 +133,10 @@
     <t>Hands played</t>
   </si>
   <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Kynan</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
+    <t>Regan</t>
   </si>
   <si>
     <t>Jacob</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Regan</t>
   </si>
 </sst>
 </file>
@@ -298,9 +289,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -330,16 +321,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$D$2:$D$11</c:f>
+              <c:f>Bankrolls!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -369,6 +363,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>131.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,7 +373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6558-4BBA-AB6E-C9C0695DDD78}"/>
+              <c16:uniqueId val="{00000000-20CC-4271-BA25-48DDA03BB2CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -397,9 +394,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -429,16 +426,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$E$2:$E$11</c:f>
+              <c:f>Bankrolls!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>15.44</c:v>
                 </c:pt>
@@ -467,6 +467,9 @@
                   <c:v>61.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>61.330000000000013</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>61.330000000000013</c:v>
                 </c:pt>
               </c:numCache>
@@ -475,7 +478,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6558-4BBA-AB6E-C9C0695DDD78}"/>
+              <c16:uniqueId val="{00000001-20CC-4271-BA25-48DDA03BB2CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -761,19 +764,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -785,26 +788,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44F9-42AA-9971-EA334829DDAB}"/>
+              <c16:uniqueId val="{00000000-5C9B-4A7C-9A7B-4EBF361D1461}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,48 +1015,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$F$2:$F$6</c:f>
+              <c:f>'PLO Stats-this session'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.58199999999999996</c:v>
+                  <c:v>0.53200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63300000000000001</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55400000000000005</c:v>
+                  <c:v>0.47099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65</c:v>
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3884-45CB-BCBA-A8ED4013D277}"/>
+              <c16:uniqueId val="{00000000-9114-459B-ABD6-653CFACC8F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1072,48 +1093,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$G$2:$G$6</c:f>
+              <c:f>'PLO Stats-this session'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3884-45CB-BCBA-A8ED4013D277}"/>
+              <c16:uniqueId val="{00000001-9114-459B-ABD6-653CFACC8F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1132,32 +1171,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$H$2:$H$6</c:f>
+              <c:f>'PLO Stats-this session'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1166,6 +1214,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1173,7 +1230,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3884-45CB-BCBA-A8ED4013D277}"/>
+              <c16:uniqueId val="{00000002-9114-459B-ABD6-653CFACC8F4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1456,48 +1513,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$I$2:$I$6</c:f>
+              <c:f>'PLO Stats-this session'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.73</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69</c:v>
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28E6-46AC-A03F-DCB79F847776}"/>
+              <c16:uniqueId val="{00000000-DFC8-4EC2-9C51-7C94E215F782}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1746,48 +1821,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$K$2:$K$6</c:f>
+              <c:f>'PLO Stats-this session'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.49099999999999999</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35</c:v>
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45D4-45DF-AA48-18D1307F76B5}"/>
+              <c16:uniqueId val="{00000000-33AE-4EFF-81A9-2BC3654840D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1841,48 +1934,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$L$2:$L$6</c:f>
+              <c:f>'PLO Stats-this session'!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45D4-45DF-AA48-18D1307F76B5}"/>
+              <c16:uniqueId val="{00000001-33AE-4EFF-81A9-2BC3654840D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2156,48 +2267,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$M$2:$M$6</c:f>
+              <c:f>'PLO Stats-this session'!$M$2:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>69.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.18</c:v>
+                  <c:v>41.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45F3-4775-BB6C-D4F38322AE3D}"/>
+              <c16:uniqueId val="{00000000-A2E8-4826-8AC5-9FAA038B6F32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2261,48 +2390,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$N$2:$N$6</c:f>
+              <c:f>'PLO Stats-this session'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.9</c:v>
+                  <c:v>15.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.82</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3</c:v>
+                  <c:v>16.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45F3-4775-BB6C-D4F38322AE3D}"/>
+              <c16:uniqueId val="{00000001-A2E8-4826-8AC5-9FAA038B6F32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2555,48 +2702,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PLO Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'PLO Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scott</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PLO Stats-this session'!$O$2:$O$6</c:f>
+              <c:f>'PLO Stats-this session'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D209-42F3-BF19-C66D279E6E0B}"/>
+              <c16:uniqueId val="{00000000-41D7-4B79-B202-2BBF27791B04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2804,84 +2969,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$F$2:$F$11</c:f>
+              <c:f>'All Stats-this session'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.61699999999999999</c:v>
+                  <c:v>0.34399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36199999999999999</c:v>
+                  <c:v>0.437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64800000000000002</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63600000000000001</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48799999999999999</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71699999999999997</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6066-414F-AA77-4867F2E3DA22}"/>
+              <c16:uniqueId val="{00000000-BF80-43B7-8E62-EC95F848F785}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2900,84 +3047,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$G$2:$G$11</c:f>
+              <c:f>'All Stats-this session'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.29799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6066-414F-AA77-4867F2E3DA22}"/>
+              <c16:uniqueId val="{00000001-BF80-43B7-8E62-EC95F848F785}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2996,50 +3125,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$H$2:$H$11</c:f>
+              <c:f>'All Stats-this session'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.9100000000000003E-2</c:v>
+                  <c:v>1.95E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3048,24 +3168,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.63E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.07E-2</c:v>
+                  <c:v>1.06E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3073,7 +3184,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6066-414F-AA77-4867F2E3DA22}"/>
+              <c16:uniqueId val="{00000002-BF80-43B7-8E62-EC95F848F785}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3356,84 +3467,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$I$2:$I$11</c:f>
+              <c:f>'All Stats-this session'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-87E7-4D0C-A031-FF0EA4F59B1F}"/>
+              <c16:uniqueId val="{00000000-FCB6-4BEC-A343-94D434348D37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3682,84 +3775,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$K$2:$K$11</c:f>
+              <c:f>'All Stats-this session'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.22700000000000001</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.106</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26900000000000002</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7840-40EF-91AC-4AAF0255240B}"/>
+              <c16:uniqueId val="{00000000-C1DE-4301-897D-BC0F68F6E82A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3813,84 +3888,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$L$2:$L$11</c:f>
+              <c:f>'All Stats-this session'!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.11899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7840-40EF-91AC-4AAF0255240B}"/>
+              <c16:uniqueId val="{00000001-C1DE-4301-897D-BC0F68F6E82A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4164,84 +4221,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$M$2:$M$11</c:f>
+              <c:f>'All Stats-this session'!$M$2:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>147</c:v>
+                  <c:v>61.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.54</c:v>
+                  <c:v>168.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>322.52999999999997</c:v>
+                  <c:v>95.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.56</c:v>
+                  <c:v>29.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.52</c:v>
+                  <c:v>172.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>393.14</c:v>
+                  <c:v>22.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147.59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>121.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.94</c:v>
+                  <c:v>41.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAFF-4B79-94E0-3DCE5F8B1BED}"/>
+              <c16:uniqueId val="{00000000-67B0-4F70-8592-CC46F33D8BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4305,84 +4344,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$N$2:$N$11</c:f>
+              <c:f>'All Stats-this session'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>37.68</c:v>
+                  <c:v>22.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.15</c:v>
+                  <c:v>35.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.92</c:v>
+                  <c:v>23.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.95</c:v>
+                  <c:v>84.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.71</c:v>
+                  <c:v>11.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>16.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAFF-4B79-94E0-3DCE5F8B1BED}"/>
+              <c16:uniqueId val="{00000001-67B0-4F70-8592-CC46F33D8BCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4597,9 +4618,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -4629,16 +4650,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$I$2:$I$11</c:f>
+              <c:f>Bankrolls!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4668,6 +4692,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4675,7 +4702,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B083-40C0-88EF-DCAEDA258E2A}"/>
+              <c16:uniqueId val="{00000000-454B-48AA-B5C4-DEA1177E6B11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4696,9 +4723,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -4728,16 +4755,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$J$2:$J$11</c:f>
+              <c:f>Bankrolls!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4766,6 +4796,9 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -4774,7 +4807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B083-40C0-88EF-DCAEDA258E2A}"/>
+              <c16:uniqueId val="{00000001-454B-48AA-B5C4-DEA1177E6B11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5025,84 +5058,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'All Stats-this session'!$A$2:$A$11</c:f>
+              <c:f>'All Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Scott</c:v>
+                  <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cedric</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bill</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Kynan</c:v>
+                  <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Jonathan</c:v>
+                  <c:v>Scott</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fish</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Jacob</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marshall</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cheyenne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All Stats-this session'!$O$2:$O$11</c:f>
+              <c:f>'All Stats-this session'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79A1-4383-B935-953DD5786AC4}"/>
+              <c16:uniqueId val="{00000000-646D-4008-A830-455A589FF23A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5316,9 +5331,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -5348,16 +5363,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$N$2:$N$11</c:f>
+              <c:f>Bankrolls!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>51.61</c:v>
                 </c:pt>
@@ -5387,6 +5405,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>310.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400.67999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,7 +5415,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E266-4F8B-B265-E5CE1260F7ED}"/>
+              <c16:uniqueId val="{00000000-FF89-4551-B2CF-46F46D58E03F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5415,9 +5436,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -5447,16 +5468,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$O$2:$O$11</c:f>
+              <c:f>Bankrolls!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
@@ -5485,6 +5509,9 @@
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -5493,7 +5520,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E266-4F8B-B265-E5CE1260F7ED}"/>
+              <c16:uniqueId val="{00000001-FF89-4551-B2CF-46F46D58E03F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5706,9 +5733,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -5738,16 +5765,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$S$2:$S$11</c:f>
+              <c:f>Bankrolls!$S$2:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5777,6 +5807,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,7 +5817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D98C-40C3-8E5C-2A6FD570090D}"/>
+              <c16:uniqueId val="{00000000-477E-4314-B9CF-6D8F94FE1B90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5805,9 +5838,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -5837,16 +5870,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$T$2:$T$11</c:f>
+              <c:f>Bankrolls!$T$2:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>26.12</c:v>
                 </c:pt>
@@ -5876,6 +5912,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>99.61999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5883,7 +5922,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D98C-40C3-8E5C-2A6FD570090D}"/>
+              <c16:uniqueId val="{00000001-477E-4314-B9CF-6D8F94FE1B90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6096,9 +6135,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -6128,16 +6167,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$X$2:$X$11</c:f>
+              <c:f>Bankrolls!$X$2:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6166,6 +6208,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6174,7 +6219,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6894-494D-A4F8-395C428546D2}"/>
+              <c16:uniqueId val="{00000000-E86F-4172-8EB4-5BC0C363E0D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6195,9 +6240,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$11</c:f>
+              <c:f>Bankrolls!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -6227,16 +6272,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5 20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5 24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$Y$2:$Y$11</c:f>
+              <c:f>Bankrolls!$Y$2:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6266,6 +6314,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6273,7 +6324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6894-494D-A4F8-395C428546D2}"/>
+              <c16:uniqueId val="{00000001-E86F-4172-8EB4-5BC0C363E0D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6485,54 +6536,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$F$2:$F$6</c:f>
+              <c:f>'NL Stats-this session'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.76800000000000002</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45700000000000002</c:v>
+                  <c:v>0.34599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36599999999999999</c:v>
+                  <c:v>0.72099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE00-4BE3-952C-9565AB50B297}"/>
+              <c16:uniqueId val="{00000000-2437-4C32-BA46-D8C0479C8B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6551,54 +6614,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$G$2:$G$6</c:f>
+              <c:f>'NL Stats-this session'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51600000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42399999999999999</c:v>
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE00-4BE3-952C-9565AB50B297}"/>
+              <c16:uniqueId val="{00000001-2437-4C32-BA46-D8C0479C8B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6617,54 +6692,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$H$2:$H$6</c:f>
+              <c:f>'NL Stats-this session'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.47E-2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1499999999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0300000000000001E-2</c:v>
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BE00-4BE3-952C-9565AB50B297}"/>
+              <c16:uniqueId val="{00000002-2437-4C32-BA46-D8C0479C8B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6916,54 +7003,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$I$2:$I$6</c:f>
+              <c:f>'NL Stats-this session'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.32</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.42</c:v>
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FD7-495D-BE1C-FDFA572AA70F}"/>
+              <c16:uniqueId val="{00000000-C538-4827-90F6-86BF6164D1CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7212,54 +7311,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$K$2:$K$6</c:f>
+              <c:f>'NL Stats-this session'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.192</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.111</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.121</c:v>
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A68-41D8-AD12-9CBEC3FD2539}"/>
+              <c16:uniqueId val="{00000000-CE40-4272-BEEA-C8AC40374EBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7313,54 +7424,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$L$2:$L$6</c:f>
+              <c:f>'NL Stats-this session'!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.106</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A68-41D8-AD12-9CBEC3FD2539}"/>
+              <c16:uniqueId val="{00000001-CE40-4272-BEEA-C8AC40374EBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7634,54 +7757,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$M$2:$M$6</c:f>
+              <c:f>'NL Stats-this session'!$M$2:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>108.68</c:v>
+                  <c:v>61.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198.45</c:v>
+                  <c:v>29.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>37.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.9</c:v>
+                  <c:v>88.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.85</c:v>
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7E5-48EA-B90A-90527ECE4360}"/>
+              <c16:uniqueId val="{00000000-3134-4220-98AC-00C776B87447}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7745,54 +7880,66 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Regan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Fish</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Scott</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cheyenne</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Raymond</c:v>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$N$2:$N$6</c:f>
+              <c:f>'NL Stats-this session'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57.84</c:v>
+                  <c:v>6.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.24</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.020000000000003</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.649999999999999</c:v>
+                  <c:v>18.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.24</c:v>
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B7E5-48EA-B90A-90527ECE4360}"/>
+              <c16:uniqueId val="{00000001-3134-4220-98AC-00C776B87447}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7935,15 +8082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7971,15 +8118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8007,15 +8154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8043,15 +8190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8079,15 +8226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8967,10 +9114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9587,6 +9734,56 @@
         <v>45.2</v>
       </c>
     </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>30.58</v>
+      </c>
+      <c r="D12">
+        <v>91.91</v>
+      </c>
+      <c r="E12">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H12">
+        <v>5.92</v>
+      </c>
+      <c r="I12">
+        <v>25.92</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>390.63</v>
+      </c>
+      <c r="N12">
+        <v>400.67999999999989</v>
+      </c>
+      <c r="O12">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R12">
+        <v>-17.68999999999998</v>
+      </c>
+      <c r="S12">
+        <v>89.54</v>
+      </c>
+      <c r="T12">
+        <v>107.23</v>
+      </c>
+      <c r="W12">
+        <v>-65.2</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>65.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9595,10 +9792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9622,293 +9819,387 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2">
+        <v>13.15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-6.85</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
-        <v>0.76800000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="I2">
-        <v>0.28999999999999998</v>
+        <v>1.02</v>
       </c>
       <c r="J2">
-        <v>0.16500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="K2">
-        <v>0.192</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="L2">
-        <v>0.106</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M2">
-        <v>108.68</v>
+        <v>61.7</v>
       </c>
       <c r="N2">
-        <v>57.84</v>
+        <v>6.93</v>
       </c>
       <c r="O2">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>101.44</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>81.44</v>
+        <v>-60</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G3">
-        <v>0.51600000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H3">
-        <v>5.0999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I3">
-        <v>6.32</v>
+        <v>0.88</v>
       </c>
       <c r="J3">
-        <v>0.67300000000000004</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="K3">
-        <v>0.14599999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="L3">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M3">
-        <v>198.45</v>
+        <v>29.35</v>
       </c>
       <c r="N3">
-        <v>164.24</v>
+        <v>22.2</v>
       </c>
       <c r="O3">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4">
+        <v>89.54</v>
+      </c>
+      <c r="D4">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>-20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
-        <v>0.45700000000000002</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="G4">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.47E-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>0.16400000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="K4">
-        <v>0.111</v>
+        <v>0.154</v>
       </c>
       <c r="L4">
-        <v>4.9000000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="M4">
-        <v>10.050000000000001</v>
+        <v>37.47</v>
       </c>
       <c r="N4">
-        <v>34.020000000000003</v>
+        <v>5.4</v>
       </c>
       <c r="O4">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.24</v>
+      </c>
+      <c r="J5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H5">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.98</v>
-      </c>
-      <c r="J5">
-        <v>0.23599999999999999</v>
-      </c>
       <c r="K5">
-        <v>9.7000000000000003E-2</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="L5">
-        <v>4.2999999999999997E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M5">
-        <v>13.9</v>
+        <v>88.22</v>
       </c>
       <c r="N5">
-        <v>18.649999999999999</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="O5">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-11.44</v>
+        <v>-20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.51500000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G6">
-        <v>0.42399999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H6">
-        <v>3.0300000000000001E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>4.42</v>
+        <v>0.34</v>
       </c>
       <c r="J6">
-        <v>0.49</v>
+        <v>0.108</v>
       </c>
       <c r="K6">
-        <v>0.121</v>
+        <v>0.06</v>
       </c>
       <c r="L6">
-        <v>6.0999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="M6">
-        <v>2.85</v>
+        <v>12.35</v>
       </c>
       <c r="N6">
-        <v>15.24</v>
+        <v>11.38</v>
       </c>
       <c r="O6">
-        <v>33</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>110.15</v>
+      </c>
+      <c r="D7">
+        <v>90.15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H7">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.7</v>
+      </c>
+      <c r="J7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.183</v>
+      </c>
+      <c r="L7">
+        <v>0.113</v>
+      </c>
+      <c r="M7">
+        <v>112.97</v>
+      </c>
+      <c r="N7">
+        <v>62.11</v>
+      </c>
+      <c r="O7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>17.16</v>
+      </c>
+      <c r="D8">
+        <v>-32.840000000000003</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9920,10 +10211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9947,246 +10238,387 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2">
+        <v>13.15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-6.85</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
-        <v>0.58199999999999996</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="G2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.36</v>
+      </c>
+      <c r="J2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="K2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0.61</v>
-      </c>
-      <c r="J2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="K2">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="M2">
-        <v>69.33</v>
-      </c>
       <c r="N2">
-        <v>12.9</v>
+        <v>15.14</v>
       </c>
       <c r="O2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>101.44</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>81.44</v>
+        <v>-20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.63300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.73</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.44900000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="K3">
-        <v>0.28299999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>6.7000000000000004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>8.6999999999999993</v>
+        <v>10.3</v>
       </c>
       <c r="N3">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.55400000000000005</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="G4">
-        <v>7.0999999999999994E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.87</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>0.26600000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
-        <v>0.23200000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="L4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>24.82</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5">
+        <v>17.16</v>
+      </c>
+      <c r="D5">
+        <v>-32.840000000000003</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G5">
         <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.65</v>
-      </c>
-      <c r="G5">
-        <v>0.05</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.69</v>
+        <v>0.4</v>
       </c>
       <c r="J5">
-        <v>0.32100000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="K5">
-        <v>0.35</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L5">
-        <v>0.25</v>
+        <v>0.111</v>
       </c>
       <c r="M5">
-        <v>19.18</v>
+        <v>41.56</v>
       </c>
       <c r="N5">
-        <v>3.3</v>
+        <v>16.87</v>
       </c>
       <c r="O5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>20</v>
+      </c>
+      <c r="C6">
+        <v>110.15</v>
+      </c>
+      <c r="D6">
+        <v>90.15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1.6</v>
+      </c>
+      <c r="J6">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M6">
+        <v>60.02</v>
+      </c>
+      <c r="N6">
+        <v>22.61</v>
+      </c>
+      <c r="O6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>89.54</v>
+      </c>
+      <c r="D7">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.52</v>
+      </c>
+      <c r="J7">
+        <v>0.245</v>
+      </c>
+      <c r="K7">
+        <v>0.255</v>
+      </c>
+      <c r="L7">
+        <v>0.191</v>
+      </c>
+      <c r="M7">
+        <v>130.72</v>
+      </c>
+      <c r="N7">
+        <v>30.34</v>
+      </c>
+      <c r="O7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.47</v>
+      </c>
+      <c r="J8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="L8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M8">
+        <v>7.08</v>
+      </c>
+      <c r="N8">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -10198,10 +10630,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10225,98 +10657,98 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>46.46</v>
+        <v>13.15</v>
       </c>
       <c r="D2" s="2">
-        <v>6.46</v>
+        <v>-6.85</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.61699999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="G2">
-        <v>0.40600000000000003</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H2">
-        <v>3.9100000000000003E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="I2">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J2">
-        <v>0.42199999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="K2">
-        <v>0.22700000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L2">
-        <v>0.125</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M2">
-        <v>147</v>
+        <v>61.7</v>
       </c>
       <c r="N2">
-        <v>37.68</v>
+        <v>22.07</v>
       </c>
       <c r="O2">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
@@ -10326,98 +10758,98 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>22.25</v>
+        <v>89.54</v>
       </c>
       <c r="D3" s="2">
-        <v>-7.75</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.36199999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="J3">
-        <v>0.13200000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="K3">
+        <v>0.185</v>
+      </c>
+      <c r="L3">
         <v>0.106</v>
       </c>
-      <c r="L3">
-        <v>5.7000000000000002E-2</v>
-      </c>
       <c r="M3">
-        <v>48.54</v>
+        <v>168.19</v>
       </c>
       <c r="N3">
-        <v>8.15</v>
+        <v>35.74</v>
       </c>
       <c r="O3">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
       <c r="T3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>66.010000000000005</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>36.01</v>
+        <v>-40</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.64800000000000002</v>
+        <v>0.754</v>
       </c>
       <c r="G4">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J4">
-        <v>0.219</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="K4">
-        <v>0.214</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="L4">
-        <v>9.7000000000000003E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="M4">
-        <v>322.52999999999997</v>
+        <v>95.3</v>
       </c>
       <c r="N4">
-        <v>13.92</v>
+        <v>23.08</v>
       </c>
       <c r="O4">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -10425,160 +10857,160 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.63600000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="G5">
-        <v>1.6E-2</v>
+        <v>0.128</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="I5">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="J5">
-        <v>0.13200000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="K5">
-        <v>0.17799999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="L5">
-        <v>7.8E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M5">
-        <v>48.56</v>
+        <v>29.35</v>
       </c>
       <c r="N5">
-        <v>4.9000000000000004</v>
+        <v>22.2</v>
       </c>
       <c r="O5">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>19.510000000000002</v>
+        <v>110.15</v>
       </c>
       <c r="D6">
-        <v>-0.49</v>
+        <v>90.15</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.48799999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="G6">
-        <v>2.3E-2</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.63E-2</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="J6">
-        <v>0.11</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="K6">
-        <v>0.14000000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="L6">
-        <v>7.0000000000000007E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="M6">
-        <v>10.52</v>
+        <v>172.99</v>
       </c>
       <c r="N6">
-        <v>6.95</v>
+        <v>84.72</v>
       </c>
       <c r="O6">
-        <v>43</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>185.77</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>155.77000000000001</v>
+        <v>-20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.71699999999999997</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="G7">
-        <v>5.5E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>2.07E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="I7">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="J7">
-        <v>0.107</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K7">
-        <v>0.26900000000000002</v>
+        <v>0.106</v>
       </c>
       <c r="L7">
-        <v>0.13800000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M7">
-        <v>393.14</v>
+        <v>22.65</v>
       </c>
       <c r="N7">
-        <v>13.71</v>
+        <v>11.38</v>
       </c>
       <c r="O7">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>17.16</v>
       </c>
       <c r="D8">
-        <v>-20</v>
+        <v>-32.840000000000003</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.60899999999999999</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10587,166 +11019,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="J8">
-        <v>0.108</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="K8">
-        <v>0.152</v>
+        <v>0.21</v>
       </c>
       <c r="L8">
-        <v>4.2999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M8">
-        <v>48.5</v>
+        <v>41.56</v>
       </c>
       <c r="N8">
-        <v>18.2</v>
+        <v>16.87</v>
       </c>
       <c r="O8">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="G9">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.23</v>
-      </c>
-      <c r="J9">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.26</v>
-      </c>
-      <c r="L9">
-        <v>0.125</v>
-      </c>
-      <c r="M9">
-        <v>147.59</v>
-      </c>
-      <c r="N9">
-        <v>38.07</v>
-      </c>
-      <c r="O9">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>120</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-120</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="H10">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.38</v>
-      </c>
-      <c r="J10">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="K10">
-        <v>0.25</v>
-      </c>
-      <c r="L10">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M10">
-        <v>121.03</v>
-      </c>
-      <c r="N10">
-        <v>49.87</v>
-      </c>
-      <c r="O10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.25</v>
-      </c>
-      <c r="J11">
-        <v>0.12</v>
-      </c>
-      <c r="K11">
-        <v>0.2</v>
-      </c>
-      <c r="L11">
-        <v>0.1</v>
-      </c>
-      <c r="M11">
-        <v>10.94</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A94F6D-6B63-485D-9E32-7EB0CB7362D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA5D62E-304F-4E3C-918F-9A6FEBB8765E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,47 +760,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'NL Stats-this session'!$A$2:$A$6</c:f>
+              <c:f>'NL Stats-this session'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jacob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NL Stats-this session'!$O$2:$O$6</c:f>
+              <c:f>'NL Stats-this session'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,25 +1031,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1049,25 +1061,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.53200000000000003</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.47099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.82199999999999995</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41899999999999998</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.63800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,25 +1109,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1127,7 +1139,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.42599999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1136,16 +1148,16 @@
                   <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,25 +1187,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1205,7 +1217,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.1299999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1220,7 +1232,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1517,25 +1529,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1547,25 +1559,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.36</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,25 +1837,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1855,25 +1867,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.26700000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,25 +1950,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1968,25 +1980,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.111</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,25 +2283,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2301,25 +2313,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.3</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>60.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>41.56</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.02</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>130.72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,25 +2406,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2424,25 +2436,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.87</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.61</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>30.34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6399999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,25 +2718,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Raymond</c:v>
+                  <c:v>Cheyenne</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cheyenne</c:v>
+                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Regan</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scott</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Jacob</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scott</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Raymond</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2736,25 +2748,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6543,13 +6555,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -6573,13 +6585,13 @@
                   <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.42899999999999999</c:v>
@@ -6621,13 +6633,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -6651,13 +6663,13 @@
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.2E-2</c:v>
@@ -6699,13 +6711,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -6729,13 +6741,13 @@
                   <c:v>1.8700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.1900000000000001E-2</c:v>
@@ -7010,13 +7022,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -7040,13 +7052,13 @@
                   <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.34</c:v>
@@ -7318,13 +7330,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -7348,13 +7360,13 @@
                   <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.06</c:v>
@@ -7431,13 +7443,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -7461,13 +7473,13 @@
                   <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.5999999999999997E-2</c:v>
@@ -7764,13 +7776,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -7794,13 +7806,13 @@
                   <c:v>61.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>37.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>29.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>88.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.35</c:v>
@@ -7887,13 +7899,13 @@
                   <c:v>Raymond</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Cedric</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fish</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Regan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cedric</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Fish</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Cheyenne</c:v>
@@ -7917,13 +7929,13 @@
                   <c:v>6.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.38</c:v>
@@ -9116,8 +9128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9794,8 +9806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9917,49 +9929,49 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C3">
+        <v>89.54</v>
+      </c>
+      <c r="D3" s="5">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>0.55000000000000004</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="G3">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>0.39</v>
       </c>
       <c r="J3">
-        <v>0.28299999999999997</v>
+        <v>0.128</v>
       </c>
       <c r="K3">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="L3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="M3">
-        <v>29.35</v>
+        <v>37.47</v>
       </c>
       <c r="N3">
-        <v>22.2</v>
+        <v>5.4</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
@@ -9969,46 +9981,46 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>89.54</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>69.540000000000006</v>
+        <v>-40</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.34599999999999997</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="J4">
-        <v>0.128</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K4">
-        <v>0.154</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="L4">
-        <v>6.7000000000000004E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M4">
-        <v>37.47</v>
+        <v>88.22</v>
       </c>
       <c r="N4">
-        <v>5.4</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="O4">
         <v>104</v>
@@ -10016,49 +10028,49 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>-40</v>
+      <c r="D5" s="2">
+        <v>-60</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.72099999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
-        <v>0.24</v>
+        <v>0.88</v>
       </c>
       <c r="J5">
-        <v>0.14000000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="K5">
-        <v>0.26900000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="L5">
-        <v>0.125</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M5">
-        <v>88.22</v>
+        <v>29.35</v>
       </c>
       <c r="N5">
-        <v>18.440000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="O5">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -10165,7 +10177,7 @@
       <c r="C8">
         <v>17.16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>-32.840000000000003</v>
       </c>
       <c r="E8">
@@ -10203,6 +10215,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O8">
+    <sortCondition descending="1" ref="O8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <drawing r:id="rId1"/>
@@ -10213,8 +10228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,71 +10302,71 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>13.15</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>-6.85</v>
+        <v>-20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.53200000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0.42599999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.36</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.40100000000000002</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="K2">
-        <v>4.2999999999999997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>10.3</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>15.14</v>
-      </c>
       <c r="O2">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>-20</v>
+      <c r="D3" s="5">
+        <v>-40</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -10360,25 +10375,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>6.7000000000000004E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M3">
-        <v>10.3</v>
+        <v>7.08</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
@@ -10435,140 +10450,140 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>17.16</v>
+        <v>110.15</v>
       </c>
       <c r="D5">
-        <v>-32.840000000000003</v>
+        <v>90.15</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.82199999999999995</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="J5">
-        <v>0.216</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="K5">
-        <v>0.26700000000000002</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="L5">
-        <v>0.111</v>
+        <v>4.7E-2</v>
       </c>
       <c r="M5">
-        <v>41.56</v>
+        <v>60.02</v>
       </c>
       <c r="N5">
-        <v>16.87</v>
+        <v>22.61</v>
       </c>
       <c r="O5">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>110.15</v>
+        <v>17.16</v>
       </c>
       <c r="D6">
-        <v>90.15</v>
+        <v>-32.840000000000003</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G6">
         <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.16300000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
-        <v>0.32300000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="K6">
-        <v>0.11600000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L6">
-        <v>4.7E-2</v>
+        <v>0.111</v>
       </c>
       <c r="M6">
-        <v>60.02</v>
+        <v>41.56</v>
       </c>
       <c r="N6">
-        <v>22.61</v>
+        <v>16.87</v>
       </c>
       <c r="O6">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>89.54</v>
-      </c>
-      <c r="D7">
-        <v>69.540000000000006</v>
+        <v>13.15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-6.85</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.63800000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="G7">
-        <v>2.1000000000000001E-2</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="H7">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.36</v>
+      </c>
+      <c r="J7">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="K7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0.52</v>
-      </c>
-      <c r="J7">
-        <v>0.245</v>
-      </c>
-      <c r="K7">
-        <v>0.255</v>
-      </c>
-      <c r="L7">
-        <v>0.191</v>
-      </c>
       <c r="M7">
-        <v>130.72</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>30.34</v>
+        <v>15.14</v>
       </c>
       <c r="O7">
         <v>47</v>
@@ -10576,52 +10591,55 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C8">
+        <v>89.54</v>
+      </c>
+      <c r="D8" s="5">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>-40</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="J8">
-        <v>0.27600000000000002</v>
+        <v>0.245</v>
       </c>
       <c r="K8">
-        <v>0.57099999999999995</v>
+        <v>0.255</v>
       </c>
       <c r="L8">
-        <v>7.0999999999999994E-2</v>
+        <v>0.191</v>
       </c>
       <c r="M8">
-        <v>7.08</v>
+        <v>130.72</v>
       </c>
       <c r="N8">
-        <v>4.6399999999999997</v>
+        <v>30.34</v>
       </c>
       <c r="O8">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O8">
+    <sortCondition ref="O8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <drawing r:id="rId1"/>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" state="visible" r:id="rId1"/>
@@ -223,9 +223,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -258,16 +258,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$D$2:$D$12</f>
+              <f>Bankrolls!$D$2:$D$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
@@ -300,6 +306,12 @@
                 </pt>
                 <pt idx="10">
                   <v>91.91</v>
+                </pt>
+                <pt idx="11">
+                  <v>71.91</v>
+                </pt>
+                <pt idx="12">
+                  <v>76.72999999999999</v>
                 </pt>
               </numCache>
             </numRef>
@@ -328,9 +340,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -363,16 +375,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$E$2:$E$12</f>
+              <f>Bankrolls!$E$2:$E$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>15.44</v>
                 </pt>
@@ -404,6 +422,12 @@
                   <v>61.33000000000001</v>
                 </pt>
                 <pt idx="10">
+                  <v>61.33000000000001</v>
+                </pt>
+                <pt idx="11">
+                  <v>61.33000000000001</v>
+                </pt>
+                <pt idx="12">
                   <v>61.33000000000001</v>
                 </pt>
               </numCache>
@@ -3312,9 +3336,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pre-Flop Stats</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0"/>
+              <a:t>VPIP, Pre-flop raise, three-bet</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </rich>
       </tx>
@@ -3348,59 +3373,29 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$8</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="7"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$F$2:$F$8</f>
+              <f>'All Stats-this session'!$F$2:$F$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="7"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>0.617</v>
+                  <v>0.75</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.362</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.648</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.636</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.488</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.717</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.609</v>
+                  <v>0.75</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3421,59 +3416,29 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$8</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="7"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$G$2:$G$8</f>
+              <f>'All Stats-this session'!$G$2:$G$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="7"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>0.406</v>
+                  <v>0.03</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.05</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.007</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.016</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.023</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.055</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
+                  <v>0.18</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3494,59 +3459,29 @@
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$8</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="7"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$H$2:$H$8</f>
+              <f>'All Stats-this session'!$H$2:$H$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="7"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>0.0391</v>
+                  <v>0</v>
                 </pt>
                 <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.0207</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
+                  <v>0.01</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3679,40 +3614,6 @@
         <crossBetween val="between"/>
       </valAx>
     </plotArea>
-    <legend>
-      <legendPos val="r"/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -3820,77 +3721,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$I$2:$I$11</f>
+              <f>'All Stats-this session'!$I$2:$I$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>1.7</v>
+                  <v>0.63</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.39</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.52</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.26</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.24</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.18</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.22</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.23</v>
-                </pt>
-                <pt idx="8">
-                  <v>1.38</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.25</v>
+                  <v>9.92</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4100,9 +3953,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -4135,16 +3988,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$I$2:$I$12</f>
+              <f>Bankrolls!$I$2:$I$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
@@ -4177,6 +4036,12 @@
                 </pt>
                 <pt idx="10">
                   <v>25.92</v>
+                </pt>
+                <pt idx="11">
+                  <v>2.460000000000001</v>
+                </pt>
+                <pt idx="12">
+                  <v>2.460000000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4205,9 +4070,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -4240,16 +4105,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$J$2:$J$12</f>
+              <f>Bankrolls!$J$2:$J$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
@@ -4282,6 +4153,12 @@
                 </pt>
                 <pt idx="10">
                   <v>20</v>
+                </pt>
+                <pt idx="11">
+                  <v>34.08</v>
+                </pt>
+                <pt idx="12">
+                  <v>34.08</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4517,77 +4394,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$K$2:$K$11</f>
+              <f>'All Stats-this session'!$K$2:$K$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>0.227</v>
+                  <v>0.37</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.106</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.214</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.178</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.14</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.269</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.152</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.26</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.25</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.2</v>
+                  <v>0.37</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4641,77 +4470,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$L$2:$L$11</f>
+              <f>'All Stats-this session'!$L$2:$L$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>0.125</v>
+                  <v>0.19</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.057</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.097</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.078</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.07000000000000001</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.138</v>
-                </pt>
-                <pt idx="6">
-                  <v>0.043</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.125</v>
-                </pt>
-                <pt idx="8">
-                  <v>0.094</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.1</v>
+                  <v>0.18</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4973,77 +4754,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$O$2:$O$11</f>
+              <f>'All Stats-this session'!$O$2:$O$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>147</v>
+                  <v>83.62</v>
                 </pt>
                 <pt idx="1">
-                  <v>48.54</v>
-                </pt>
-                <pt idx="2">
-                  <v>322.53</v>
-                </pt>
-                <pt idx="3">
-                  <v>48.56</v>
-                </pt>
-                <pt idx="4">
-                  <v>10.52</v>
-                </pt>
-                <pt idx="5">
-                  <v>393.14</v>
-                </pt>
-                <pt idx="6">
-                  <v>48.5</v>
-                </pt>
-                <pt idx="7">
-                  <v>147.59</v>
-                </pt>
-                <pt idx="8">
-                  <v>121.03</v>
-                </pt>
-                <pt idx="9">
-                  <v>10.94</v>
+                  <v>73.18000000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5107,77 +4840,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$P$2:$P$11</f>
+              <f>'All Stats-this session'!$P$2:$P$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>37.68</v>
+                  <v>25.6</v>
                 </pt>
                 <pt idx="1">
-                  <v>8.15</v>
-                </pt>
-                <pt idx="2">
-                  <v>13.92</v>
-                </pt>
-                <pt idx="3">
-                  <v>4.9</v>
-                </pt>
-                <pt idx="4">
-                  <v>6.95</v>
-                </pt>
-                <pt idx="5">
-                  <v>13.71</v>
-                </pt>
-                <pt idx="6">
-                  <v>18.2</v>
-                </pt>
-                <pt idx="7">
-                  <v>38.07</v>
-                </pt>
-                <pt idx="8">
-                  <v>49.87</v>
-                </pt>
-                <pt idx="9">
-                  <v>0</v>
+                  <v>26.4</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5418,77 +5103,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$Q$2:$Q$11</f>
+              <f>'All Stats-this session'!$Q$2:$Q$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>128</v>
+                  <v>100</v>
                 </pt>
                 <pt idx="1">
-                  <v>141</v>
-                </pt>
-                <pt idx="2">
-                  <v>145</v>
-                </pt>
-                <pt idx="3">
-                  <v>129</v>
-                </pt>
-                <pt idx="4">
-                  <v>43</v>
-                </pt>
-                <pt idx="5">
-                  <v>145</v>
-                </pt>
-                <pt idx="6">
-                  <v>92</v>
-                </pt>
-                <pt idx="7">
-                  <v>104</v>
-                </pt>
-                <pt idx="8">
-                  <v>96</v>
-                </pt>
-                <pt idx="9">
-                  <v>40</v>
+                  <v>100</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5729,77 +5366,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$M$2:$M$11</f>
+              <f>'All Stats-this session'!$M$2:$M$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>11</v>
+                  <v>1</v>
                 </pt>
                 <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>1</v>
-                </pt>
-                <pt idx="3">
-                  <v>3</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-                <pt idx="5">
-                  <v>1</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
-                </pt>
-                <pt idx="7">
-                  <v>0</v>
-                </pt>
-                <pt idx="8">
-                  <v>8</v>
-                </pt>
-                <pt idx="9">
-                  <v>2</v>
+                  <v>24</v>
                 </pt>
               </numCache>
             </numRef>
@@ -5862,77 +5451,29 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>'All Stats-this session'!$A$2:$A$11</f>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
               <strCache>
-                <ptCount val="10"/>
+                <ptCount val="2"/>
                 <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
                   <v>Scott</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Bill</v>
-                </pt>
-                <pt idx="3">
-                  <v>Kynan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="5">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jacob</v>
-                </pt>
-                <pt idx="7">
-                  <v>Marshall</v>
-                </pt>
-                <pt idx="8">
-                  <v>Regan</v>
-                </pt>
-                <pt idx="9">
-                  <v>Cheyenne</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$N$2:$N$11</f>
+              <f>'All Stats-this session'!$N$2:$N$6</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="10"/>
+                <ptCount val="5"/>
                 <pt idx="0">
-                  <v>23</v>
+                  <v>5</v>
                 </pt>
                 <pt idx="1">
-                  <v>5</v>
-                </pt>
-                <pt idx="2">
-                  <v>1</v>
-                </pt>
-                <pt idx="3">
-                  <v>4</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-                <pt idx="5">
-                  <v>2</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
-                </pt>
-                <pt idx="7">
-                  <v>2</v>
-                </pt>
-                <pt idx="8">
-                  <v>14</v>
-                </pt>
-                <pt idx="9">
-                  <v>2</v>
+                  <v>66</v>
                 </pt>
               </numCache>
             </numRef>
@@ -6142,9 +5683,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -6177,16 +5718,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$N$2:$N$12</f>
+              <f>Bankrolls!$N$2:$N$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>51.61</v>
                 </pt>
@@ -6219,6 +5766,12 @@
                 </pt>
                 <pt idx="10">
                   <v>400.6799999999999</v>
+                </pt>
+                <pt idx="11">
+                  <v>472.8499999999999</v>
+                </pt>
+                <pt idx="12">
+                  <v>468.0299999999999</v>
                 </pt>
               </numCache>
             </numRef>
@@ -6247,9 +5800,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -6282,16 +5835,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$O$2:$O$12</f>
+              <f>Bankrolls!$O$2:$O$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>10.05</v>
                 </pt>
@@ -6323,6 +5882,12 @@
                   <v>10.05</v>
                 </pt>
                 <pt idx="10">
+                  <v>10.05</v>
+                </pt>
+                <pt idx="11">
+                  <v>10.05</v>
+                </pt>
+                <pt idx="12">
                   <v>10.05</v>
                 </pt>
               </numCache>
@@ -6532,9 +6097,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -6567,16 +6132,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$S$2:$S$12</f>
+              <f>Bankrolls!$S$2:$S$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
@@ -6609,6 +6180,12 @@
                 </pt>
                 <pt idx="10">
                   <v>89.54000000000001</v>
+                </pt>
+                <pt idx="11">
+                  <v>94.91000000000001</v>
+                </pt>
+                <pt idx="12">
+                  <v>94.91000000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -6637,9 +6214,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -6672,16 +6249,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$T$2:$T$12</f>
+              <f>Bankrolls!$T$2:$T$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>26.12</v>
                 </pt>
@@ -6713,6 +6296,12 @@
                   <v>99.61999999999999</v>
                 </pt>
                 <pt idx="10">
+                  <v>107.23</v>
+                </pt>
+                <pt idx="11">
+                  <v>107.23</v>
+                </pt>
+                <pt idx="12">
                   <v>107.23</v>
                 </pt>
               </numCache>
@@ -6922,9 +6511,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -6957,16 +6546,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$X$2:$X$12</f>
+              <f>Bankrolls!$X$2:$X$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
@@ -6998,6 +6593,12 @@
                   <v>0</v>
                 </pt>
                 <pt idx="10">
+                  <v>0</v>
+                </pt>
+                <pt idx="11">
+                  <v>0</v>
+                </pt>
+                <pt idx="12">
                   <v>0</v>
                 </pt>
               </numCache>
@@ -7027,9 +6628,9 @@
           </marker>
           <cat>
             <strRef>
-              <f>Bankrolls!$A$2:$A$12</f>
+              <f>Bankrolls!$A$2:$A$14</f>
               <strCache>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>4 09</v>
                 </pt>
@@ -7062,16 +6663,22 @@
                 </pt>
                 <pt idx="10">
                   <v>5 24</v>
+                </pt>
+                <pt idx="11">
+                  <v>5 27</v>
+                </pt>
+                <pt idx="12">
+                  <v>5 28</v>
                 </pt>
               </strCache>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>Bankrolls!$Y$2:$Y$12</f>
+              <f>Bankrolls!$Y$2:$Y$14</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="13"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
@@ -7103,6 +6710,12 @@
                   <v>45.2</v>
                 </pt>
                 <pt idx="10">
+                  <v>65.2</v>
+                </pt>
+                <pt idx="11">
+                  <v>65.2</v>
+                </pt>
+                <pt idx="12">
                   <v>65.2</v>
                 </pt>
               </numCache>
@@ -9703,10 +9316,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -10458,6 +10071,130 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5 27</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61.33000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-31.62</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.460000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="M13" t="n">
+        <v>462.8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>472.8499999999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-12.31999999999998</v>
+      </c>
+      <c r="S13" t="n">
+        <v>94.91000000000001</v>
+      </c>
+      <c r="T13" t="n">
+        <v>107.23</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>-65.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5 28</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76.72999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.33000000000001</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>-31.62</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.460000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="M14" t="n">
+        <v>457.98</v>
+      </c>
+      <c r="N14" t="n">
+        <v>468.0299999999999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>-12.31999999999998</v>
+      </c>
+      <c r="S14" t="n">
+        <v>94.91000000000001</v>
+      </c>
+      <c r="T14" t="n">
+        <v>107.23</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Didn't play</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>-65.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>65.2</v>
       </c>
     </row>
@@ -11290,10 +11027,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -11410,56 +11147,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>13.15</v>
+        <v>92.17</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-6.85</v>
+        <v>72.17</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.344</v>
+        <v>0.694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.227</v>
+        <v>0.476</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0195</v>
+        <v>0.0726</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>3.83</v>
       </c>
       <c r="J2" t="n">
-        <v>0.272</v>
+        <v>0.599</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="L2" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O2" t="n">
-        <v>61.7</v>
+        <v>125.3</v>
       </c>
       <c r="P2" t="n">
-        <v>22.07</v>
+        <v>158.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -11470,62 +11207,62 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Regan</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.538</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.128</v>
+        <v>0.048</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0171</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.84</v>
+        <v>0.28</v>
       </c>
       <c r="J3" t="n">
-        <v>0.267</v>
+        <v>0.146</v>
       </c>
       <c r="K3" t="n">
-        <v>0.145</v>
+        <v>0.333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06</v>
+        <v>0.143</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.35</v>
+        <v>10.36</v>
       </c>
       <c r="P3" t="n">
-        <v>22.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="R3" s="1" t="n"/>
       <c r="S3" s="3" t="n"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>5 24</t>
+          <t>5 27</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -11535,279 +11272,166 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>39.46</v>
       </c>
       <c r="C4" t="n">
-        <v>89.54000000000001</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>69.54000000000001</v>
+        <v>19.46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-20</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.437</v>
+        <v>0.713</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007</v>
+        <v>0.109</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="I4" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="J4" t="n">
-        <v>0.174</v>
+        <v>0.258</v>
       </c>
       <c r="K4" t="n">
-        <v>0.185</v>
+        <v>0.224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.106</v>
+        <v>0.126</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="O4" t="n">
-        <v>168.19</v>
+        <v>126.7</v>
       </c>
       <c r="P4" t="n">
-        <v>35.74</v>
+        <v>57.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.754</v>
+        <v>0.416</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="I5" t="n">
-        <v>0.29</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
-        <v>0.164</v>
+        <v>0.311</v>
       </c>
       <c r="K5" t="n">
-        <v>0.305</v>
+        <v>0.157</v>
       </c>
       <c r="L5" t="n">
-        <v>0.119</v>
+        <v>0.078</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O5" t="n">
-        <v>95.3</v>
+        <v>55.61</v>
       </c>
       <c r="P5" t="n">
-        <v>23.08</v>
+        <v>65.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>118</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cheyenne</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="D6" t="n">
-        <v>-20</v>
+        <v>-37.54</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.457</v>
+        <v>0.49</v>
       </c>
       <c r="G6" t="n">
-        <v>0.011</v>
+        <v>0.224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0106</v>
+        <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="J6" t="n">
-        <v>0.102</v>
+        <v>0.196</v>
       </c>
       <c r="K6" t="n">
-        <v>0.106</v>
+        <v>0.122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.064</v>
+        <v>0.061</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>22.65</v>
+        <v>4.86</v>
       </c>
       <c r="P6" t="n">
-        <v>11.38</v>
+        <v>7.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>110.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.298</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0263</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>22</v>
-      </c>
-      <c r="N7" t="n">
-        <v>33</v>
-      </c>
-      <c r="O7" t="n">
-        <v>172.99</v>
-      </c>
-      <c r="P7" t="n">
-        <v>84.72</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-32.84</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>41.56</v>
-      </c>
-      <c r="P8" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -489,7 +489,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -551,7 +551,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -589,7 +589,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -686,7 +686,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -815,7 +815,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -877,7 +877,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -981,7 +981,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1099,7 +1099,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1229,7 +1229,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1291,7 +1291,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1329,7 +1329,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1587,7 +1587,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1649,7 +1649,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1750,7 +1750,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1856,7 +1856,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1918,7 +1918,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2015,7 +2015,7 @@
                   <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2097,7 +2097,7 @@
                   <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2202,7 +2202,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2264,7 +2264,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2387,7 +2387,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2479,7 +2479,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2585,7 +2585,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2647,7 +2647,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2748,7 +2748,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2853,7 +2853,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2915,7 +2915,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3035,7 +3035,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3129,7 +3129,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3235,7 +3235,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3297,7 +3297,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3560,7 +3560,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3622,7 +3622,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3723,7 +3723,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3829,7 +3829,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3891,7 +3891,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4243,7 +4243,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4305,7 +4305,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4402,7 +4402,7 @@
                   <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4484,7 +4484,7 @@
                   <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4589,7 +4589,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4651,7 +4651,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4774,7 +4774,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4866,7 +4866,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4972,7 +4972,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5034,7 +5034,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5135,7 +5135,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5240,7 +5240,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5303,7 +5303,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5405,7 +5405,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5496,7 +5496,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5602,7 +5602,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5664,7 +5664,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6016,7 +6016,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6078,7 +6078,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6430,7 +6430,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6492,7 +6492,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6844,7 +6844,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6906,7 +6906,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7245,7 +7245,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7307,7 +7307,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7408,7 +7408,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7538,7 +7538,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7600,7 +7600,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7697,7 +7697,7 @@
                   <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7803,7 +7803,7 @@
                   <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7932,7 +7932,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7994,7 +7994,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -8117,7 +8117,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8233,7 +8233,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8363,7 +8363,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -8425,7 +8425,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -10277,7 +10277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
@@ -10394,391 +10394,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>13.15</v>
+        <v>92.17</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-6.85</v>
+        <v>72.17</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.262</v>
+        <v>0.694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14</v>
+        <v>0.476</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0187</v>
+        <v>0.0726</v>
       </c>
       <c r="I2" t="n">
-        <v>1.02</v>
+        <v>3.83</v>
       </c>
       <c r="J2" t="n">
-        <v>0.18</v>
+        <v>0.599</v>
       </c>
       <c r="K2" t="n">
-        <v>0.103</v>
+        <v>0.129</v>
       </c>
       <c r="L2" t="n">
         <v>0.065</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="O2" t="n">
-        <v>61.7</v>
+        <v>125.3</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>6.93</v>
+        <v>158.03</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Regan</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-60</v>
+        <v>-20</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.13</v>
+        <v>0.048</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.88</v>
+        <v>0.28</v>
       </c>
       <c r="J3" t="n">
-        <v>0.283</v>
+        <v>0.146</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15</v>
+        <v>0.333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.143</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.35</v>
+        <v>10.36</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>22.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>5 24</t>
+          <t>5 27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>39.46</v>
       </c>
       <c r="C4" t="n">
-        <v>89.54000000000001</v>
+        <v>19.46</v>
       </c>
       <c r="D4" t="n">
-        <v>69.54000000000001</v>
+        <v>-20</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.346</v>
+        <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="I4" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="J4" t="n">
-        <v>0.128</v>
+        <v>0.247</v>
       </c>
       <c r="K4" t="n">
-        <v>0.154</v>
+        <v>0.206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.067</v>
+        <v>0.106</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O4" t="n">
-        <v>37.47</v>
+        <v>98.3</v>
       </c>
       <c r="P4" t="n">
-        <v>5.4</v>
+        <v>53.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>104</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.721</v>
+        <v>0.395</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01</v>
+        <v>0.079</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="I5" t="n">
-        <v>0.24</v>
+        <v>1.24</v>
       </c>
       <c r="J5" t="n">
-        <v>0.14</v>
+        <v>0.278</v>
       </c>
       <c r="K5" t="n">
-        <v>0.269</v>
+        <v>0.132</v>
       </c>
       <c r="L5" t="n">
-        <v>0.125</v>
+        <v>0.079</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O5" t="n">
-        <v>88.22</v>
+        <v>52.01</v>
       </c>
       <c r="P5" t="n">
-        <v>18.44</v>
+        <v>60.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cheyenne</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="D6" t="n">
-        <v>-20</v>
+        <v>-37.54</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.429</v>
+        <v>0.49</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012</v>
+        <v>0.224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0119</v>
+        <v>0.102</v>
       </c>
       <c r="I6" t="n">
-        <v>0.34</v>
+        <v>0.73</v>
       </c>
       <c r="J6" t="n">
-        <v>0.108</v>
+        <v>0.196</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06</v>
+        <v>0.122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.036</v>
+        <v>0.061</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>12.35</v>
+        <v>4.86</v>
       </c>
       <c r="P6" t="n">
-        <v>11.38</v>
+        <v>7.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>110.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="M7" t="n">
-        <v>18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>27</v>
-      </c>
-      <c r="O7" t="n">
-        <v>112.97</v>
-      </c>
-      <c r="P7" t="n">
-        <v>62.11</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-32.84</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -10277,7 +10277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
@@ -10398,277 +10398,552 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>92.17</v>
+        <v>46.46</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>72.17</v>
+        <v>6.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.694</v>
+        <v>0.617</v>
       </c>
       <c r="G2" t="n">
-        <v>0.476</v>
+        <v>0.406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0726</v>
+        <v>0.0391</v>
       </c>
       <c r="I2" t="n">
-        <v>3.83</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.599</v>
+        <v>0.422</v>
       </c>
       <c r="K2" t="n">
-        <v>0.129</v>
+        <v>0.227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.065</v>
+        <v>0.125</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>125.3</v>
+        <v>147</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>158.03</v>
+        <v>37.68</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>22.25</v>
       </c>
       <c r="D3" t="n">
-        <v>-20</v>
+        <v>-7.75</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="J3" t="n">
-        <v>0.146</v>
+        <v>0.132</v>
       </c>
       <c r="K3" t="n">
-        <v>0.333</v>
+        <v>0.106</v>
       </c>
       <c r="L3" t="n">
-        <v>0.143</v>
+        <v>0.057</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>10.36</v>
+        <v>48.54</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>0.8</v>
+        <v>8.15</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>5 27</t>
+          <t>5 04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.46</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>19.46</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-20</v>
+        <v>36.01</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7</v>
+        <v>0.648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.119</v>
+        <v>0.007</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="J4" t="n">
-        <v>0.247</v>
+        <v>0.219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.206</v>
+        <v>0.214</v>
       </c>
       <c r="L4" t="n">
-        <v>0.106</v>
+        <v>0.097</v>
       </c>
       <c r="M4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>98.3</v>
+        <v>322.53</v>
       </c>
       <c r="P4" t="n">
-        <v>53.34</v>
+        <v>13.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Kynan</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>25.37</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5.37</v>
+        <v>-30</v>
       </c>
       <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0066</v>
-      </c>
       <c r="I5" t="n">
-        <v>1.24</v>
+        <v>0.26</v>
       </c>
       <c r="J5" t="n">
-        <v>0.278</v>
+        <v>0.132</v>
       </c>
       <c r="K5" t="n">
-        <v>0.132</v>
+        <v>0.178</v>
       </c>
       <c r="L5" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>52.01</v>
+        <v>48.56</v>
       </c>
       <c r="P5" t="n">
-        <v>60.38</v>
+        <v>4.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>185.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>155.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>393.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>147.59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07290000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>121.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-37.54</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -10929,7 +11204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
@@ -11049,56 +11324,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>31.4</v>
+        <v>46.46</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.4</v>
+        <v>6.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.518</v>
+        <v>0.617</v>
       </c>
       <c r="G2" t="n">
-        <v>0.288</v>
+        <v>0.406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0177</v>
+        <v>0.0391</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>0.481</v>
+        <v>0.422</v>
       </c>
       <c r="K2" t="n">
-        <v>0.199</v>
+        <v>0.227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.058</v>
+        <v>0.125</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>69.34</v>
+        <v>147</v>
       </c>
       <c r="P2" t="n">
-        <v>56.64</v>
+        <v>37.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -11113,58 +11388,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>8.73</v>
+        <v>22.25</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-11.27</v>
+        <v>-7.75</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.505</v>
+        <v>0.362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.077</v>
+        <v>0.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.68</v>
+        <v>0.39</v>
       </c>
       <c r="J3" t="n">
-        <v>0.369</v>
+        <v>0.132</v>
       </c>
       <c r="K3" t="n">
-        <v>0.259</v>
+        <v>0.106</v>
       </c>
       <c r="L3" t="n">
-        <v>0.145</v>
+        <v>0.057</v>
       </c>
       <c r="M3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>49.87</v>
+        <v>48.54</v>
       </c>
       <c r="P3" t="n">
-        <v>46.48</v>
+        <v>8.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="R3" s="1" t="n"/>
       <c r="S3" s="3" t="n"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>5 31</t>
+          <t>5 04</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -11174,56 +11449,441 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>29.87</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>9.869999999999999</v>
+        <v>36.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695</v>
+        <v>0.648</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>322.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kynan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>185.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>155.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>393.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.22</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="J8" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>123.32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>220</v>
+      <c r="O8" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>147.59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07290000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>121.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -51,7 +51,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -72,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,6 +406,416 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!M1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$M$2:$M$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!N1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$N$2:$N$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$J$2:$J$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$K$2:$K$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!O1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$O$2:$O$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!P1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$P$2:$P$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hands played</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!Q1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
@@ -415,7 +828,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Hands played</a:t>
+              <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -425,7 +838,7 @@
     <plotArea>
       <layout/>
       <barChart>
-        <barDir val="bar"/>
+        <barDir val="col"/>
         <grouping val="clustered"/>
         <varyColors val="0"/>
         <ser>
@@ -433,11 +846,11 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!$Q$1</f>
+              <f>'All Stats-this session'!$O$1</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Hands played</v>
+                  <v>At showdown</v>
                 </pt>
               </strCache>
             </strRef>
@@ -489,172 +902,24 @@
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$Q$2:$Q$6</f>
+              <f>'All Stats-this session'!$O$2:$O$6</f>
               <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>166</v>
-                </pt>
-                <pt idx="1">
-                  <v>172</v>
-                </pt>
-                <pt idx="2">
-                  <v>187</v>
-                </pt>
-                <pt idx="3">
-                  <v>124</v>
-                </pt>
-                <pt idx="4">
-                  <v>177</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$F$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>VPIP</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$F$2:$F$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.639</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.698</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.374</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.371</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.412</v>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>69.34999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>109.4</v>
+                </pt>
+                <pt idx="2">
+                  <v>66.93000000000001</v>
+                </pt>
+                <pt idx="3">
+                  <v>6.68</v>
+                </pt>
+                <pt idx="4">
+                  <v>75.61</v>
                 </pt>
               </numCache>
             </numRef>
@@ -665,227 +930,11 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!$G$1</f>
+              <f>'All Stats-this session'!$P$1</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>Pre-flop Raise</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$G$2:$G$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.018</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.453</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.193</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.011</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$H$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Three-bet</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$H$2:$H$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.064</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.0428</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Aggression Factor</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$L$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Aggro Factor</v>
+                  <v>Before showdown</v>
                 </pt>
               </strCache>
             </strRef>
@@ -937,24 +986,24 @@
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$L$2:$L$6</f>
+              <f>'All Stats-this session'!$P$2:$P$6</f>
               <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.27</v>
-                </pt>
-                <pt idx="1">
-                  <v>4.32</v>
-                </pt>
-                <pt idx="2">
-                  <v>1.72</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.11</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.51</v>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>40.99</v>
+                </pt>
+                <pt idx="1">
+                  <v>157.65</v>
+                </pt>
+                <pt idx="2">
+                  <v>79.84</v>
+                </pt>
+                <pt idx="3">
+                  <v>11.4</v>
+                </pt>
+                <pt idx="4">
+                  <v>90.2</v>
                 </pt>
               </numCache>
             </numRef>
@@ -998,255 +1047,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>C-bets vs opportunities</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$M$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bets</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$M$2:$M$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-                <pt idx="1">
-                  <v>45</v>
-                </pt>
-                <pt idx="2">
-                  <v>13</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$N$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Opportunities</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$N$2:$N$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>5</v>
-                </pt>
-                <pt idx="1">
-                  <v>70</v>
-                </pt>
-                <pt idx="2">
-                  <v>31</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -1259,254 +1060,6 @@
       <legendPos val="b"/>
       <overlay val="0"/>
     </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Went to showdown vs Won at showdown</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Went to showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$J$2:$J$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.145</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.122</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.107</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.081</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.068</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Won at showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$K$2:$K$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.07199999999999999</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.047</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.064</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.04</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.045</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1779,6 +1332,170 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Hands played</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$Q$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hands played</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$Q$2:$Q$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>166</v>
+                </pt>
+                <pt idx="1">
+                  <v>172</v>
+                </pt>
+                <pt idx="2">
+                  <v>187</v>
+                </pt>
+                <pt idx="3">
+                  <v>124</v>
+                </pt>
+                <pt idx="4">
+                  <v>177</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
@@ -2049,7 +1766,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2213,7 +1930,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2459,254 +2176,6 @@
       <legendPos val="b"/>
       <overlay val="0"/>
     </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Went to showdown vs Won at showdown</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Went to showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$J$2:$J$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.145</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.122</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.107</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.081</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.068</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Won at showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$K$2:$K$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.07199999999999999</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.047</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.064</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.04</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.045</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -3011,6 +2480,254 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Went to showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$J$2:$J$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.145</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.122</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.107</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.081</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.068</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Won at showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$K$2:$K$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.07199999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.047</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.064</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.04</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.045</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
@@ -3243,170 +2960,6 @@
       <legendPos val="b"/>
       <overlay val="0"/>
     </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Hands played</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="bar"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$Q$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Hands played</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$Q$2:$Q$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>166</v>
-                </pt>
-                <pt idx="1">
-                  <v>172</v>
-                </pt>
-                <pt idx="2">
-                  <v>187</v>
-                </pt>
-                <pt idx="3">
-                  <v>124</v>
-                </pt>
-                <pt idx="4">
-                  <v>177</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -6307,7 +5860,1622 @@
 
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>VPIP</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$F$2:$F$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.639</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.698</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.374</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.371</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.412</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Pre-flop Raise</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$G$2:$G$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.018</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.453</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.193</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.011</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$H$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Three-bet</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$H$2:$H$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.064</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0428</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aggression Factor</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$L$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Aggro Factor</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$L$2:$L$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.27</v>
+                </pt>
+                <pt idx="1">
+                  <v>4.32</v>
+                </pt>
+                <pt idx="2">
+                  <v>1.72</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.11</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.51</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$M$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bets</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$M$2:$M$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>45</v>
+                </pt>
+                <pt idx="2">
+                  <v>13</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$N$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Opportunities</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$N$2:$N$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>5</v>
+                </pt>
+                <pt idx="1">
+                  <v>70</v>
+                </pt>
+                <pt idx="2">
+                  <v>31</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Went to showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$J$2:$J$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.145</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.122</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.107</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.081</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.068</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Won at showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$K$2:$K$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.07199999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.047</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.064</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.04</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.045</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$O$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>At showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$O$2:$O$6</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>69.34999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>109.4</v>
+                </pt>
+                <pt idx="2">
+                  <v>66.93000000000001</v>
+                </pt>
+                <pt idx="3">
+                  <v>6.68</v>
+                </pt>
+                <pt idx="4">
+                  <v>75.61</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$P$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Before showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$P$2:$P$6</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>40.99</v>
+                </pt>
+                <pt idx="1">
+                  <v>157.65</v>
+                </pt>
+                <pt idx="2">
+                  <v>79.84</v>
+                </pt>
+                <pt idx="3">
+                  <v>11.4</v>
+                </pt>
+                <pt idx="4">
+                  <v>90.2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hands played</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!$Q$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hands played</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$Q$2:$Q$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>166</v>
+                </pt>
+                <pt idx="1">
+                  <v>172</v>
+                </pt>
+                <pt idx="2">
+                  <v>187</v>
+                </pt>
+                <pt idx="3">
+                  <v>124</v>
+                </pt>
+                <pt idx="4">
+                  <v>177</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$M$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bets</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>45</v>
+                </pt>
+                <pt idx="2">
+                  <v>9</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$N$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bet opportunities</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>5</v>
+                </pt>
+                <pt idx="1">
+                  <v>70</v>
+                </pt>
+                <pt idx="2">
+                  <v>24</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
@@ -6433,9 +7601,8 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -6516,9 +7683,8 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -6626,9 +7792,8 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -6733,9 +7898,8 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -6843,9 +8007,8 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -6920,258 +8083,6 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>C-bets vs opportunities</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!$M$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bets</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-                <pt idx="1">
-                  <v>45</v>
-                </pt>
-                <pt idx="2">
-                  <v>9</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!$N$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bet opportunities</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>5</v>
-                </pt>
-                <pt idx="1">
-                  <v>70</v>
-                </pt>
-                <pt idx="2">
-                  <v>24</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -7844,43 +8755,33 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Money won</a:t>
+              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!$O$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>At showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -7888,68 +8789,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$O$2:$O$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>69.34999999999999</v>
-                </pt>
-                <pt idx="1">
-                  <v>109.4</v>
-                </pt>
-                <pt idx="2">
-                  <v>66.93000000000001</v>
-                </pt>
-                <pt idx="3">
-                  <v>6.68</v>
-                </pt>
-                <pt idx="4">
-                  <v>75.61</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -7958,13 +8805,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!$P$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Before showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -7972,78 +8813,123 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$P$2:$P$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>40.99</v>
-                </pt>
-                <pt idx="1">
-                  <v>157.65</v>
-                </pt>
-                <pt idx="2">
-                  <v>79.84</v>
-                </pt>
-                <pt idx="3">
-                  <v>11.4</v>
-                </pt>
-                <pt idx="4">
-                  <v>90.2</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$G$2:$G$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$H$2:$H$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aggression Factor</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!L1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -8054,292 +8940,24 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Money won</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$O$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>At showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$O$2:$O$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>69.34999999999999</v>
-                </pt>
-                <pt idx="1">
-                  <v>109.4</v>
-                </pt>
-                <pt idx="2">
-                  <v>66.93000000000001</v>
-                </pt>
-                <pt idx="3">
-                  <v>6.68</v>
-                </pt>
-                <pt idx="4">
-                  <v>75.61</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!$P$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Before showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$P$2:$P$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>40.99</v>
-                </pt>
-                <pt idx="1">
-                  <v>157.65</v>
-                </pt>
-                <pt idx="2">
-                  <v>79.84</v>
-                </pt>
-                <pt idx="3">
-                  <v>11.4</v>
-                </pt>
-                <pt idx="4">
-                  <v>90.2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -8506,6 +9124,143 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4680000" cy="4680000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -9917,12 +10672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -10046,37 +10801,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.46</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>19.46</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>-20</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="G2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.429</v>
+      <c r="I2" s="7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.357</v>
+        <v>0.17</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -10084,79 +10839,190 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>3.8</v>
+      <c r="O2" s="8" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>6 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
-        <v>25.37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C5" t="n">
+        <v>52.59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F5" s="7" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>5 27</t>
-        </is>
+      <c r="I5" s="7" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -406,7 +406,6 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -516,7 +515,6 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -623,7 +621,6 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -733,7 +730,6 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -8089,6 +8085,430 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$F$2:$F$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$G$2:$G$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$H$2:$H$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aggression Factor</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!L1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$L$2:$L$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!M1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$M$2:$M$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!N1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$N$2:$N$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$J$2:$J$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$K$2:$K$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -8329,6 +8749,818 @@
         <crossAx val="10"/>
         <crosses val="autoZero"/>
         <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!O1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$O$2:$O$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!P1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$P$2:$P$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hands played</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!Q1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$Q$2:$Q$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$F$2:$F$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$G$2:$G$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$H$2:$H$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aggression Factor</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!L1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$L$2:$L$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!M1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$M$2:$M$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!N1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$N$2:$N$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$J$2:$J$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$K$2:$K$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!O1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$O$2:$O$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!P1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$P$2:$P$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hands played</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'All Stats-this session'!Q1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'All Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'All Stats-this session'!$Q$2:$Q$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -8755,7 +9987,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -8883,7 +10114,6 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -9966,6 +11196,270 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="33" name="Chart 33"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId33"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="34" name="Chart 34"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId34"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="35" name="Chart 35"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId35"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="36" name="Chart 36"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId36"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="37" name="Chart 37"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId37"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4680000" cy="4680000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="38" name="Chart 38"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId38"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="39" name="Chart 39"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId39"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="40" name="Chart 40"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId40"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="41" name="Chart 41"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId41"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="42" name="Chart 42"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId42"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="4860000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="43" name="Chart 43"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId43"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4680000" cy="4680000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="44" name="Chart 44"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId44"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -11267,7 +12761,7 @@
       <c r="S3" s="2" t="n"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>6 07</t>
+          <t>0607</t>
         </is>
       </c>
       <c r="AF3" t="n">

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NL Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PLO Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="All Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NL Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_-"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -51,27 +50,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,6 +132,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -175,7 +158,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'combined Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -185,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <f>'combined Stats-this session'!$F$2:$F$11</f>
             </numRef>
           </val>
         </ser>
@@ -199,7 +182,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'combined Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -209,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <f>'combined Stats-this session'!$G$2:$G$11</f>
             </numRef>
           </val>
         </ser>
@@ -223,7 +206,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'combined Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -233,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <f>'combined Stats-this session'!$H$2:$H$11</f>
             </numRef>
           </val>
         </ser>
@@ -277,7 +260,6 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -384,7 +366,6 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -494,7 +475,6 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -582,27 +562,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>VPIP</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -610,14 +601,52 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$F$2:$F$6</f>
+              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.632</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.7</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.324</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.371</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.375</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -626,7 +655,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Pre-flop Raise</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -634,14 +669,52 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$G$2:$G$6</f>
+              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.018</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.459</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.147</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.013</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -650,7 +723,13 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!$H$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Three-bet</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -658,17 +737,63 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$H$2:$H$6</f>
+              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.06469999999999999</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0353</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>0</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -678,22 +803,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -704,6 +841,1087 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aggression Factor</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$L$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Won at showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.27</v>
+                </pt>
+                <pt idx="1">
+                  <v>4.15</v>
+                </pt>
+                <pt idx="2">
+                  <v>1.15</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.12</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.46</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$M$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bets</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>45</v>
+                </pt>
+                <pt idx="2">
+                  <v>9</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$N$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bet opportunities</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>5</v>
+                </pt>
+                <pt idx="1">
+                  <v>70</v>
+                </pt>
+                <pt idx="2">
+                  <v>24</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>2</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Aggro Frequency</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.135</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.124</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.106</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.081</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.062</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Went to showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.067</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.047</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.065</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.04</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.037</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$O$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>At showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>63.76</v>
+                </pt>
+                <pt idx="1">
+                  <v>109.4</v>
+                </pt>
+                <pt idx="2">
+                  <v>61.34</v>
+                </pt>
+                <pt idx="3">
+                  <v>6.68</v>
+                </pt>
+                <pt idx="4">
+                  <v>55.78</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$P$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Before showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>40.99</v>
+                </pt>
+                <pt idx="1">
+                  <v>157.65</v>
+                </pt>
+                <pt idx="2">
+                  <v>66.23999999999999</v>
+                </pt>
+                <pt idx="3">
+                  <v>11.4</v>
+                </pt>
+                <pt idx="4">
+                  <v>82.09</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hands played</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="bar"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!$Q$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hands played</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="1">
+                  <v>Scott</v>
+                </pt>
+                <pt idx="2">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jonathan</v>
+                </pt>
+                <pt idx="4">
+                  <v>Cedric</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>163</v>
+                </pt>
+                <pt idx="1">
+                  <v>170</v>
+                </pt>
+                <pt idx="2">
+                  <v>170</v>
+                </pt>
+                <pt idx="3">
+                  <v>124</v>
+                </pt>
+                <pt idx="4">
+                  <v>160</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -729,7 +1947,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'All Stats-this session'!L1</f>
+              <f>'combined Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -739,500 +1957,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'All Stats-this session'!$L$2:$L$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>C-bets vs opportunities</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!M1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$M$2:$M$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!N1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$N$2:$N$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Went to showdown vs Won at showdown</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$J$2:$J$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!K1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$K$2:$K$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Money won</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!O1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$O$2:$O$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!P1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$P$2:$P$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hands played</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="bar"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'All Stats-this session'!Q1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'All Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'All Stats-this session'!$Q$2:$Q$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Aggression Factor</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!L1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <f>'combined Stats-this session'!$L$2:$L$11</f>
             </numRef>
           </val>
         </ser>
@@ -1274,6 +2004,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1299,7 +2030,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'combined Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1309,12 +2040,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <f>'combined Stats-this session'!$M$2:$M$11</f>
             </numRef>
           </val>
         </ser>
@@ -1323,7 +2054,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'combined Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1333,12 +2064,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <f>'combined Stats-this session'!$N$2:$N$11</f>
             </numRef>
           </val>
         </ser>
@@ -1383,6 +2114,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1408,7 +2140,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'combined Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1418,12 +2150,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <f>'combined Stats-this session'!$J$2:$J$11</f>
             </numRef>
           </val>
         </ser>
@@ -1432,7 +2164,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'combined Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1442,12 +2174,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <f>'combined Stats-this session'!$K$2:$K$11</f>
             </numRef>
           </val>
         </ser>
@@ -1489,6 +2221,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1514,7 +2247,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'combined Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1524,12 +2257,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <f>'combined Stats-this session'!$O$2:$O$11</f>
             </numRef>
           </val>
         </ser>
@@ -1538,7 +2271,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'combined Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1548,12 +2281,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <f>'combined Stats-this session'!$P$2:$P$11</f>
             </numRef>
           </val>
         </ser>
@@ -1598,6 +2331,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1623,7 +2357,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'combined Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1633,12 +2367,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <f>'combined Stats-this session'!$Q$2:$Q$11</f>
             </numRef>
           </val>
         </ser>
@@ -1680,7 +2414,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1808,7 +2541,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -1891,7 +2623,6 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
   <chart>
     <title>
       <tx>
@@ -2008,7 +2739,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -2025,12 +2756,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -2052,7 +2783,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -2069,12 +2800,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -2096,7 +2827,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -2113,7 +2844,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>65</row>
       <rowOff>0</rowOff>
@@ -2145,7 +2876,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -2162,12 +2893,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -2189,7 +2920,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -2206,12 +2937,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -2233,7 +2964,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -2250,7 +2981,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>65</row>
       <rowOff>0</rowOff>
@@ -2282,7 +3013,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -2299,12 +3030,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -2326,7 +3057,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -2343,12 +3074,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -2370,7 +3101,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8640000" cy="4860000"/>
+    <ext cx="7200000" cy="4031999"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -2387,7 +3118,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>12</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>65</row>
       <rowOff>0</rowOff>
@@ -2711,30 +3442,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="8.42578125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="9.7109375" customWidth="1" style="3" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="3" min="4" max="5"/>
-    <col width="6.28515625" customWidth="1" style="3" min="6" max="6"/>
-    <col width="13.5703125" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.85546875" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
-    <col width="12" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
-    <col width="16" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
-    <col width="18.5703125" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
-    <col width="28.5703125" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="24.140625" bestFit="1" customWidth="1" style="3" min="14" max="14"/>
-    <col width="16.5703125" customWidth="1" style="3" min="15" max="15"/>
-    <col width="19" customWidth="1" style="3" min="16" max="16"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2779,7 +3493,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Aggro Factor</t>
+          <t>Aggression Factor</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -2822,292 +3536,564 @@
           <t>Hands played</t>
         </is>
       </c>
-      <c r="R1" s="8" t="n"/>
-      <c r="S1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>-20</v>
+        <v>46.46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>0.067</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.0391</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.27</v>
+        <v>1.67</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>63.76</v>
-      </c>
-      <c r="P2" s="7" t="n">
-        <v>40.99</v>
-      </c>
-      <c r="Q2" s="8" t="n">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>50.08</v>
+        <v>22.25</v>
       </c>
       <c r="D3" t="n">
-        <v>15.08</v>
+        <v>-7.75</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.06469999999999999</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>0.047</v>
+      <c r="F3" s="1" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.057</v>
       </c>
       <c r="L3" t="n">
-        <v>4.15</v>
+        <v>0.37</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>70</v>
-      </c>
-      <c r="O3" s="6" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>157.65</v>
-      </c>
-      <c r="Q3" s="8" t="n">
-        <v>170</v>
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>48.54</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>141</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0607</t>
+          <t>05/04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>32.33</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.33</v>
+        <v>36.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0.0353</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0.065</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.097</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>0.52</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>61.34</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>66.23999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>322.53</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>13.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Kynan</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>-40</v>
+      <c r="D5" t="n">
+        <v>-30</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>0.04</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.078</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>11.4</v>
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>4.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>52.59</v>
+        <v>19.51</v>
       </c>
       <c r="D6" t="n">
-        <v>32.59</v>
+        <v>-0.49</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0.037</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>185.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>155.77</v>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="n">
+      <c r="F7" s="1" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>82.09</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>160</v>
+      <c r="O7" s="2" t="n">
+        <v>393.14</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>147.59</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.07290000000000001</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>121.03</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3120,31 +4106,11 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="6.7109375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="7.85546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="6.85546875" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.7109375" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="6.140625" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="10" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
-    <col width="16.140625" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
-    <col width="19.140625" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
-    <col width="6.85546875" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" style="3" min="14" max="14"/>
-    <col width="29.28515625" bestFit="1" customWidth="1" style="3" min="15" max="15"/>
-    <col width="24.85546875" bestFit="1" customWidth="1" style="3" min="16" max="16"/>
-    <col width="13.85546875" bestFit="1" customWidth="1" style="3" min="17" max="17"/>
-    <col width="4.7109375" bestFit="1" customWidth="1" style="3" min="20" max="20"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -3189,7 +4155,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Aggro Factor</t>
+          <t>Aggression Factor</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -3232,8 +4198,6 @@
           <t>Hands played</t>
         </is>
       </c>
-      <c r="R1" s="8" t="n"/>
-      <c r="S1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3247,28 +4211,28 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" t="n">
         <v>-20</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.667</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="L2" t="n">
@@ -3280,13 +4244,13 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="2" t="n">
         <v>5.59</v>
       </c>
-      <c r="P2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="n">
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3308,22 +4272,22 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="n">
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
@@ -3335,13 +4299,13 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="n">
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="T3" t="inlineStr">
@@ -3368,22 +4332,22 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.882</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.647</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.1176</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.6879999999999999</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.118</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="1" t="n">
         <v>0.059</v>
       </c>
       <c r="L4" t="n">
@@ -3395,10 +4359,10 @@
       <c r="N4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="2" t="n">
         <v>5.59</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="2" t="n">
         <v>13.6</v>
       </c>
       <c r="Q4" t="n">
@@ -3423,22 +4387,22 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.765</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.295</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.118</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="1" t="n">
         <v>0.118</v>
       </c>
       <c r="L5" t="n">
@@ -3450,10 +4414,10 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="2" t="n">
         <v>19.83</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="2" t="n">
         <v>8.109999999999999</v>
       </c>
       <c r="Q5" t="n">
@@ -3461,8 +4425,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3473,33 +4436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="7.140625" bestFit="1" customWidth="1" style="3" min="1" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="9.7109375" customWidth="1" style="3" min="4" max="4"/>
-    <col width="8.140625" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="7.42578125" customWidth="1" style="3" min="6" max="6"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
-    <col width="17.140625" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
-    <col width="19.5703125" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="12.7109375" customWidth="1" style="3" min="12" max="12"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="20.5703125" bestFit="1" customWidth="1" style="3" min="14" max="14"/>
-    <col width="14.42578125" customWidth="1" style="3" min="15" max="15"/>
-    <col width="18" customWidth="1" style="3" min="16" max="16"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" style="3" min="17" max="17"/>
-    <col width="10.7109375" customWidth="1" style="3" min="18" max="18"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="3" min="32" max="32"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -3544,24 +4487,24 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Aggression Factor</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Aggro Frequency</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Went to showdown</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Won at showdown</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Aggro Factor</t>
-        </is>
-      </c>
       <c r="M1" t="inlineStr">
         <is>
           <t>C-bets</t>
@@ -3569,7 +4512,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Opportunities</t>
+          <t>C-bet opportunities</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -3587,8 +4530,6 @@
           <t>Hands played</t>
         </is>
       </c>
-      <c r="R1" s="8" t="n"/>
-      <c r="S1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3602,29 +4543,29 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" t="n">
         <v>-20</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="F2" s="1" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>0.07199999999999999</v>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.067</v>
       </c>
       <c r="L2" t="n">
         <v>0.27</v>
@@ -3635,19 +4576,14 @@
       <c r="N2" t="n">
         <v>5</v>
       </c>
-      <c r="O2" s="6" t="n">
-        <v>69.34999999999999</v>
-      </c>
-      <c r="P2" s="6" t="n">
+      <c r="O2" s="2" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <v>40.99</v>
       </c>
       <c r="Q2" t="n">
-        <v>166</v>
-      </c>
-      <c r="R2" s="8" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="AF2" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
@@ -3662,32 +4598,32 @@
       <c r="C3" t="n">
         <v>50.08</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
         <v>15.08</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="K3" s="5" t="n">
+      <c r="F3" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>0.047</v>
       </c>
       <c r="L3" t="n">
-        <v>4.06</v>
+        <v>4.15</v>
       </c>
       <c r="M3" t="n">
         <v>45</v>
@@ -3695,24 +4631,19 @@
       <c r="N3" t="n">
         <v>70</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="2" t="n">
         <v>109.4</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="2" t="n">
         <v>157.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>172</v>
-      </c>
-      <c r="R3" s="8" t="n"/>
-      <c r="S3" s="2" t="n"/>
+        <v>170</v>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>0607</t>
         </is>
-      </c>
-      <c r="AF3" t="n">
-        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -3733,41 +4664,41 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0.0428</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0.064</v>
+      <c r="F4" s="1" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.065</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>66.93000000000001</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>79.84</v>
+        <v>24</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>61.34</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>66.23999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -3788,22 +4719,22 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.371</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="1" t="n">
         <v>0.081</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="1" t="n">
         <v>0.04</v>
       </c>
       <c r="L5" t="n">
@@ -3815,10 +4746,10 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="2" t="n">
         <v>6.68</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="2" t="n">
         <v>11.4</v>
       </c>
       <c r="Q5" t="n">
@@ -3843,26 +4774,26 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>0.045</v>
+      <c r="F6" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.037</v>
       </c>
       <c r="L6" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -3870,19 +4801,18 @@
       <c r="N6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <v>75.61</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>90.2</v>
+      <c r="O6" s="2" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>82.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PLO Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NL Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NL Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PLO Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -295,12 +295,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$J$2:$J$5</f>
+              <f>'NL Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -319,12 +319,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$K$2:$K$5</f>
+              <f>'NL Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -391,7 +391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -401,12 +401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$5</f>
+              <f>'NL Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -415,7 +415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -425,12 +425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$5</f>
+              <f>'NL Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -500,7 +500,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -510,12 +510,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -562,38 +562,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$F$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>VPIP</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -601,52 +590,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.632</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.7</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.324</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.371</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.375</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -655,13 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$G$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Pre-flop Raise</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -669,52 +614,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.018</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.459</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.147</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.013</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -723,13 +630,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$H$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Three-bet</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -737,63 +638,17 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.06469999999999999</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.0353</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -803,34 +658,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -846,38 +689,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$L$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Won at showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -885,78 +717,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.27</v>
-                </pt>
-                <pt idx="1">
-                  <v>4.15</v>
-                </pt>
-                <pt idx="2">
-                  <v>1.15</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.12</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.46</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -967,34 +740,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1010,38 +771,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>C-bets vs opportunities</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$M$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bets</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1049,68 +799,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-                <pt idx="1">
-                  <v>45</v>
-                </pt>
-                <pt idx="2">
-                  <v>9</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>2</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -1119,13 +815,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$N$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bet opportunities</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1133,78 +823,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>5</v>
-                </pt>
-                <pt idx="1">
-                  <v>70</v>
-                </pt>
-                <pt idx="2">
-                  <v>24</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>2</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1215,39 +846,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1262,38 +880,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Went to showdown vs Won at showdown</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Aggro Frequency</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1301,68 +908,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.135</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.124</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.106</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.081</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.062</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -1371,13 +924,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Went to showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1385,78 +932,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.067</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.047</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.065</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.04</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.037</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1467,34 +955,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1510,38 +986,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$O$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>At showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1549,68 +1014,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>63.76</v>
-                </pt>
-                <pt idx="1">
-                  <v>109.4</v>
-                </pt>
-                <pt idx="2">
-                  <v>61.34</v>
-                </pt>
-                <pt idx="3">
-                  <v>6.68</v>
-                </pt>
-                <pt idx="4">
-                  <v>55.78</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -1619,13 +1030,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$P$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Before showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1633,78 +1038,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>40.99</v>
-                </pt>
-                <pt idx="1">
-                  <v>157.65</v>
-                </pt>
-                <pt idx="2">
-                  <v>66.23999999999999</v>
-                </pt>
-                <pt idx="3">
-                  <v>11.4</v>
-                </pt>
-                <pt idx="4">
-                  <v>82.09</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1715,39 +1061,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1762,38 +1095,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$Q$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Hands played</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1801,78 +1123,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="1">
-                  <v>Scott</v>
-                </pt>
-                <pt idx="2">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jonathan</v>
-                </pt>
-                <pt idx="4">
-                  <v>Cedric</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>163</v>
-                </pt>
-                <pt idx="1">
-                  <v>170</v>
-                </pt>
-                <pt idx="2">
-                  <v>170</v>
-                </pt>
-                <pt idx="3">
-                  <v>124</v>
-                </pt>
-                <pt idx="4">
-                  <v>160</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1883,34 +1146,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
+        <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -2439,7 +1690,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2449,12 +1700,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$F$2:$F$5</f>
+              <f>'NL Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -2463,7 +1714,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2473,12 +1724,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$G$2:$G$5</f>
+              <f>'NL Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -2487,7 +1738,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2497,12 +1748,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$H$2:$H$5</f>
+              <f>'NL Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -2566,7 +1817,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2576,12 +1827,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$L$2:$L$5</f>
+              <f>'NL Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -2648,7 +1899,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2658,12 +1909,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$M$2:$M$5</f>
+              <f>'NL Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -2672,7 +1923,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2682,12 +1933,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$N$2:$N$5</f>
+              <f>'NL Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -2876,7 +2127,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -2898,7 +2149,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -2920,7 +2171,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -2942,7 +2193,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -2964,7 +2215,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -3013,7 +2264,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -3035,7 +2286,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -3057,7 +2308,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -3079,7 +2330,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -3101,7 +2352,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4031999"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -3591,6 +2842,11 @@
       <c r="Q2" t="n">
         <v>128</v>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4202,226 +3458,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>0.478</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>0.239</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>0.0326</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.667</v>
+        <v>0.174</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.333</v>
+        <v>0.065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.29</v>
+        <v>1.79</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5.59</v>
+        <v>36.82</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>33.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>50.08</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.08</v>
+        <v>-50</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
+        <v>0.151</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0</v>
+        <v>51.24</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0607</t>
+          <t>06/10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>32.33</v>
+        <v>80.84</v>
       </c>
       <c r="D4" t="n">
-        <v>12.33</v>
+        <v>40.84</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0.882</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0.1176</v>
-      </c>
       <c r="I4" s="1" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.118</v>
+        <v>0.189</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="L4" t="n">
-        <v>4.4</v>
+        <v>0.28</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5.59</v>
+        <v>36.27</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>13.6</v>
+        <v>34.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>52.59</v>
+        <v>89.16</v>
       </c>
       <c r="D5" t="n">
-        <v>32.59</v>
+        <v>69.16</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.765</v>
+        <v>0.606</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.295</v>
+        <v>0.518</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.118</v>
+        <v>0.091</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.118</v>
+        <v>0.061</v>
       </c>
       <c r="L5" t="n">
-        <v>0.65</v>
+        <v>3.28</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>19.83</v>
+        <v>25.74</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.109999999999999</v>
+        <v>70.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4534,281 +3790,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.632</v>
+        <v>0.713</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.018</v>
+        <v>0.438</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.136</v>
+        <v>0.497</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.135</v>
+        <v>0.175</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.067</v>
+        <v>0.075</v>
       </c>
       <c r="L2" t="n">
-        <v>0.27</v>
+        <v>2.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>63.76</v>
+        <v>72.64</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>40.99</v>
+        <v>59.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>50.08</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.08</v>
+        <v>-50</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.06469999999999999</v>
-      </c>
       <c r="I3" s="1" t="n">
-        <v>0.613</v>
+        <v>0.268</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.124</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.047</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>4.15</v>
+        <v>0.6</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="Q3" t="n">
         <v>70</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>157.65</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>170</v>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0607</t>
+          <t>06/10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>32.33</v>
+        <v>80.84</v>
       </c>
       <c r="D4" t="n">
-        <v>12.33</v>
+        <v>40.84</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.147</v>
-      </c>
       <c r="H4" s="1" t="n">
-        <v>0.0353</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.224</v>
+        <v>0.171</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.106</v>
+        <v>0.207</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.065</v>
+        <v>0.098</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>0.29</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>61.34</v>
+        <v>175.94</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>66.23999999999999</v>
+        <v>51.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>170</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
+        <v>89.16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" s="1" t="n">
-        <v>0.371</v>
+        <v>0.788</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>0.288</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.081</v>
+        <v>0.173</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.04</v>
+        <v>0.115</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>6.68</v>
+        <v>117.77</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>11.4</v>
+        <v>37.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>52.59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>82.09</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$F$2:$F$11</f>
+              <f>'combined Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$G$2:$G$11</f>
+              <f>'combined Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$H$2:$H$11</f>
+              <f>'combined Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -1208,12 +1208,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$11</f>
+              <f>'combined Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -1291,12 +1291,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$M$2:$M$11</f>
+              <f>'combined Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -1315,12 +1315,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$N$2:$N$11</f>
+              <f>'combined Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -1401,12 +1401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$J$2:$J$11</f>
+              <f>'combined Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -1425,12 +1425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$K$2:$K$11</f>
+              <f>'combined Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -1508,12 +1508,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$O$2:$O$11</f>
+              <f>'combined Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -1532,12 +1532,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$P$2:$P$11</f>
+              <f>'combined Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -1618,12 +1618,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$11</f>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$Q$2:$Q$11</f>
+              <f>'combined Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -2693,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2791,56 +2791,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>46.46</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.46</v>
+        <v>-60</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.617</v>
+        <v>0.587</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.406</v>
+        <v>0.331</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0391</v>
+        <v>0.0407</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.227</v>
+        <v>0.174</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.125</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>147</v>
+        <v>109.46</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>37.68</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -2855,497 +2855,167 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>22.25</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.75</v>
+        <v>-50</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.362</v>
+        <v>0.513</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.05</v>
+        <v>0.013</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.131</v>
+        <v>0.23</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.106</v>
+        <v>0.173</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.057</v>
+        <v>0.103</v>
       </c>
       <c r="L3" t="n">
-        <v>0.37</v>
+        <v>0.57</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>48.54</v>
+        <v>80.69</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.15</v>
+        <v>47.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>05/04</t>
+          <t>06/10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>66.01000000000001</v>
+        <v>80.84</v>
       </c>
       <c r="D4" t="n">
-        <v>36.01</v>
+        <v>40.84</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.648</v>
+        <v>0.676</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.24</v>
+        <v>0.161</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.214</v>
+        <v>0.198</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.097</v>
+        <v>0.077</v>
       </c>
       <c r="L4" t="n">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>322.53</v>
+        <v>212.21</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>13.92</v>
+        <v>85.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kynan</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
+        <v>89.16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>-30</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
       <c r="F5" s="1" t="n">
-        <v>0.636</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.016</v>
+        <v>0.314</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>0.0254</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.131</v>
+        <v>0.483</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.178</v>
+        <v>0.127</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.078</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.25</v>
+        <v>2.09</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>48.56</v>
+        <v>143.51</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.9</v>
+        <v>108.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" t="n">
-        <v>185.77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>155.77</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>393.14</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Marshall</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>147.59</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>38.07</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>120</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-120</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.646</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0.07290000000000001</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>121.03</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>49.87</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$F$2:$F$5</f>
+              <f>'combined Stats-this session'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$G$2:$G$5</f>
+              <f>'combined Stats-this session'!$G$2:$G$6</f>
             </numRef>
           </val>
         </ser>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$H$2:$H$5</f>
+              <f>'combined Stats-this session'!$H$2:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -265,27 +265,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Went to showdown vs Won at showdown</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Aggro Frequency</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -293,14 +304,68 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$5</f>
+              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.137</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.206</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.267</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.216</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.167</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -309,7 +374,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Went to showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -317,19 +388,78 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$5</f>
+              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.054</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.09</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.186</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.068</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.028</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -340,22 +470,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -371,27 +513,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!$O$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>At showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -399,14 +552,68 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$5</f>
+              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>74.34</v>
+                </pt>
+                <pt idx="1">
+                  <v>139.23</v>
+                </pt>
+                <pt idx="2">
+                  <v>250.58</v>
+                </pt>
+                <pt idx="3">
+                  <v>91.48999999999999</v>
+                </pt>
+                <pt idx="4">
+                  <v>42.6</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -415,7 +622,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!$P$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Before showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -423,19 +636,78 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$5</f>
+              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>85.73</v>
+                </pt>
+                <pt idx="1">
+                  <v>66.83</v>
+                </pt>
+                <pt idx="2">
+                  <v>28.54</v>
+                </pt>
+                <pt idx="3">
+                  <v>45.84</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.8</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -446,26 +718,39 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
+      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -480,27 +765,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!$Q$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hands played</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -508,19 +804,78 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$5</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>204</v>
+                </pt>
+                <pt idx="1">
+                  <v>199</v>
+                </pt>
+                <pt idx="2">
+                  <v>172</v>
+                </pt>
+                <pt idx="3">
+                  <v>74</v>
+                </pt>
+                <pt idx="4">
+                  <v>72</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -531,22 +886,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -562,27 +929,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!F1</f>
+              <f>'PLO Stats-this session'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>VPIP</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -590,14 +968,46 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$F$2:$F$5</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.713</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.614</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.772</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.788</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -606,7 +1016,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!G1</f>
+              <f>'PLO Stats-this session'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Pre-flop Raise</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -614,14 +1030,46 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$G$2:$G$5</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.438</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.014</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.288</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -630,7 +1078,13 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!H1</f>
+              <f>'PLO Stats-this session'!$H$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Three-bet</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -638,17 +1092,57 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$H$2:$H$5</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0192</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -658,22 +1152,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -689,27 +1195,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!L1</f>
+              <f>'PLO Stats-this session'!$L$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Won at showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -717,19 +1234,72 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$L$2:$L$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>2.31</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.6</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.29</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -740,22 +1310,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -771,27 +1353,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>C-bets vs opportunities</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!M1</f>
+              <f>'PLO Stats-this session'!$M$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bets</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -799,14 +1392,62 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$M$2:$M$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>18</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>6</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -815,7 +1456,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!N1</f>
+              <f>'PLO Stats-this session'!$N$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bet opportunities</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -823,19 +1470,72 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$N$2:$N$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>40</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>14</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -846,26 +1546,39 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
+      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -880,27 +1593,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Went to showdown vs Won at showdown</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!J1</f>
+              <f>'PLO Stats-this session'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Aggro Frequency</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -908,14 +1632,62 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$J$2:$J$5</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.175</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.207</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.173</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -924,7 +1696,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!K1</f>
+              <f>'PLO Stats-this session'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Went to showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -932,19 +1710,72 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$K$2:$K$5</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>0.075</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.08599999999999999</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.098</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.115</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -955,22 +1786,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -986,27 +1829,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!O1</f>
+              <f>'PLO Stats-this session'!$O$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>At showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1014,14 +1868,62 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$O$2:$O$5</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>72.64</v>
+                </pt>
+                <pt idx="1">
+                  <v>29.45</v>
+                </pt>
+                <pt idx="2">
+                  <v>175.94</v>
+                </pt>
+                <pt idx="3">
+                  <v>117.77</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -1030,7 +1932,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!P1</f>
+              <f>'PLO Stats-this session'!$P$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Before showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1038,19 +1946,72 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$P$2:$P$5</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>59.64</v>
+                </pt>
+                <pt idx="1">
+                  <v>36.72</v>
+                </pt>
+                <pt idx="2">
+                  <v>51.3</v>
+                </pt>
+                <pt idx="3">
+                  <v>37.59</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1061,26 +2022,39 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
+      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1095,27 +2069,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!Q1</f>
+              <f>'PLO Stats-this session'!$Q$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hands played</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1123,19 +2108,72 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scott</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>80</v>
+                </pt>
+                <pt idx="1">
+                  <v>70</v>
+                </pt>
+                <pt idx="2">
+                  <v>92</v>
+                </pt>
+                <pt idx="3">
+                  <v>52</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1146,22 +2184,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1208,12 +2258,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$5</f>
+              <f>'combined Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1291,12 +2341,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$M$2:$M$5</f>
+              <f>'combined Stats-this session'!$M$2:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -1315,12 +2365,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$N$2:$N$5</f>
+              <f>'combined Stats-this session'!$N$2:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -1401,12 +2451,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$J$2:$J$5</f>
+              <f>'combined Stats-this session'!$J$2:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -1425,12 +2475,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$K$2:$K$5</f>
+              <f>'combined Stats-this session'!$K$2:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -1508,12 +2558,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$O$2:$O$5</f>
+              <f>'combined Stats-this session'!$O$2:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -1532,12 +2582,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$P$2:$P$5</f>
+              <f>'combined Stats-this session'!$P$2:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -1618,12 +2668,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$Q$2:$Q$5</f>
+              <f>'combined Stats-this session'!$Q$2:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -1670,27 +2720,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>VPIP</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1698,14 +2759,52 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$5</f>
+              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.475</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.598</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.657</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.649</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.514</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -1714,7 +2813,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Pre-flop Raise</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1722,14 +2827,52 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$5</f>
+              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.27</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.035</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.006</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.378</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.194</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -1738,7 +2881,13 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!$H$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Three-bet</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1746,17 +2895,63 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$5</f>
+              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>0.0294</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.005</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.08110000000000001</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0139</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -1766,22 +2961,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1797,27 +3004,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!$L$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Won at showdown</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1825,19 +3043,78 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$5</f>
+              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>1.39</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.55</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.23</v>
+                </pt>
+                <pt idx="3">
+                  <v>4.37</v>
+                </pt>
+                <pt idx="4">
+                  <v>1.86</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1848,22 +3125,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1879,27 +3168,38 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>C-bets vs opportunities</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!$M$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bets</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1907,14 +3207,68 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$5</f>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>18</v>
+                </pt>
+                <pt idx="1">
+                  <v>6</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>16</v>
+                </pt>
+                <pt idx="4">
+                  <v>8</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
@@ -1923,7 +3277,13 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!$N$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bet opportunities</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1931,19 +3291,78 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
-            </numRef>
+            <strRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Cedric</v>
+                </pt>
+                <pt idx="2">
+                  <v>Fish</v>
+                </pt>
+                <pt idx="3">
+                  <v>Scotty</v>
+                </pt>
+                <pt idx="4">
+                  <v>Regan</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$5</f>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>55</v>
+                </pt>
+                <pt idx="1">
+                  <v>8</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>33</v>
+                </pt>
+                <pt idx="4">
+                  <v>16</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1954,26 +3373,39 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
+      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2693,7 +4125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,52 +4227,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-45.85</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" s="1" t="n">
-        <v>0.587</v>
+        <v>0.475</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>0.331</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0.0407</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0.444</v>
-      </c>
       <c r="J2" s="1" t="n">
-        <v>0.174</v>
+        <v>0.137</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.054</v>
       </c>
       <c r="L2" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>109.46</v>
+        <v>74.34</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>93.31999999999999</v>
+        <v>85.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -2855,56 +4287,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="n">
-        <v>0.513</v>
+        <v>0.598</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.013</v>
+        <v>0.035</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.23</v>
+        <v>0.245</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.173</v>
+        <v>0.206</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.103</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>80.69</v>
+        <v>139.23</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>47.72</v>
+        <v>66.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/10</t>
+          <t>06/14</t>
         </is>
       </c>
     </row>
@@ -2918,49 +4350,49 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>80.84</v>
+        <v>126.71</v>
       </c>
       <c r="D4" t="n">
-        <v>40.84</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.676</v>
+        <v>0.657</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.161</v>
+        <v>0.126</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.198</v>
+        <v>0.267</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.077</v>
+        <v>0.186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>212.21</v>
+        <v>250.58</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>85.87</v>
+        <v>28.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -2973,49 +4405,104 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>89.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.16</v>
+        <v>-20</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.649</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.314</v>
+        <v>0.378</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0254</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.483</v>
+        <v>0.593</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.127</v>
+        <v>0.216</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="L5" t="n">
-        <v>2.09</v>
+        <v>4.37</v>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>143.51</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>108.51</v>
+        <v>45.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>118</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3030,13 +4517,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17.28515625" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -3132,52 +4622,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-45.85</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" s="1" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.239</v>
+        <v>0.27</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0326</v>
+        <v>0.0294</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.38</v>
+        <v>0.331</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.174</v>
+        <v>0.137</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.065</v>
+        <v>0.054</v>
       </c>
       <c r="L2" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>36.82</v>
+        <v>74.34</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>33.68</v>
+        <v>85.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>92</v>
+        <v>204</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3187,56 +4682,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="n">
-        <v>0.43</v>
+        <v>0.598</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.012</v>
+        <v>0.035</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.19</v>
+        <v>0.245</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.151</v>
+        <v>0.206</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.116</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>51.24</v>
+        <v>139.23</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>11</v>
+        <v>66.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/10</t>
+          <t>06/14</t>
         </is>
       </c>
     </row>
@@ -3250,104 +4745,159 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>80.84</v>
+        <v>126.71</v>
       </c>
       <c r="D4" t="n">
-        <v>40.84</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.578</v>
+        <v>0.657</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.149</v>
+        <v>0.126</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.189</v>
+        <v>0.267</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.056</v>
+        <v>0.186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>36.27</v>
+        <v>250.58</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>34.57</v>
+        <v>28.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Scotty</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>89.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.16</v>
+        <v>-20</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.606</v>
+        <v>0.649</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.333</v>
+        <v>0.378</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0303</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.518</v>
+        <v>0.593</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.091</v>
+        <v>0.216</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.061</v>
+        <v>0.068</v>
       </c>
       <c r="L5" t="n">
-        <v>3.28</v>
+        <v>4.37</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25.74</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>70.92</v>
+        <v>45.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>66</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +4914,7 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -4176,22 +4176,22 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Aggro Frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Went to showdown</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Won at showdown</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Aggression Factor</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Aggro Frequency</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Went to showdown</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Won at showdown</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -265,38 +265,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Went to showdown vs Won at showdown</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Aggro Frequency</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -304,68 +293,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$J$2:$J$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.137</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.206</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.267</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.216</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.167</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -374,13 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Went to showdown</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -388,78 +317,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$K$2:$K$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.054</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.09</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.186</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.068</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.028</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -470,34 +340,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -513,38 +371,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$O$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>At showdown</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -552,68 +399,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$O$2:$O$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>74.34</v>
-                </pt>
-                <pt idx="1">
-                  <v>139.23</v>
-                </pt>
-                <pt idx="2">
-                  <v>250.58</v>
-                </pt>
-                <pt idx="3">
-                  <v>91.48999999999999</v>
-                </pt>
-                <pt idx="4">
-                  <v>42.6</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -622,13 +415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$P$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Before showdown</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -636,78 +423,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$P$2:$P$6</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>85.73</v>
-                </pt>
-                <pt idx="1">
-                  <v>66.83</v>
-                </pt>
-                <pt idx="2">
-                  <v>28.54</v>
-                </pt>
-                <pt idx="3">
-                  <v>45.84</v>
-                </pt>
-                <pt idx="4">
-                  <v>27.8</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -718,39 +446,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -765,38 +480,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$Q$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Hands played</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -804,78 +508,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$Q$2:$Q$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>204</v>
-                </pt>
-                <pt idx="1">
-                  <v>199</v>
-                </pt>
-                <pt idx="2">
-                  <v>172</v>
-                </pt>
-                <pt idx="3">
-                  <v>74</v>
-                </pt>
-                <pt idx="4">
-                  <v>72</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -886,34 +531,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
+        <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -2720,38 +2353,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$F$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>VPIP</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2759,52 +2381,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$F$2:$F$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.475</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.598</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.657</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.649</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.514</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -2813,13 +2397,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$G$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Pre-flop Raise</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2827,52 +2405,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$G$2:$G$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.27</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.035</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.006</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.378</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.194</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -2881,13 +2421,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$H$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Three-bet</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2895,63 +2429,17 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$H$2:$H$6</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0.0294</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.005</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.08110000000000001</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.0139</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -2961,34 +2449,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -3004,38 +2480,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$L$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Won at showdown</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3043,78 +2508,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$L$2:$L$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>1.39</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.55</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.23</v>
-                </pt>
-                <pt idx="3">
-                  <v>4.37</v>
-                </pt>
-                <pt idx="4">
-                  <v>1.86</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -3125,34 +2531,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -3168,38 +2562,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>C-bets vs opportunities</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$M$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bets</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3207,68 +2590,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$M$2:$M$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>18</v>
-                </pt>
-                <pt idx="1">
-                  <v>6</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>16</v>
-                </pt>
-                <pt idx="4">
-                  <v>8</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -3277,13 +2606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!$N$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bet opportunities</v>
-                </pt>
-              </strCache>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3291,78 +2614,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'NL Stats-this session'!$A$2:$A$6</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scotty</v>
-                </pt>
-                <pt idx="4">
-                  <v>Regan</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'NL Stats-this session'!$N$2:$N$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>55</v>
-                </pt>
-                <pt idx="1">
-                  <v>8</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>33</v>
-                </pt>
-                <pt idx="4">
-                  <v>16</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -3373,39 +2637,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4519,14 +3770,11 @@
   </sheetPr>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17.28515625" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -4571,22 +3819,22 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Aggro Frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Went to showdown</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Won at showdown</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Aggression Factor</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Aggro Frequency</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Went to showdown</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Won at showdown</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -4793,7 +4041,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scotty</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NL Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PLO Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NL Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PLO Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="combined Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -158,7 +158,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$F$2:$F$6</f>
+              <f>'NL Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -182,7 +182,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$G$2:$G$6</f>
+              <f>'NL Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -206,7 +206,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$H$2:$H$6</f>
+              <f>'NL Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'PLO Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -295,12 +295,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <f>'PLO Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'PLO Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -319,12 +319,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <f>'PLO Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -391,7 +391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'PLO Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -401,12 +401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <f>'PLO Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -415,7 +415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'PLO Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -425,12 +425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <f>'PLO Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -500,7 +500,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'PLO Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -510,12 +510,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -562,38 +562,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$F$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>VPIP</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -601,46 +590,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$F$2:$F$5</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>0.713</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.614</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.772</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.788</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -649,13 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$G$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Pre-flop Raise</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -663,46 +614,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$G$2:$G$5</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>0.438</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.014</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.288</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -711,13 +630,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$H$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Three-bet</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -725,57 +638,17 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$H$2:$H$5</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>0.05</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.0192</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -785,34 +658,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -828,38 +689,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$L$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Won at showdown</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -867,72 +717,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$L$2:$L$5</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>2.31</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.6</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.29</v>
-                </pt>
-                <pt idx="3">
-                  <v>1.5</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -943,34 +740,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -986,38 +771,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>C-bets vs opportunities</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$M$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bets</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1025,62 +799,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$M$2:$M$5</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>18</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>6</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -1089,13 +815,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$N$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bet opportunities</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1103,72 +823,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$N$2:$N$5</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>40</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>14</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1179,39 +846,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1226,38 +880,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Went to showdown vs Won at showdown</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Aggro Frequency</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1265,62 +908,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$J$2:$J$5</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>0.175</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.2</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.207</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.173</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -1329,13 +924,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Went to showdown</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1343,72 +932,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$K$2:$K$5</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>0.075</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.08599999999999999</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.098</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.115</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1419,34 +955,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1462,38 +986,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$O$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>At showdown</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1501,62 +1014,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$5</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>72.64</v>
-                </pt>
-                <pt idx="1">
-                  <v>29.45</v>
-                </pt>
-                <pt idx="2">
-                  <v>175.94</v>
-                </pt>
-                <pt idx="3">
-                  <v>117.77</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -1565,13 +1030,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$P$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Before showdown</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1579,72 +1038,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$5</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>59.64</v>
-                </pt>
-                <pt idx="1">
-                  <v>36.72</v>
-                </pt>
-                <pt idx="2">
-                  <v>51.3</v>
-                </pt>
-                <pt idx="3">
-                  <v>37.59</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1655,39 +1061,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1702,38 +1095,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$Q$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Hands played</v>
-                </pt>
-              </strCache>
+              <f>'combined Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1741,72 +1123,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
-              <strCache>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Cedric</v>
-                </pt>
-                <pt idx="2">
-                  <v>Fish</v>
-                </pt>
-                <pt idx="3">
-                  <v>Scott</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$5</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>80</v>
-                </pt>
-                <pt idx="1">
-                  <v>70</v>
-                </pt>
-                <pt idx="2">
-                  <v>92</v>
-                </pt>
-                <pt idx="3">
-                  <v>52</v>
-                </pt>
-              </numCache>
+              <f>'combined Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1817,34 +1146,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
+        <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1881,7 +1198,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1891,12 +1208,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$6</f>
+              <f>'NL Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -1964,7 +1281,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1974,12 +1291,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$M$2:$M$6</f>
+              <f>'NL Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -1988,7 +1305,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1998,12 +1315,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$N$2:$N$6</f>
+              <f>'NL Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -2074,7 +1391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2084,12 +1401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$J$2:$J$6</f>
+              <f>'NL Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -2098,7 +1415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2108,12 +1425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$K$2:$K$6</f>
+              <f>'NL Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -2181,7 +1498,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2191,12 +1508,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$O$2:$O$6</f>
+              <f>'NL Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -2205,7 +1522,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2215,12 +1532,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$P$2:$P$6</f>
+              <f>'NL Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -2291,7 +1608,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2301,12 +1618,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$Q$2:$Q$6</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -2373,7 +1690,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2383,12 +1700,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <f>'PLO Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -2397,7 +1714,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2407,12 +1724,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <f>'PLO Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -2421,7 +1738,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'PLO Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2431,12 +1748,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <f>'PLO Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -2500,7 +1817,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'PLO Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2510,12 +1827,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <f>'PLO Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -2582,7 +1899,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'PLO Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2592,12 +1909,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <f>'PLO Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -2606,7 +1923,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'PLO Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2616,12 +1933,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <f>'PLO Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -3376,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3478,52 +2795,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>22.15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-45.85</v>
+        <v>-60</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.475</v>
+        <v>0.478</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.27</v>
+        <v>0.239</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0294</v>
+        <v>0.0326</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.331</v>
+        <v>0.38</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.137</v>
+        <v>0.174</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>74.34</v>
+        <v>36.82</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>85.73</v>
+        <v>33.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3538,56 +2855,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.14</v>
+        <v>-50</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="I3" s="1" t="n">
-        <v>0.245</v>
+        <v>0.19</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.206</v>
+        <v>0.151</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.09</v>
+        <v>0.116</v>
       </c>
       <c r="L3" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>139.23</v>
+        <v>51.24</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>66.83</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/14</t>
+          <t>06/10</t>
         </is>
       </c>
     </row>
@@ -3601,49 +2918,49 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>126.71</v>
+        <v>80.84</v>
       </c>
       <c r="D4" t="n">
-        <v>86.70999999999999</v>
+        <v>40.84</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.657</v>
+        <v>0.578</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.126</v>
+        <v>0.149</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.267</v>
+        <v>0.189</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.186</v>
+        <v>0.056</v>
       </c>
       <c r="L4" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>250.58</v>
+        <v>36.27</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>28.54</v>
+        <v>34.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>172</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -3656,104 +2973,49 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>89.16</v>
       </c>
       <c r="D5" t="n">
-        <v>-20</v>
+        <v>69.16</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.649</v>
+        <v>0.606</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.378</v>
+        <v>0.333</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0303</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.593</v>
+        <v>0.518</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.216</v>
+        <v>0.091</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.068</v>
+        <v>0.061</v>
       </c>
       <c r="L5" t="n">
-        <v>4.37</v>
+        <v>3.28</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>91.48999999999999</v>
+        <v>25.74</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>45.84</v>
+        <v>70.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>16</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +3030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,52 +3132,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>22.15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-45.85</v>
+        <v>-60</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.475</v>
+        <v>0.713</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.27</v>
+        <v>0.438</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0294</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.331</v>
+        <v>0.497</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.137</v>
+        <v>0.175</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.054</v>
+        <v>0.075</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>2.31</v>
       </c>
       <c r="M2" t="n">
         <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>74.34</v>
+        <v>72.64</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>85.73</v>
+        <v>59.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3930,56 +3192,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>39.14</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.14</v>
+        <v>-50</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="I3" s="1" t="n">
-        <v>0.245</v>
+        <v>0.268</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.206</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.09</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>139.23</v>
+        <v>29.45</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>66.83</v>
+        <v>36.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/14</t>
+          <t>06/10</t>
         </is>
       </c>
     </row>
@@ -3993,34 +3255,34 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>126.71</v>
+        <v>80.84</v>
       </c>
       <c r="D4" t="n">
-        <v>86.70999999999999</v>
+        <v>40.84</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.657</v>
+        <v>0.772</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.126</v>
+        <v>0.171</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.267</v>
+        <v>0.207</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.186</v>
+        <v>0.098</v>
       </c>
       <c r="L4" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4029,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>250.58</v>
+        <v>175.94</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>28.54</v>
+        <v>51.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>172</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -4048,104 +3310,49 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>89.16</v>
       </c>
       <c r="D5" t="n">
-        <v>-20</v>
+        <v>69.16</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.649</v>
+        <v>0.788</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.378</v>
+        <v>0.288</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.08110000000000001</v>
+        <v>0.0192</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.593</v>
+        <v>0.45</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.216</v>
+        <v>0.173</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.068</v>
+        <v>0.115</v>
       </c>
       <c r="L5" t="n">
-        <v>4.37</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>91.48999999999999</v>
+        <v>117.77</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>45.84</v>
+        <v>37.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>16</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +3369,7 @@
   </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4211,22 +3418,22 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Aggro Frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Went to showdown</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Won at showdown</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Aggression Factor</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Aggro Frequency</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Went to showdown</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Won at showdown</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -4274,40 +3481,45 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.713</v>
+        <v>0.587</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.438</v>
+        <v>0.331</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0407</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.497</v>
+        <v>0.444</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>72.64</v>
+        <v>109.46</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>59.64</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>80</v>
+        <v>172</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -4329,40 +3541,40 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.614</v>
+        <v>0.513</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.268</v>
+        <v>0.23</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.2</v>
+        <v>0.173</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>29.45</v>
+        <v>80.69</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>36.72</v>
+        <v>47.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -4389,40 +3601,40 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.772</v>
+        <v>0.676</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.171</v>
+        <v>0.161</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.207</v>
+        <v>0.198</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.098</v>
+        <v>0.077</v>
       </c>
       <c r="L4" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>175.94</v>
+        <v>212.21</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>51.3</v>
+        <v>85.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>92</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -4444,40 +3656,40 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.788</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.288</v>
+        <v>0.314</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0192</v>
+        <v>0.0254</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.45</v>
+        <v>0.483</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.173</v>
+        <v>0.127</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.115</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>2.09</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>117.77</v>
+        <v>143.51</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>37.59</v>
+        <v>108.51</v>
       </c>
       <c r="Q5" t="n">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$5</f>
+              <f>'NL Stats-this session'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$5</f>
+              <f>'NL Stats-this session'!$G$2:$G$6</f>
             </numRef>
           </val>
         </ser>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$5</f>
+              <f>'NL Stats-this session'!$H$2:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -1208,12 +1208,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$5</f>
+              <f>'NL Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1291,12 +1291,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$5</f>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -1315,12 +1315,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$5</f>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -1401,12 +1401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$5</f>
+              <f>'NL Stats-this session'!$J$2:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -1425,12 +1425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$5</f>
+              <f>'NL Stats-this session'!$K$2:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -1508,12 +1508,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$5</f>
+              <f>'NL Stats-this session'!$O$2:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -1532,12 +1532,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$5</f>
+              <f>'NL Stats-this session'!$P$2:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -1618,12 +1618,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$5</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -2693,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,52 +2795,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-45.85</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" s="1" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.239</v>
+        <v>0.27</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0326</v>
+        <v>0.0294</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.38</v>
+        <v>0.331</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.174</v>
+        <v>0.137</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.065</v>
+        <v>0.054</v>
       </c>
       <c r="L2" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>36.82</v>
+        <v>74.34</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>33.68</v>
+        <v>85.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -2855,56 +2855,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="n">
-        <v>0.43</v>
+        <v>0.598</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.012</v>
+        <v>0.035</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.19</v>
+        <v>0.245</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.151</v>
+        <v>0.206</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.116</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>51.24</v>
+        <v>139.23</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>11</v>
+        <v>66.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/10</t>
+          <t>06/14</t>
         </is>
       </c>
     </row>
@@ -2918,49 +2918,49 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>80.84</v>
+        <v>126.71</v>
       </c>
       <c r="D4" t="n">
-        <v>40.84</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.578</v>
+        <v>0.657</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.149</v>
+        <v>0.126</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.189</v>
+        <v>0.267</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.056</v>
+        <v>0.186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>36.27</v>
+        <v>250.58</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>34.57</v>
+        <v>28.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -2973,49 +2973,104 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>89.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.16</v>
+        <v>-20</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.606</v>
+        <v>0.649</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.333</v>
+        <v>0.378</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0303</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.518</v>
+        <v>0.593</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.091</v>
+        <v>0.216</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.061</v>
+        <v>0.068</v>
       </c>
       <c r="L5" t="n">
-        <v>3.28</v>
+        <v>4.37</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25.74</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>70.92</v>
+        <v>45.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>66</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NL Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PLO Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="combined Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NL Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PLO Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -158,7 +158,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'combined Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <f>'combined Stats-this session'!$F$2:$F$3</f>
             </numRef>
           </val>
         </ser>
@@ -182,7 +182,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'combined Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <f>'combined Stats-this session'!$G$2:$G$3</f>
             </numRef>
           </val>
         </ser>
@@ -206,7 +206,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'combined Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <f>'combined Stats-this session'!$H$2:$H$3</f>
             </numRef>
           </val>
         </ser>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -295,12 +295,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$J$2:$J$5</f>
+              <f>'NL Stats-this session'!$J$2:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -319,12 +319,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$K$2:$K$5</f>
+              <f>'NL Stats-this session'!$K$2:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -391,7 +391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -401,12 +401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$5</f>
+              <f>'NL Stats-this session'!$O$2:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -415,7 +415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -425,12 +425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$5</f>
+              <f>'NL Stats-this session'!$P$2:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -500,7 +500,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -510,12 +510,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -582,7 +582,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!F1</f>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -592,12 +592,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$F$2:$F$5</f>
+              <f>'PLO Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!G1</f>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -616,12 +616,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$G$2:$G$5</f>
+              <f>'PLO Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -630,7 +630,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!H1</f>
+              <f>'PLO Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -640,12 +640,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$H$2:$H$5</f>
+              <f>'PLO Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -709,7 +709,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!L1</f>
+              <f>'PLO Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -719,12 +719,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$5</f>
+              <f>'PLO Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -791,7 +791,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!M1</f>
+              <f>'PLO Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -801,12 +801,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$M$2:$M$5</f>
+              <f>'PLO Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -815,7 +815,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!N1</f>
+              <f>'PLO Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -825,12 +825,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$N$2:$N$5</f>
+              <f>'PLO Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -900,7 +900,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!J1</f>
+              <f>'PLO Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -910,12 +910,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$J$2:$J$5</f>
+              <f>'PLO Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -924,7 +924,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!K1</f>
+              <f>'PLO Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -934,12 +934,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$K$2:$K$5</f>
+              <f>'PLO Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -1006,7 +1006,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!O1</f>
+              <f>'PLO Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1016,12 +1016,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$O$2:$O$5</f>
+              <f>'PLO Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -1030,7 +1030,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!P1</f>
+              <f>'PLO Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1040,12 +1040,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$P$2:$P$5</f>
+              <f>'PLO Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -1115,7 +1115,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!Q1</f>
+              <f>'PLO Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1125,12 +1125,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$Q$2:$Q$5</f>
+              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -1198,7 +1198,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'combined Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1208,12 +1208,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <f>'combined Stats-this session'!$L$2:$L$3</f>
             </numRef>
           </val>
         </ser>
@@ -1281,7 +1281,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'combined Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1291,12 +1291,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <f>'combined Stats-this session'!$M$2:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -1305,7 +1305,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'combined Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1315,12 +1315,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <f>'combined Stats-this session'!$N$2:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -1391,7 +1391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'combined Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1401,12 +1401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <f>'combined Stats-this session'!$J$2:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -1415,7 +1415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'combined Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1425,12 +1425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <f>'combined Stats-this session'!$K$2:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -1498,7 +1498,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'combined Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1508,12 +1508,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <f>'combined Stats-this session'!$O$2:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -1522,7 +1522,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'combined Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1532,12 +1532,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <f>'combined Stats-this session'!$P$2:$P$3</f>
             </numRef>
           </val>
         </ser>
@@ -1608,7 +1608,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'combined Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1618,12 +1618,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <f>'combined Stats-this session'!$Q$2:$Q$3</f>
             </numRef>
           </val>
         </ser>
@@ -1690,7 +1690,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1700,12 +1700,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$F$2:$F$5</f>
+              <f>'NL Stats-this session'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -1714,7 +1714,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1724,12 +1724,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$G$2:$G$5</f>
+              <f>'NL Stats-this session'!$G$2:$G$6</f>
             </numRef>
           </val>
         </ser>
@@ -1738,7 +1738,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1748,12 +1748,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$H$2:$H$5</f>
+              <f>'NL Stats-this session'!$H$2:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -1817,7 +1817,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1827,12 +1827,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$L$2:$L$5</f>
+              <f>'NL Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1899,7 +1899,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1909,12 +1909,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$M$2:$M$5</f>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -1923,7 +1923,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1933,12 +1933,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$N$2:$N$5</f>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -2693,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,52 +2795,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>22.15</v>
+        <v>13.42</v>
       </c>
       <c r="D2" t="n">
-        <v>-45.85</v>
+        <v>-6.58</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.475</v>
+        <v>0.768</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.27</v>
+        <v>0.642</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0294</v>
+        <v>0.0526</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.331</v>
+        <v>0.755</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.137</v>
+        <v>0.316</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.054</v>
+        <v>0.105</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>7.47</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>74.34</v>
+        <v>46.36</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>85.73</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -2851,226 +2851,61 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>39.14</v>
+        <v>16.58</v>
       </c>
       <c r="D3" t="n">
-        <v>19.14</v>
+        <v>6.58</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.598</v>
+        <v>0.737</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.245</v>
+        <v>0.185</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.206</v>
+        <v>0.316</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.09</v>
+        <v>0.221</v>
       </c>
       <c r="L3" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>139.23</v>
+        <v>64.12</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>66.83</v>
+        <v>22.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>126.71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.70999999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>250.58</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>28.54</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0.08110000000000001</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16</v>
-      </c>
-      <c r="N5" t="n">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>91.48999999999999</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>16</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>72</v>
+          <t>06/15</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +2920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3187,52 +3022,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-45.85</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" s="1" t="n">
-        <v>0.713</v>
+        <v>0.475</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.438</v>
+        <v>0.27</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0294</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.497</v>
+        <v>0.331</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.175</v>
+        <v>0.137</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.075</v>
+        <v>0.054</v>
       </c>
       <c r="L2" t="n">
-        <v>2.31</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>72.64</v>
+        <v>74.34</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>59.64</v>
+        <v>85.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3247,56 +3082,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="n">
-        <v>0.614</v>
+        <v>0.598</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.014</v>
+        <v>0.035</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.268</v>
+        <v>0.245</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>29.45</v>
+        <v>139.23</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>36.72</v>
+        <v>66.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/10</t>
+          <t>06/14</t>
         </is>
       </c>
     </row>
@@ -3310,34 +3145,34 @@
         <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>80.84</v>
+        <v>126.71</v>
       </c>
       <c r="D4" t="n">
-        <v>40.84</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.772</v>
+        <v>0.657</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.171</v>
+        <v>0.126</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.207</v>
+        <v>0.267</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.098</v>
+        <v>0.186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3346,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>175.94</v>
+        <v>250.58</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>51.3</v>
+        <v>28.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>92</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -3365,49 +3200,104 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>89.16</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.16</v>
+        <v>-20</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.788</v>
+        <v>0.649</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.288</v>
+        <v>0.378</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0192</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.45</v>
+        <v>0.593</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.173</v>
+        <v>0.216</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.115</v>
+        <v>0.068</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>4.37</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>117.77</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>37.59</v>
+        <v>45.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>52</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3536,40 +3426,40 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.587</v>
+        <v>0.713</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.331</v>
+        <v>0.438</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0407</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.444</v>
+        <v>0.497</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.174</v>
+        <v>0.175</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="L2" t="n">
-        <v>2.08</v>
+        <v>2.31</v>
       </c>
       <c r="M2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>109.46</v>
+        <v>72.64</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>93.31999999999999</v>
+        <v>59.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3596,40 +3486,40 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.513</v>
+        <v>0.614</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.23</v>
+        <v>0.268</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.173</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.103</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>80.69</v>
+        <v>29.45</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>47.72</v>
+        <v>36.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3656,40 +3546,40 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.676</v>
+        <v>0.772</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.161</v>
+        <v>0.171</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.198</v>
+        <v>0.207</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.077</v>
+        <v>0.098</v>
       </c>
       <c r="L4" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>212.21</v>
+        <v>175.94</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>85.87</v>
+        <v>51.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -3711,40 +3601,40 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.314</v>
+        <v>0.288</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0254</v>
+        <v>0.0192</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.483</v>
+        <v>0.45</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.127</v>
+        <v>0.173</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="L5" t="n">
-        <v>2.09</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>143.51</v>
+        <v>117.77</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>108.51</v>
+        <v>37.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NL Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PLO Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PLO Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NL Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'PLO Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -295,12 +295,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <f>'PLO Stats-this session'!$J$2:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'PLO Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -319,12 +319,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <f>'PLO Stats-this session'!$K$2:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -391,7 +391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'PLO Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -401,12 +401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <f>'PLO Stats-this session'!$O$2:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -415,7 +415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'PLO Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -425,12 +425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <f>'PLO Stats-this session'!$P$2:$P$3</f>
             </numRef>
           </val>
         </ser>
@@ -500,7 +500,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'PLO Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -510,12 +510,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <f>'PLO Stats-this session'!$Q$2:$Q$3</f>
             </numRef>
           </val>
         </ser>
@@ -582,7 +582,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -592,12 +592,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$F$2:$F$5</f>
+              <f>'NL Stats-this session'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -616,12 +616,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$G$2:$G$5</f>
+              <f>'NL Stats-this session'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -630,7 +630,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -640,12 +640,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$H$2:$H$5</f>
+              <f>'NL Stats-this session'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -709,7 +709,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -719,12 +719,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$L$2:$L$5</f>
+              <f>'NL Stats-this session'!$L$2:$L$5</f>
             </numRef>
           </val>
         </ser>
@@ -791,7 +791,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -801,12 +801,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$M$2:$M$5</f>
+              <f>'NL Stats-this session'!$M$2:$M$5</f>
             </numRef>
           </val>
         </ser>
@@ -815,7 +815,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -825,12 +825,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$N$2:$N$5</f>
+              <f>'NL Stats-this session'!$N$2:$N$5</f>
             </numRef>
           </val>
         </ser>
@@ -900,7 +900,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -910,12 +910,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$J$2:$J$5</f>
+              <f>'NL Stats-this session'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -924,7 +924,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -934,12 +934,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$K$2:$K$5</f>
+              <f>'NL Stats-this session'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -1006,7 +1006,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1016,12 +1016,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$5</f>
+              <f>'NL Stats-this session'!$O$2:$O$5</f>
             </numRef>
           </val>
         </ser>
@@ -1030,7 +1030,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1040,12 +1040,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$5</f>
+              <f>'NL Stats-this session'!$P$2:$P$5</f>
             </numRef>
           </val>
         </ser>
@@ -1115,7 +1115,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1125,12 +1125,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$5</f>
+              <f>'NL Stats-this session'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$Q$2:$Q$5</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$5</f>
             </numRef>
           </val>
         </ser>
@@ -1690,7 +1690,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1700,12 +1700,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <f>'PLO Stats-this session'!$F$2:$F$3</f>
             </numRef>
           </val>
         </ser>
@@ -1714,7 +1714,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1724,12 +1724,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <f>'PLO Stats-this session'!$G$2:$G$3</f>
             </numRef>
           </val>
         </ser>
@@ -1738,7 +1738,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'PLO Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1748,12 +1748,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <f>'PLO Stats-this session'!$H$2:$H$3</f>
             </numRef>
           </val>
         </ser>
@@ -1817,7 +1817,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'PLO Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1827,12 +1827,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <f>'PLO Stats-this session'!$L$2:$L$3</f>
             </numRef>
           </val>
         </ser>
@@ -1899,7 +1899,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'PLO Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1909,12 +1909,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <f>'PLO Stats-this session'!$M$2:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -1923,7 +1923,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'PLO Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1933,12 +1933,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <f>'PLO Stats-this session'!$N$2:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -2920,7 +2920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3022,52 +3022,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>22.15</v>
+        <v>13.42</v>
       </c>
       <c r="D2" t="n">
-        <v>-45.85</v>
+        <v>-6.58</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.475</v>
+        <v>0.768</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.27</v>
+        <v>0.642</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0294</v>
+        <v>0.0526</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.331</v>
+        <v>0.755</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.137</v>
+        <v>0.316</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.054</v>
+        <v>0.105</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>7.47</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>74.34</v>
+        <v>46.36</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>85.73</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3078,226 +3078,61 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>39.14</v>
+        <v>16.58</v>
       </c>
       <c r="D3" t="n">
-        <v>19.14</v>
+        <v>6.58</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.598</v>
+        <v>0.737</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.245</v>
+        <v>0.185</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.206</v>
+        <v>0.316</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.09</v>
+        <v>0.221</v>
       </c>
       <c r="L3" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>139.23</v>
+        <v>64.12</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>66.83</v>
+        <v>22.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>126.71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.70999999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>250.58</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>28.54</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0.08110000000000001</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16</v>
-      </c>
-      <c r="N5" t="n">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>91.48999999999999</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>16</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>72</v>
+          <t>06/15</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3426,40 +3261,40 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.713</v>
+        <v>0.478</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.438</v>
+        <v>0.239</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.05</v>
+        <v>0.0326</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.497</v>
+        <v>0.38</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="L2" t="n">
-        <v>2.31</v>
+        <v>1.79</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>72.64</v>
+        <v>36.82</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>59.64</v>
+        <v>33.68</v>
       </c>
       <c r="Q2" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3486,40 +3321,40 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.614</v>
+        <v>0.43</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.268</v>
+        <v>0.19</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.2</v>
+        <v>0.151</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.116</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>29.45</v>
+        <v>51.24</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>36.72</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -3546,40 +3381,40 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.772</v>
+        <v>0.578</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.171</v>
+        <v>0.149</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.207</v>
+        <v>0.189</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.098</v>
+        <v>0.056</v>
       </c>
       <c r="L4" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>175.94</v>
+        <v>36.27</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>51.3</v>
+        <v>34.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -3601,40 +3436,40 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.788</v>
+        <v>0.606</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.288</v>
+        <v>0.333</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0192</v>
+        <v>0.0303</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.45</v>
+        <v>0.518</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.173</v>
+        <v>0.091</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.115</v>
+        <v>0.061</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>3.28</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>117.77</v>
+        <v>25.74</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>37.59</v>
+        <v>70.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -2904,7 +2904,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/15</t>
+          <t>06/15/21</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/15</t>
+          <t>06/15/21</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/10</t>
+          <t>06/10/21</t>
         </is>
       </c>
     </row>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PLO Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NL Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NL Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PLO Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$F$2:$F$3</f>
+              <f>'combined Stats-this session'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$G$2:$G$3</f>
+              <f>'combined Stats-this session'!$G$2:$G$6</f>
             </numRef>
           </val>
         </ser>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$H$2:$H$3</f>
+              <f>'combined Stats-this session'!$H$2:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -295,12 +295,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$J$2:$J$3</f>
+              <f>'NL Stats-this session'!$J$2:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -319,12 +319,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$K$2:$K$3</f>
+              <f>'NL Stats-this session'!$K$2:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -391,7 +391,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -401,12 +401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$3</f>
+              <f>'NL Stats-this session'!$O$2:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -415,7 +415,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -425,12 +425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$3</f>
+              <f>'NL Stats-this session'!$P$2:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -500,7 +500,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -510,12 +510,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$Q$2:$Q$3</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -582,7 +582,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -592,12 +592,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$5</f>
+              <f>'PLO Stats-this session'!$F$2:$F$3</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -616,12 +616,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$5</f>
+              <f>'PLO Stats-this session'!$G$2:$G$3</f>
             </numRef>
           </val>
         </ser>
@@ -630,7 +630,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'PLO Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -640,12 +640,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$5</f>
+              <f>'PLO Stats-this session'!$H$2:$H$3</f>
             </numRef>
           </val>
         </ser>
@@ -709,7 +709,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'PLO Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -719,12 +719,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$5</f>
+              <f>'PLO Stats-this session'!$L$2:$L$3</f>
             </numRef>
           </val>
         </ser>
@@ -791,7 +791,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'PLO Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -801,12 +801,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$5</f>
+              <f>'PLO Stats-this session'!$M$2:$M$3</f>
             </numRef>
           </val>
         </ser>
@@ -815,7 +815,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'PLO Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -825,12 +825,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$5</f>
+              <f>'PLO Stats-this session'!$N$2:$N$3</f>
             </numRef>
           </val>
         </ser>
@@ -900,7 +900,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'PLO Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -910,12 +910,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$5</f>
+              <f>'PLO Stats-this session'!$J$2:$J$3</f>
             </numRef>
           </val>
         </ser>
@@ -924,7 +924,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'PLO Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -934,12 +934,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$5</f>
+              <f>'PLO Stats-this session'!$K$2:$K$3</f>
             </numRef>
           </val>
         </ser>
@@ -1006,7 +1006,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'PLO Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1016,12 +1016,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$5</f>
+              <f>'PLO Stats-this session'!$O$2:$O$3</f>
             </numRef>
           </val>
         </ser>
@@ -1030,7 +1030,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'PLO Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1040,12 +1040,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$5</f>
+              <f>'PLO Stats-this session'!$P$2:$P$3</f>
             </numRef>
           </val>
         </ser>
@@ -1115,7 +1115,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'PLO Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1125,12 +1125,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$5</f>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$5</f>
+              <f>'PLO Stats-this session'!$Q$2:$Q$3</f>
             </numRef>
           </val>
         </ser>
@@ -1208,12 +1208,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$3</f>
+              <f>'combined Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1291,12 +1291,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$M$2:$M$3</f>
+              <f>'combined Stats-this session'!$M$2:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -1315,12 +1315,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$N$2:$N$3</f>
+              <f>'combined Stats-this session'!$N$2:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -1401,12 +1401,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$J$2:$J$3</f>
+              <f>'combined Stats-this session'!$J$2:$J$6</f>
             </numRef>
           </val>
         </ser>
@@ -1425,12 +1425,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$K$2:$K$3</f>
+              <f>'combined Stats-this session'!$K$2:$K$6</f>
             </numRef>
           </val>
         </ser>
@@ -1508,12 +1508,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$O$2:$O$3</f>
+              <f>'combined Stats-this session'!$O$2:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -1532,12 +1532,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$P$2:$P$3</f>
+              <f>'combined Stats-this session'!$P$2:$P$6</f>
             </numRef>
           </val>
         </ser>
@@ -1618,12 +1618,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$Q$2:$Q$3</f>
+              <f>'combined Stats-this session'!$Q$2:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -1690,7 +1690,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1700,12 +1700,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$F$2:$F$3</f>
+              <f>'NL Stats-this session'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -1714,7 +1714,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1724,12 +1724,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$G$2:$G$3</f>
+              <f>'NL Stats-this session'!$G$2:$G$6</f>
             </numRef>
           </val>
         </ser>
@@ -1738,7 +1738,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1748,12 +1748,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$H$2:$H$3</f>
+              <f>'NL Stats-this session'!$H$2:$H$6</f>
             </numRef>
           </val>
         </ser>
@@ -1817,7 +1817,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1827,12 +1827,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$L$2:$L$3</f>
+              <f>'NL Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1899,7 +1899,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1909,12 +1909,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$M$2:$M$3</f>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -1923,7 +1923,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1933,12 +1933,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$N$2:$N$3</f>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -2693,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,49 +2798,49 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>13.42</v>
+        <v>20.14</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.58</v>
+        <v>0.14</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.768</v>
+        <v>0.391</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.642</v>
+        <v>0.348</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0526</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.755</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.316</v>
+        <v>0.043</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.47</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>46.36</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>27</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -2851,61 +2851,226 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-38.93</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
+        <v>106</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>122.42</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>142.23</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>165</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>06/17/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Fish</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>82.73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>246.23</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>96.72</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C6" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F6" s="1" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="I6" s="1" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>64.12</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>95</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>06/15/21</t>
-        </is>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2915,6 +3080,398 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Buy in</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Buy out</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Net</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Rebuys</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>VPIP</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pre-flop Raise</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Three-bet</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Aggro Frequency</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Went to showdown</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Won at showdown</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Aggression Factor</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>C-bets</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>C-bet opportunities</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>At showdown</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Before showdown</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Hands played</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-38.93</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
+        <v>106</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>122.42</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>142.23</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>165</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>06/17/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>82.73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>246.23</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>96.72</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3139,341 +3696,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Player</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Buy in</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Buy out</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Net</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Rebuys</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VPIP</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Pre-flop Raise</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Three-bet</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Aggro Frequency</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Went to showdown</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Won at showdown</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Aggression Factor</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>C-bets</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>C-bet opportunities</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>At showdown</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Before showdown</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Hands played</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Raymond</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-60</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.239</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0.0326</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9</v>
-      </c>
-      <c r="N2" t="n">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>36.82</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>33.68</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>92</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>50</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>51.24</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>86</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>06/10/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80.84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.84</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>36.27</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>89.16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.606</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0.0303</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>23</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>70.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -270,7 +270,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Went to showdown vs Won at showdown</a:t>
+              <a:t>C-bets vs opportunities</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -300,7 +300,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <f>'NL Stats-this session'!$M$2:$M$6</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -324,113 +324,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Money won</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!O1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!P1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <f>'NL Stats-this session'!$N$2:$N$6</f>
             </numRef>
           </val>
         </ser>
@@ -473,6 +367,112 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$J$2:$J$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$K$2:$K$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -485,7 +485,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Hands played</a:t>
+              <a:t>Won at showdown (relative to WTSD)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -493,14 +493,14 @@
     </title>
     <plotArea>
       <barChart>
-        <barDir val="bar"/>
+        <barDir val="col"/>
         <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!R1</f>
             </strRef>
           </tx>
           <spPr>
@@ -515,7 +515,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <f>'NL Stats-this session'!$R$2:$R$6</f>
             </numRef>
           </val>
         </ser>
@@ -567,7 +567,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
+              <a:t>Money won</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -582,7 +582,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -592,12 +592,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$F$2:$F$3</f>
+              <f>'NL Stats-this session'!$O$2:$O$6</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -616,39 +616,18 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$G$2:$G$3</f>
+              <f>'NL Stats-this session'!$P$2:$P$6</f>
             </numRef>
           </val>
         </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$H$2:$H$3</f>
-            </numRef>
-          </val>
-        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -676,6 +655,9 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -694,7 +676,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Aggression Factor</a:t>
+              <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -702,14 +684,14 @@
     </title>
     <plotArea>
       <barChart>
-        <barDir val="col"/>
+        <barDir val="bar"/>
         <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -719,12 +701,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$L$2:$L$3</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
             </numRef>
           </val>
         </ser>
@@ -771,12 +753,1028 @@
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>VPIP</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$F$2:$F$3</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>0.768</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.737</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Pre-flop Raise</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$G$2:$G$3</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>0.642</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$H$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Three-bet</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$H$2:$H$3</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>0.0526</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aggression Factor</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$L$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Aggression Factor</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$L$2:$L$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>7.47</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.28</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:t>C-bets vs opportunities</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$M$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bets</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$M$2:$M$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>35</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$N$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>C-bet opportunities</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$N$2:$N$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>58</v>
+                </pt>
+                <pt idx="1">
+                  <v>0</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Went to showdown vs Won at showdown</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$J$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Went to showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$J$2:$J$3</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>0.316</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.316</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$K$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Won at showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$K$2:$K$3</f>
+              <numCache>
+                <formatCode>0.0%</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>0.105</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.221</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="0.0%" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$O$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>At showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$O$2:$O$3</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>46.36</v>
+                </pt>
+                <pt idx="1">
+                  <v>64.12</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!$P$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Before showdown</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$P$2:$P$3</f>
+              <numCache>
+                <formatCode>"$"#,##0.00_-</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>27</v>
+                </pt>
+                <pt idx="1">
+                  <v>22.4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -791,7 +1789,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!M1</f>
+              <f>'combined Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -801,145 +1799,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$M$2:$M$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!N1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$N$2:$N$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Went to showdown vs Won at showdown</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$J$2:$J$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!K1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$K$2:$K$3</f>
+              <f>'combined Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -979,34 +1844,44 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Money won</a:t>
+              <a:t>Hands played</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="0"/>
     </title>
     <plotArea>
+      <layout/>
       <barChart>
-        <barDir val="col"/>
+        <barDir val="bar"/>
         <grouping val="clustered"/>
+        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!O1</f>
+              <f>'PLO Stats-this session'!$Q$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Hands played</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -1014,43 +1889,60 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
           <cat>
-            <numRef>
+            <strRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
+              <strCache>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>Raymond</v>
+                </pt>
+                <pt idx="1">
+                  <v>Fish</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!P1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$3</f>
+              <f>'PLO Stats-this session'!$Q$2:$Q$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="2"/>
+                <pt idx="0">
+                  <v>95</v>
+                </pt>
+                <pt idx="1">
+                  <v>95</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showLegendKey val="0"/>
           <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1061,190 +1953,34 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
+        <delete val="0"/>
         <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="0"/>
+        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <axPos val="l"/>
+        <delete val="0"/>
+        <axPos val="b"/>
         <majorGridlines/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Hands played</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="bar"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!Q1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$Q$2:$Q$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="2"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Aggression Factor</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'combined Stats-this session'!L1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1483,6 +2219,89 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>Won at showdown (relative to WTSD)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'combined Stats-this session'!R1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'combined Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'combined Stats-this session'!$R$2:$R$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="2"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>Money won</a:t>
             </a:r>
           </a:p>
@@ -1580,7 +2399,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="2"/>
   <chart>
@@ -1630,133 +2449,6 @@
         <dLbls>
           <showVal val="1"/>
         </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
-            </numRef>
-          </val>
-        </ser>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -1802,7 +2494,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Aggression Factor</a:t>
+              <a:t>VPIP, Pre-flop raise, 3-bet</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1817,7 +2509,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1832,13 +2524,58 @@
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <f>'NL Stats-this session'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showVal val="1"/>
-        </dLbls>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$G$2:$G$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'NL Stats-this session'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'NL Stats-this session'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'NL Stats-this session'!$H$2:$H$6</f>
+            </numRef>
+          </val>
+        </ser>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -1884,7 +2621,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>C-bets vs opportunities</a:t>
+              <a:t>Aggression Factor</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1899,7 +2636,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1914,31 +2651,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'NL Stats-this session'!N1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <f>'NL Stats-this session'!$L$2:$L$6</f>
             </numRef>
           </val>
         </ser>
@@ -1972,9 +2685,6 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -2100,7 +2810,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4680000" cy="4680000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -2110,6 +2820,28 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4680000" cy="4680000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2237,7 +2969,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4680000" cy="4680000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -2247,6 +2979,28 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4680000" cy="4680000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2787,6 +3541,11 @@
           <t>Hands played</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>WTSD (rel)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2842,6 +3601,9 @@
       <c r="Q2" t="n">
         <v>23</v>
       </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>Date</t>
@@ -2902,6 +3664,9 @@
       <c r="Q3" t="n">
         <v>165</v>
       </c>
+      <c r="R3" s="1" t="n">
+        <v>0.286</v>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>06/17/21</t>
@@ -2962,6 +3727,9 @@
       <c r="Q4" t="n">
         <v>157</v>
       </c>
+      <c r="R4" s="1" t="n">
+        <v>0.738</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3017,6 +3785,9 @@
       <c r="Q5" t="n">
         <v>150</v>
       </c>
+      <c r="R5" s="1" t="n">
+        <v>0.452</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3071,6 +3842,9 @@
       </c>
       <c r="Q6" t="n">
         <v>138</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.579</v>
       </c>
     </row>
   </sheetData>
@@ -3179,6 +3953,11 @@
           <t>Hands played</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>WTSD (rel)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3234,6 +4013,9 @@
       <c r="Q2" t="n">
         <v>23</v>
       </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>Date</t>
@@ -3294,6 +4076,9 @@
       <c r="Q3" t="n">
         <v>165</v>
       </c>
+      <c r="R3" s="1" t="n">
+        <v>0.286</v>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>06/17/21</t>
@@ -3354,6 +4139,9 @@
       <c r="Q4" t="n">
         <v>157</v>
       </c>
+      <c r="R4" s="1" t="n">
+        <v>0.738</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3409,6 +4197,9 @@
       <c r="Q5" t="n">
         <v>150</v>
       </c>
+      <c r="R5" s="1" t="n">
+        <v>0.452</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3463,6 +4254,9 @@
       </c>
       <c r="Q6" t="n">
         <v>138</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.579</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/stats.xlsx
+++ b/Outputs/stats.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="combined Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NL Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NL Stats-this session" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="combined Stats-this session" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PLO Stats-this session" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -158,7 +158,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!F1</f>
+              <f>'NL Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$F$2:$F$6</f>
+              <f>'NL Stats-this session'!$F$2:$F$4</f>
             </numRef>
           </val>
         </ser>
@@ -182,7 +182,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!G1</f>
+              <f>'NL Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -192,12 +192,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$G$2:$G$6</f>
+              <f>'NL Stats-this session'!$G$2:$G$4</f>
             </numRef>
           </val>
         </ser>
@@ -206,7 +206,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!H1</f>
+              <f>'NL Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -216,12 +216,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$H$2:$H$6</f>
+              <f>'NL Stats-this session'!$H$2:$H$4</f>
             </numRef>
           </val>
         </ser>
@@ -285,7 +285,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!M1</f>
+              <f>'combined Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -295,12 +295,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$M$2:$M$6</f>
+              <f>'combined Stats-this session'!$M$2:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -309,7 +309,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!N1</f>
+              <f>'combined Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -319,12 +319,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$N$2:$N$6</f>
+              <f>'combined Stats-this session'!$N$2:$N$4</f>
             </numRef>
           </val>
         </ser>
@@ -394,7 +394,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!J1</f>
+              <f>'combined Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -404,12 +404,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$J$2:$J$6</f>
+              <f>'combined Stats-this session'!$J$2:$J$4</f>
             </numRef>
           </val>
         </ser>
@@ -418,7 +418,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!K1</f>
+              <f>'combined Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -428,12 +428,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$K$2:$K$6</f>
+              <f>'combined Stats-this session'!$K$2:$K$4</f>
             </numRef>
           </val>
         </ser>
@@ -500,7 +500,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!R1</f>
+              <f>'combined Stats-this session'!R1</f>
             </strRef>
           </tx>
           <spPr>
@@ -510,12 +510,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$R$2:$R$6</f>
+              <f>'combined Stats-this session'!$R$2:$R$4</f>
             </numRef>
           </val>
         </ser>
@@ -582,7 +582,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!O1</f>
+              <f>'combined Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -592,12 +592,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$O$2:$O$6</f>
+              <f>'combined Stats-this session'!$O$2:$O$4</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +606,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!P1</f>
+              <f>'combined Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -616,12 +616,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$P$2:$P$6</f>
+              <f>'combined Stats-this session'!$P$2:$P$4</f>
             </numRef>
           </val>
         </ser>
@@ -691,7 +691,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!Q1</f>
+              <f>'combined Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -701,12 +701,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$Q$2:$Q$6</f>
+              <f>'combined Stats-this session'!$Q$2:$Q$4</f>
             </numRef>
           </val>
         </ser>
@@ -753,7 +753,6 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
@@ -764,26 +763,17 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$F$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>VPIP</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -791,34 +781,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$F$2:$F$3</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>0.768</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.737</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -827,13 +797,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$G$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Pre-flop Raise</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -841,34 +805,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$G$2:$G$3</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>0.642</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -877,13 +821,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$H$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Three-bet</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -891,45 +829,17 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$H$2:$H$3</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>0.0526</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -939,34 +849,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -982,7 +880,6 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
@@ -993,26 +890,17 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$L$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Aggression Factor</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1020,60 +908,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$L$2:$L$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>7.47</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.28</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1084,34 +931,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1127,7 +962,6 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
@@ -1138,26 +972,17 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$M$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bets</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1165,50 +990,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$M$2:$M$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>35</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -1217,13 +1006,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$N$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>C-bet opportunities</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1231,60 +1014,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$N$2:$N$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>58</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1295,39 +1037,26 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <legend>
       <legendPos val="b"/>
-      <overlay val="0"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1342,7 +1071,6 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
@@ -1353,26 +1081,17 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$J$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Went to showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1380,50 +1099,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$J$2:$J$3</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>0.316</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.316</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
@@ -1432,13 +1115,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$K$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Won at showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1446,60 +1123,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$K$2:$K$3</f>
-              <numCache>
-                <formatCode>0.0%</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>0.105</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.221</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1510,34 +1146,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="0.0%" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -1553,37 +1177,27 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Money won</a:t>
+              <a:t>Won at showdown (relative to WTSD)</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$O$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>At showdown</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!R1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1591,126 +1205,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PLO Stats-this session'!$O$2:$O$3</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>46.36</v>
-                </pt>
-                <pt idx="1">
-                  <v>64.12</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'PLO Stats-this session'!$P$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Before showdown</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PLO Stats-this session'!$P$2:$P$3</f>
-              <numCache>
-                <formatCode>"$"#,##0.00_-</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>27</v>
-                </pt>
-                <pt idx="1">
-                  <v>22.4</v>
-                </pt>
-              </numCache>
+              <f>'PLO Stats-this session'!$R$2:$R$3</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1721,40 +1228,24 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="&quot;$&quot;#,##0.00_-" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -1789,7 +1280,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!L1</f>
+              <f>'NL Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1799,12 +1290,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$L$2:$L$6</f>
+              <f>'NL Stats-this session'!$L$2:$L$4</f>
             </numRef>
           </val>
         </ser>
@@ -1851,7 +1342,115 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Money won</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!O1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$O$2:$O$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PLO Stats-this session'!P1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'PLO Stats-this session'!$A$2:$A$3</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PLO Stats-this session'!$P$2:$P$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
@@ -1862,26 +1461,17 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <barChart>
         <barDir val="bar"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'PLO Stats-this session'!$Q$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Hands played</v>
-                </pt>
-              </strCache>
+              <f>'PLO Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1889,60 +1479,19 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
+            <numRef>
               <f>'PLO Stats-this session'!$A$2:$A$3</f>
-              <strCache>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>Raymond</v>
-                </pt>
-                <pt idx="1">
-                  <v>Fish</v>
-                </pt>
-              </strCache>
-            </strRef>
+            </numRef>
           </cat>
           <val>
             <numRef>
               <f>'PLO Stats-this session'!$Q$2:$Q$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="2"/>
-                <pt idx="0">
-                  <v>95</v>
-                </pt>
-                <pt idx="1">
-                  <v>95</v>
-                </pt>
-              </numCache>
             </numRef>
           </val>
         </ser>
         <dLbls>
-          <showLegendKey val="0"/>
           <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
         </dLbls>
         <gapWidth val="150"/>
         <axId val="10"/>
@@ -1953,34 +1502,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
+        <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -2017,7 +1554,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!M1</f>
+              <f>'NL Stats-this session'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2027,12 +1564,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$M$2:$M$6</f>
+              <f>'NL Stats-this session'!$M$2:$M$4</f>
             </numRef>
           </val>
         </ser>
@@ -2041,7 +1578,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!N1</f>
+              <f>'NL Stats-this session'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2051,12 +1588,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$N$2:$N$6</f>
+              <f>'NL Stats-this session'!$N$2:$N$4</f>
             </numRef>
           </val>
         </ser>
@@ -2127,7 +1664,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!J1</f>
+              <f>'NL Stats-this session'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2137,12 +1674,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$J$2:$J$6</f>
+              <f>'NL Stats-this session'!$J$2:$J$4</f>
             </numRef>
           </val>
         </ser>
@@ -2151,7 +1688,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!K1</f>
+              <f>'NL Stats-this session'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2161,12 +1698,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$K$2:$K$6</f>
+              <f>'NL Stats-this session'!$K$2:$K$4</f>
             </numRef>
           </val>
         </ser>
@@ -2234,7 +1771,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!R1</f>
+              <f>'NL Stats-this session'!R1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2244,12 +1781,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$R$2:$R$6</f>
+              <f>'NL Stats-this session'!$R$2:$R$4</f>
             </numRef>
           </val>
         </ser>
@@ -2317,7 +1854,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!O1</f>
+              <f>'NL Stats-this session'!O1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2327,12 +1864,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$O$2:$O$6</f>
+              <f>'NL Stats-this session'!$O$2:$O$4</f>
             </numRef>
           </val>
         </ser>
@@ -2341,7 +1878,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!P1</f>
+              <f>'NL Stats-this session'!P1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2351,12 +1888,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$P$2:$P$6</f>
+              <f>'NL Stats-this session'!$P$2:$P$4</f>
             </numRef>
           </val>
         </ser>
@@ -2427,7 +1964,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'combined Stats-this session'!Q1</f>
+              <f>'NL Stats-this session'!Q1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2437,12 +1974,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'combined Stats-this session'!$A$2:$A$6</f>
+              <f>'NL Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'combined Stats-this session'!$Q$2:$Q$6</f>
+              <f>'NL Stats-this session'!$Q$2:$Q$4</f>
             </numRef>
           </val>
         </ser>
@@ -2509,7 +2046,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!F1</f>
+              <f>'combined Stats-this session'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2519,12 +2056,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$F$2:$F$6</f>
+              <f>'combined Stats-this session'!$F$2:$F$4</f>
             </numRef>
           </val>
         </ser>
@@ -2533,7 +2070,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!G1</f>
+              <f>'combined Stats-this session'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2543,12 +2080,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$G$2:$G$6</f>
+              <f>'combined Stats-this session'!$G$2:$G$4</f>
             </numRef>
           </val>
         </ser>
@@ -2557,7 +2094,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!H1</f>
+              <f>'combined Stats-this session'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2567,12 +2104,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$H$2:$H$6</f>
+              <f>'combined Stats-this session'!$H$2:$H$4</f>
             </numRef>
           </val>
         </ser>
@@ -2636,7 +2173,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'NL Stats-this session'!L1</f>
+              <f>'combined Stats-this session'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2646,12 +2183,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'NL Stats-this session'!$A$2:$A$6</f>
+              <f>'combined Stats-this session'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'NL Stats-this session'!$L$2:$L$6</f>
+              <f>'combined Stats-this session'!$L$2:$L$4</f>
             </numRef>
           </val>
         </ser>
@@ -3128,7 +2665,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4680000" cy="4680000"/>
+    <ext cx="7920000" cy="4464000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -3138,6 +2675,28 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4680000" cy="4680000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3447,7 +3006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3554,55 +3113,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>20.14</v>
+        <v>31.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.391</v>
+        <v>0.516</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.348</v>
+        <v>0.285</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0181</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.439</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.043</v>
+        <v>0.195</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>69.34</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.369999999999999</v>
+        <v>55.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>0.302</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -3613,63 +3172,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>21.07</v>
+        <v>8.73</v>
       </c>
       <c r="D3" t="n">
-        <v>-38.93</v>
+        <v>-11.27</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.83</v>
+        <v>0.507</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.533</v>
+        <v>0.078</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.0303</v>
+        <v>0.0046</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.694</v>
+        <v>0.309</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.297</v>
+        <v>0.26</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.146</v>
       </c>
       <c r="L3" t="n">
-        <v>4.41</v>
+        <v>0.98</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>122.42</v>
+        <v>49.87</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>142.23</v>
+        <v>46.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0.286</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/17/21</t>
+          <t>05/31/21</t>
         </is>
       </c>
     </row>
@@ -3683,34 +3242,34 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>82.73</v>
+        <v>29.87</v>
       </c>
       <c r="D4" t="n">
-        <v>62.73</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.707</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.078</v>
+        <v>0.114</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.268</v>
+        <v>0.358</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.197</v>
+        <v>0.191</v>
       </c>
       <c r="L4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3719,132 +3278,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>246.23</v>
+        <v>120.12</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>19.5</v>
+        <v>27.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.738</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>96.72</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>150</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0.452</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-3.94</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>138</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>0.579</v>
+        <v>0.532</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3966,55 +3409,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>20.14</v>
+        <v>31.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.391</v>
+        <v>0.518</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.348</v>
+        <v>0.288</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0177</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.5</v>
+        <v>0.445</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.043</v>
+        <v>0.199</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>2.59</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>69.34</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.369999999999999</v>
+        <v>56.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>0.289</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -4025,63 +3468,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>21.07</v>
+        <v>8.73</v>
       </c>
       <c r="D3" t="n">
-        <v>-38.93</v>
+        <v>-11.27</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.83</v>
+        <v>0.505</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.533</v>
+        <v>0.077</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.0303</v>
+        <v>0.0045</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.694</v>
+        <v>0.308</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.297</v>
+        <v>0.259</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.145</v>
       </c>
       <c r="L3" t="n">
-        <v>4.41</v>
+        <v>0.98</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>122.42</v>
+        <v>49.87</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>142.23</v>
+        <v>46.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0.286</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>06/17/21</t>
+          <t>05/31/21</t>
         </is>
       </c>
     </row>
@@ -4095,34 +3538,34 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>82.73</v>
+        <v>29.87</v>
       </c>
       <c r="D4" t="n">
-        <v>62.73</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.707</v>
+        <v>0.695</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.078</v>
+        <v>0.115</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.268</v>
+        <v>0.359</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.197</v>
+        <v>0.195</v>
       </c>
       <c r="L4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -4131,132 +3574,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>246.23</v>
+        <v>123.32</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>19.5</v>
+        <v>28.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.738</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>96.72</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>33.16</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>150</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0.452</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-3.94</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>138</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>0.579</v>
+        <v>0.544</v>
       </c>
     </row>
   </sheetData>
@@ -4365,60 +3692,68 @@
           <t>Hands played</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>WTSD (rel)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>13.42</v>
+        <v>44.82</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.58</v>
+        <v>4.82</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0.0526</v>
-      </c>
       <c r="I2" s="1" t="n">
-        <v>0.755</v>
+        <v>0.243</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.316</v>
+        <v>0.37</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.105</v>
+        <v>0.19</v>
       </c>
       <c r="L2" t="n">
-        <v>7.47</v>
+        <v>0.39</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>46.36</v>
+        <v>83.62</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>27</v>
+        <v>25.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0.514</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -4429,60 +3764,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>16.58</v>
+        <v>15.18</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58</v>
+        <v>-4.82</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.737</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.185</v>
+        <v>0.528</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.316</v>
+        <v>0.37</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.221</v>
+        <v>0.18</v>
       </c>
       <c r="L3" t="n">
-        <v>0.28</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>64.12</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>22.4</v>
+        <v>26.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>95</v>
+        <v>100</v>
+      </c>
+ 